--- a/builds/production/data/maindata.xlsx
+++ b/builds/production/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="0" windowWidth="24660" windowHeight="18280" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="8560" yWindow="0" windowWidth="24660" windowHeight="18280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="incidents" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="691">
   <si>
     <t>ARMATAGE</t>
   </si>
@@ -2097,6 +2097,9 @@
   </si>
   <si>
     <t>population</t>
+  </si>
+  <si>
+    <t>KINGFIELD</t>
   </si>
 </sst>
 </file>
@@ -2107,7 +2110,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2289,12 +2292,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2568,7 +2565,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="519">
+  <cellStyleXfs count="521">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -2834,6 +2831,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3218,6 +3217,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="264" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3263,18 +3272,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="264" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="519">
+  <cellStyles count="521">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -3533,6 +3532,7 @@
     <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -3790,6 +3790,7 @@
     <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 3" xfId="2"/>
@@ -4133,7 +4134,7 @@
     <col min="1" max="1" width="36.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="5" width="10.83203125" style="53"/>
-    <col min="6" max="7" width="10.83203125" style="76"/>
+    <col min="6" max="7" width="10.83203125" style="61"/>
     <col min="8" max="9" width="10.83203125" style="2"/>
     <col min="16" max="18" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -4154,22 +4155,22 @@
       <c r="C1" s="29" t="s">
         <v>535</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="62" t="s">
         <v>536</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="62" t="s">
         <v>537</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="60" t="s">
         <v>539</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>540</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="63" t="s">
         <v>541</v>
       </c>
       <c r="J1" s="58" t="s">
@@ -4234,13 +4235,13 @@
       <c r="E2" s="53">
         <v>94</v>
       </c>
-      <c r="F2" s="76">
+      <c r="F2" s="61">
         <v>109</v>
       </c>
-      <c r="G2" s="76">
+      <c r="G2" s="61">
         <v>91</v>
       </c>
-      <c r="H2" s="76">
+      <c r="H2" s="61">
         <v>119</v>
       </c>
       <c r="I2" s="2">
@@ -4311,13 +4312,13 @@
       <c r="E3" s="53">
         <v>250</v>
       </c>
-      <c r="F3" s="76">
+      <c r="F3" s="61">
         <v>260</v>
       </c>
-      <c r="G3" s="76">
+      <c r="G3" s="61">
         <v>305</v>
       </c>
-      <c r="H3" s="76">
+      <c r="H3" s="61">
         <v>337</v>
       </c>
       <c r="I3" s="2">
@@ -4388,13 +4389,13 @@
       <c r="E4" s="53">
         <v>172</v>
       </c>
-      <c r="F4" s="76">
+      <c r="F4" s="61">
         <v>162</v>
       </c>
-      <c r="G4" s="76">
+      <c r="G4" s="61">
         <v>151</v>
       </c>
-      <c r="H4" s="76">
+      <c r="H4" s="61">
         <v>143</v>
       </c>
       <c r="I4" s="2">
@@ -4465,13 +4466,13 @@
       <c r="E5" s="53">
         <v>86</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="61">
         <v>83</v>
       </c>
-      <c r="G5" s="76">
+      <c r="G5" s="61">
         <v>90</v>
       </c>
-      <c r="H5" s="76">
+      <c r="H5" s="61">
         <v>99</v>
       </c>
       <c r="I5" s="2">
@@ -4542,13 +4543,13 @@
       <c r="E6" s="53">
         <v>98</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="61">
         <v>94</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="61">
         <v>120</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="61">
         <v>151</v>
       </c>
       <c r="I6" s="2">
@@ -4619,13 +4620,13 @@
       <c r="E7" s="53">
         <v>155</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="61">
         <v>114</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="61">
         <v>135</v>
       </c>
-      <c r="H7" s="76">
+      <c r="H7" s="61">
         <v>161</v>
       </c>
       <c r="I7" s="2">
@@ -4696,13 +4697,13 @@
       <c r="E8" s="53">
         <v>101</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="61">
         <v>111</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="61">
         <v>89</v>
       </c>
-      <c r="H8" s="76">
+      <c r="H8" s="61">
         <v>118</v>
       </c>
       <c r="I8" s="2">
@@ -4773,13 +4774,13 @@
       <c r="E9" s="53">
         <v>32</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="61">
         <v>61</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="61">
         <v>72</v>
       </c>
-      <c r="H9" s="76">
+      <c r="H9" s="61">
         <v>93</v>
       </c>
       <c r="I9" s="2">
@@ -4850,13 +4851,13 @@
       <c r="E10" s="53">
         <v>320</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="61">
         <v>349</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="61">
         <v>384</v>
       </c>
-      <c r="H10" s="76">
+      <c r="H10" s="61">
         <v>388</v>
       </c>
       <c r="I10" s="2">
@@ -4927,13 +4928,13 @@
       <c r="E11" s="53">
         <v>104</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="61">
         <v>124</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="61">
         <v>64</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="61">
         <v>92</v>
       </c>
       <c r="I11" s="2">
@@ -5004,13 +5005,13 @@
       <c r="E12" s="53">
         <v>482</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="61">
         <v>549</v>
       </c>
-      <c r="G12" s="76">
+      <c r="G12" s="61">
         <v>616</v>
       </c>
-      <c r="H12" s="76">
+      <c r="H12" s="61">
         <v>688</v>
       </c>
       <c r="I12" s="2">
@@ -5081,13 +5082,13 @@
       <c r="E13" s="53">
         <v>663</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="61">
         <v>566</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="61">
         <v>676</v>
       </c>
-      <c r="H13" s="76">
+      <c r="H13" s="61">
         <v>753</v>
       </c>
       <c r="I13" s="2">
@@ -5158,13 +5159,13 @@
       <c r="E14" s="53">
         <v>159</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="61">
         <v>188</v>
       </c>
-      <c r="G14" s="76">
+      <c r="G14" s="61">
         <v>265</v>
       </c>
-      <c r="H14" s="76">
+      <c r="H14" s="61">
         <v>240</v>
       </c>
       <c r="I14" s="2">
@@ -5235,13 +5236,13 @@
       <c r="E15" s="53">
         <v>82</v>
       </c>
-      <c r="F15" s="76">
+      <c r="F15" s="61">
         <v>79</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="61">
         <v>105</v>
       </c>
-      <c r="H15" s="76">
+      <c r="H15" s="61">
         <v>89</v>
       </c>
       <c r="I15" s="2">
@@ -5312,13 +5313,13 @@
       <c r="E16" s="53">
         <v>255</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="61">
         <v>285</v>
       </c>
-      <c r="G16" s="76">
+      <c r="G16" s="61">
         <v>361</v>
       </c>
-      <c r="H16" s="76">
+      <c r="H16" s="61">
         <v>326</v>
       </c>
       <c r="I16" s="2">
@@ -5389,13 +5390,13 @@
       <c r="E17" s="53">
         <v>145</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="61">
         <v>147</v>
       </c>
-      <c r="G17" s="76">
+      <c r="G17" s="61">
         <v>176</v>
       </c>
-      <c r="H17" s="76">
+      <c r="H17" s="61">
         <v>158</v>
       </c>
       <c r="I17" s="2">
@@ -5466,13 +5467,13 @@
       <c r="E18" s="53">
         <v>246</v>
       </c>
-      <c r="F18" s="76">
+      <c r="F18" s="61">
         <v>262</v>
       </c>
-      <c r="G18" s="76">
+      <c r="G18" s="61">
         <v>229</v>
       </c>
-      <c r="H18" s="76">
+      <c r="H18" s="61">
         <v>252</v>
       </c>
       <c r="I18" s="2">
@@ -5543,13 +5544,13 @@
       <c r="E19" s="53">
         <v>128</v>
       </c>
-      <c r="F19" s="76">
+      <c r="F19" s="61">
         <v>103</v>
       </c>
-      <c r="G19" s="76">
+      <c r="G19" s="61">
         <v>160</v>
       </c>
-      <c r="H19" s="76">
+      <c r="H19" s="61">
         <v>161</v>
       </c>
       <c r="I19" s="2">
@@ -5620,13 +5621,13 @@
       <c r="E20" s="53">
         <v>250</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="61">
         <v>153</v>
       </c>
-      <c r="G20" s="76">
+      <c r="G20" s="61">
         <v>143</v>
       </c>
-      <c r="H20" s="76">
+      <c r="H20" s="61">
         <v>228</v>
       </c>
       <c r="I20" s="2">
@@ -5697,13 +5698,13 @@
       <c r="E21" s="53">
         <v>1952</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="61">
         <v>1925</v>
       </c>
-      <c r="G21" s="76">
+      <c r="G21" s="61">
         <v>2141</v>
       </c>
-      <c r="H21" s="76">
+      <c r="H21" s="61">
         <v>2165</v>
       </c>
       <c r="I21" s="2">
@@ -5774,13 +5775,13 @@
       <c r="E22" s="53">
         <v>154</v>
       </c>
-      <c r="F22" s="76">
+      <c r="F22" s="61">
         <v>131</v>
       </c>
-      <c r="G22" s="76">
+      <c r="G22" s="61">
         <v>158</v>
       </c>
-      <c r="H22" s="76">
+      <c r="H22" s="61">
         <v>147</v>
       </c>
       <c r="I22" s="2">
@@ -5851,13 +5852,13 @@
       <c r="E23" s="53">
         <v>262</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="61">
         <v>215</v>
       </c>
-      <c r="G23" s="76">
+      <c r="G23" s="61">
         <v>315</v>
       </c>
-      <c r="H23" s="76">
+      <c r="H23" s="61">
         <v>252</v>
       </c>
       <c r="I23" s="2">
@@ -5926,13 +5927,13 @@
       <c r="E24" s="53">
         <v>373</v>
       </c>
-      <c r="F24" s="76">
+      <c r="F24" s="61">
         <v>423</v>
       </c>
-      <c r="G24" s="76">
+      <c r="G24" s="61">
         <v>422</v>
       </c>
-      <c r="H24" s="76">
+      <c r="H24" s="61">
         <v>383</v>
       </c>
       <c r="I24" s="2">
@@ -6003,13 +6004,13 @@
       <c r="E25" s="53">
         <v>144</v>
       </c>
-      <c r="F25" s="76">
+      <c r="F25" s="61">
         <v>133</v>
       </c>
-      <c r="G25" s="76">
+      <c r="G25" s="61">
         <v>161</v>
       </c>
-      <c r="H25" s="76">
+      <c r="H25" s="61">
         <v>182</v>
       </c>
       <c r="I25" s="2">
@@ -6080,13 +6081,13 @@
       <c r="E26" s="53">
         <v>458</v>
       </c>
-      <c r="F26" s="76">
+      <c r="F26" s="61">
         <v>443</v>
       </c>
-      <c r="G26" s="76">
+      <c r="G26" s="61">
         <v>451</v>
       </c>
-      <c r="H26" s="76">
+      <c r="H26" s="61">
         <v>597</v>
       </c>
       <c r="I26" s="2">
@@ -6157,13 +6158,13 @@
       <c r="E27" s="53">
         <v>112</v>
       </c>
-      <c r="F27" s="76">
+      <c r="F27" s="61">
         <v>133</v>
       </c>
-      <c r="G27" s="76">
+      <c r="G27" s="61">
         <v>126</v>
       </c>
-      <c r="H27" s="76">
+      <c r="H27" s="61">
         <v>118</v>
       </c>
       <c r="I27" s="2">
@@ -6234,13 +6235,13 @@
       <c r="E28" s="53">
         <v>134</v>
       </c>
-      <c r="F28" s="76">
+      <c r="F28" s="61">
         <v>94</v>
       </c>
-      <c r="G28" s="76">
+      <c r="G28" s="61">
         <v>110</v>
       </c>
-      <c r="H28" s="76">
+      <c r="H28" s="61">
         <v>94</v>
       </c>
       <c r="I28" s="2">
@@ -6311,13 +6312,13 @@
       <c r="E29" s="53">
         <v>434</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="61">
         <v>482</v>
       </c>
-      <c r="G29" s="76">
+      <c r="G29" s="61">
         <v>553</v>
       </c>
-      <c r="H29" s="76">
+      <c r="H29" s="61">
         <v>516</v>
       </c>
       <c r="I29" s="2">
@@ -6388,13 +6389,13 @@
       <c r="E30" s="53">
         <v>114</v>
       </c>
-      <c r="F30" s="76">
+      <c r="F30" s="61">
         <v>150</v>
       </c>
-      <c r="G30" s="76">
+      <c r="G30" s="61">
         <v>124</v>
       </c>
-      <c r="H30" s="76">
+      <c r="H30" s="61">
         <v>119</v>
       </c>
       <c r="I30" s="2">
@@ -6465,13 +6466,13 @@
       <c r="E31" s="53">
         <v>93</v>
       </c>
-      <c r="F31" s="76">
+      <c r="F31" s="61">
         <v>67</v>
       </c>
-      <c r="G31" s="76">
+      <c r="G31" s="61">
         <v>94</v>
       </c>
-      <c r="H31" s="76">
+      <c r="H31" s="61">
         <v>92</v>
       </c>
       <c r="I31" s="2">
@@ -6542,13 +6543,13 @@
       <c r="E32" s="53">
         <v>245</v>
       </c>
-      <c r="F32" s="76">
+      <c r="F32" s="61">
         <v>220</v>
       </c>
-      <c r="G32" s="76">
+      <c r="G32" s="61">
         <v>227</v>
       </c>
-      <c r="H32" s="76">
+      <c r="H32" s="61">
         <v>238</v>
       </c>
       <c r="I32" s="2">
@@ -6619,13 +6620,13 @@
       <c r="E33" s="53">
         <v>540</v>
       </c>
-      <c r="F33" s="76">
+      <c r="F33" s="61">
         <v>619</v>
       </c>
-      <c r="G33" s="76">
+      <c r="G33" s="61">
         <v>792</v>
       </c>
-      <c r="H33" s="76">
+      <c r="H33" s="61">
         <v>905</v>
       </c>
       <c r="I33" s="2">
@@ -6696,13 +6697,13 @@
       <c r="E34" s="53">
         <v>273</v>
       </c>
-      <c r="F34" s="76">
+      <c r="F34" s="61">
         <v>273</v>
       </c>
-      <c r="G34" s="76">
+      <c r="G34" s="61">
         <v>301</v>
       </c>
-      <c r="H34" s="76">
+      <c r="H34" s="61">
         <v>233</v>
       </c>
       <c r="I34" s="2">
@@ -6773,13 +6774,13 @@
       <c r="E35" s="53">
         <v>362</v>
       </c>
-      <c r="F35" s="76">
+      <c r="F35" s="61">
         <v>314</v>
       </c>
-      <c r="G35" s="76">
+      <c r="G35" s="61">
         <v>318</v>
       </c>
-      <c r="H35" s="76">
+      <c r="H35" s="61">
         <v>325</v>
       </c>
       <c r="I35" s="2">
@@ -6850,13 +6851,13 @@
       <c r="E36" s="53">
         <v>259</v>
       </c>
-      <c r="F36" s="76">
+      <c r="F36" s="61">
         <v>234</v>
       </c>
-      <c r="G36" s="76">
+      <c r="G36" s="61">
         <v>266</v>
       </c>
-      <c r="H36" s="76">
+      <c r="H36" s="61">
         <v>293</v>
       </c>
       <c r="I36" s="2">
@@ -6927,13 +6928,13 @@
       <c r="E37" s="53">
         <v>1</v>
       </c>
-      <c r="F37" s="76">
+      <c r="F37" s="61">
         <v>3</v>
       </c>
-      <c r="G37" s="76">
+      <c r="G37" s="61">
         <v>2</v>
       </c>
-      <c r="H37" s="76">
+      <c r="H37" s="61">
         <v>1</v>
       </c>
       <c r="I37" s="2">
@@ -7004,13 +7005,13 @@
       <c r="E38" s="53">
         <v>593</v>
       </c>
-      <c r="F38" s="76">
+      <c r="F38" s="61">
         <v>732</v>
       </c>
-      <c r="G38" s="76">
+      <c r="G38" s="61">
         <v>823</v>
       </c>
-      <c r="H38" s="76">
+      <c r="H38" s="61">
         <v>801</v>
       </c>
       <c r="I38" s="2">
@@ -7081,13 +7082,13 @@
       <c r="E39" s="53">
         <v>135</v>
       </c>
-      <c r="F39" s="76">
+      <c r="F39" s="61">
         <v>139</v>
       </c>
-      <c r="G39" s="76">
+      <c r="G39" s="61">
         <v>106</v>
       </c>
-      <c r="H39" s="76">
+      <c r="H39" s="61">
         <v>70</v>
       </c>
       <c r="I39" s="2">
@@ -7158,13 +7159,13 @@
       <c r="E40" s="53">
         <v>78</v>
       </c>
-      <c r="F40" s="76">
+      <c r="F40" s="61">
         <v>67</v>
       </c>
-      <c r="G40" s="76">
+      <c r="G40" s="61">
         <v>76</v>
       </c>
-      <c r="H40" s="76">
+      <c r="H40" s="61">
         <v>68</v>
       </c>
       <c r="I40" s="2">
@@ -7235,13 +7236,13 @@
       <c r="E41" s="53">
         <v>31</v>
       </c>
-      <c r="F41" s="76">
+      <c r="F41" s="61">
         <v>50</v>
       </c>
-      <c r="G41" s="76">
+      <c r="G41" s="61">
         <v>46</v>
       </c>
-      <c r="H41" s="76">
+      <c r="H41" s="61">
         <v>72</v>
       </c>
       <c r="I41" s="2">
@@ -7312,13 +7313,13 @@
       <c r="E42" s="53">
         <v>299</v>
       </c>
-      <c r="F42" s="76">
+      <c r="F42" s="61">
         <v>301</v>
       </c>
-      <c r="G42" s="76">
+      <c r="G42" s="61">
         <v>345</v>
       </c>
-      <c r="H42" s="76">
+      <c r="H42" s="61">
         <v>372</v>
       </c>
       <c r="I42" s="2">
@@ -7389,13 +7390,13 @@
       <c r="E43" s="53">
         <v>231</v>
       </c>
-      <c r="F43" s="76">
+      <c r="F43" s="61">
         <v>313</v>
       </c>
-      <c r="G43" s="76">
+      <c r="G43" s="61">
         <v>346</v>
       </c>
-      <c r="H43" s="76">
+      <c r="H43" s="61">
         <v>313</v>
       </c>
       <c r="I43" s="2">
@@ -7466,13 +7467,13 @@
       <c r="E44" s="53">
         <v>126</v>
       </c>
-      <c r="F44" s="76">
+      <c r="F44" s="61">
         <v>138</v>
       </c>
-      <c r="G44" s="76">
+      <c r="G44" s="61">
         <v>149</v>
       </c>
-      <c r="H44" s="76">
+      <c r="H44" s="61">
         <v>146</v>
       </c>
       <c r="I44" s="2">
@@ -7543,13 +7544,13 @@
       <c r="E45" s="53">
         <v>138</v>
       </c>
-      <c r="F45" s="76">
+      <c r="F45" s="61">
         <v>167</v>
       </c>
-      <c r="G45" s="76">
+      <c r="G45" s="61">
         <v>170</v>
       </c>
-      <c r="H45" s="76">
+      <c r="H45" s="61">
         <v>179</v>
       </c>
       <c r="I45" s="2">
@@ -7620,13 +7621,13 @@
       <c r="E46" s="53">
         <v>934</v>
       </c>
-      <c r="F46" s="76">
+      <c r="F46" s="61">
         <v>862</v>
       </c>
-      <c r="G46" s="76">
+      <c r="G46" s="61">
         <v>660</v>
       </c>
-      <c r="H46" s="76">
+      <c r="H46" s="61">
         <v>608</v>
       </c>
       <c r="I46" s="2">
@@ -7697,13 +7698,13 @@
       <c r="E47" s="53">
         <v>435</v>
       </c>
-      <c r="F47" s="76">
+      <c r="F47" s="61">
         <v>471</v>
       </c>
-      <c r="G47" s="76">
+      <c r="G47" s="61">
         <v>575</v>
       </c>
-      <c r="H47" s="76">
+      <c r="H47" s="61">
         <v>562</v>
       </c>
       <c r="I47" s="2">
@@ -7774,13 +7775,13 @@
       <c r="E48" s="53">
         <v>207</v>
       </c>
-      <c r="F48" s="76">
+      <c r="F48" s="61">
         <v>159</v>
       </c>
-      <c r="G48" s="76">
+      <c r="G48" s="61">
         <v>219</v>
       </c>
-      <c r="H48" s="76">
+      <c r="H48" s="61">
         <v>227</v>
       </c>
       <c r="I48" s="2">
@@ -7851,13 +7852,13 @@
       <c r="E49" s="53">
         <v>457</v>
       </c>
-      <c r="F49" s="76">
+      <c r="F49" s="61">
         <v>454</v>
       </c>
-      <c r="G49" s="76">
+      <c r="G49" s="61">
         <v>620</v>
       </c>
-      <c r="H49" s="76">
+      <c r="H49" s="61">
         <v>609</v>
       </c>
       <c r="I49" s="2">
@@ -7928,13 +7929,13 @@
       <c r="E50" s="53">
         <v>564</v>
       </c>
-      <c r="F50" s="76">
+      <c r="F50" s="61">
         <v>498</v>
       </c>
-      <c r="G50" s="76">
+      <c r="G50" s="61">
         <v>555</v>
       </c>
-      <c r="H50" s="76">
+      <c r="H50" s="61">
         <v>601</v>
       </c>
       <c r="I50" s="2">
@@ -8005,13 +8006,13 @@
       <c r="E51" s="53">
         <v>103</v>
       </c>
-      <c r="F51" s="76">
+      <c r="F51" s="61">
         <v>131</v>
       </c>
-      <c r="G51" s="76">
+      <c r="G51" s="61">
         <v>135</v>
       </c>
-      <c r="H51" s="76">
+      <c r="H51" s="61">
         <v>125</v>
       </c>
       <c r="I51" s="2">
@@ -8082,13 +8083,13 @@
       <c r="E52" s="53">
         <v>591</v>
       </c>
-      <c r="F52" s="76">
+      <c r="F52" s="61">
         <v>529</v>
       </c>
-      <c r="G52" s="76">
+      <c r="G52" s="61">
         <v>787</v>
       </c>
-      <c r="H52" s="76">
+      <c r="H52" s="61">
         <v>765</v>
       </c>
       <c r="I52" s="2">
@@ -8159,13 +8160,13 @@
       <c r="E53" s="53">
         <v>84</v>
       </c>
-      <c r="F53" s="76">
+      <c r="F53" s="61">
         <v>64</v>
       </c>
-      <c r="G53" s="76">
+      <c r="G53" s="61">
         <v>109</v>
       </c>
-      <c r="H53" s="76">
+      <c r="H53" s="61">
         <v>125</v>
       </c>
       <c r="I53" s="2">
@@ -8236,13 +8237,13 @@
       <c r="E54" s="53">
         <v>242</v>
       </c>
-      <c r="F54" s="76">
+      <c r="F54" s="61">
         <v>277</v>
       </c>
-      <c r="G54" s="76">
+      <c r="G54" s="61">
         <v>326</v>
       </c>
-      <c r="H54" s="76">
+      <c r="H54" s="61">
         <v>275</v>
       </c>
       <c r="I54" s="2">
@@ -8313,13 +8314,13 @@
       <c r="E55" s="53">
         <v>90</v>
       </c>
-      <c r="F55" s="76">
+      <c r="F55" s="61">
         <v>98</v>
       </c>
-      <c r="G55" s="76">
+      <c r="G55" s="61">
         <v>89</v>
       </c>
-      <c r="H55" s="76">
+      <c r="H55" s="61">
         <v>103</v>
       </c>
       <c r="I55" s="2">
@@ -8390,13 +8391,13 @@
       <c r="E56" s="53">
         <v>367</v>
       </c>
-      <c r="F56" s="76">
+      <c r="F56" s="61">
         <v>525</v>
       </c>
-      <c r="G56" s="76">
+      <c r="G56" s="61">
         <v>442</v>
       </c>
-      <c r="H56" s="76">
+      <c r="H56" s="61">
         <v>428</v>
       </c>
       <c r="I56" s="2">
@@ -8467,13 +8468,13 @@
       <c r="E57" s="53">
         <v>202</v>
       </c>
-      <c r="F57" s="76">
+      <c r="F57" s="61">
         <v>181</v>
       </c>
-      <c r="G57" s="76">
+      <c r="G57" s="61">
         <v>146</v>
       </c>
-      <c r="H57" s="76">
+      <c r="H57" s="61">
         <v>163</v>
       </c>
       <c r="I57" s="2">
@@ -8544,13 +8545,13 @@
       <c r="E58" s="53">
         <v>93</v>
       </c>
-      <c r="F58" s="76">
+      <c r="F58" s="61">
         <v>96</v>
       </c>
-      <c r="G58" s="76">
+      <c r="G58" s="61">
         <v>69</v>
       </c>
-      <c r="H58" s="76">
+      <c r="H58" s="61">
         <v>78</v>
       </c>
       <c r="I58" s="2">
@@ -8621,13 +8622,13 @@
       <c r="E59" s="53">
         <v>726</v>
       </c>
-      <c r="F59" s="76">
+      <c r="F59" s="61">
         <v>622</v>
       </c>
-      <c r="G59" s="76">
+      <c r="G59" s="61">
         <v>734</v>
       </c>
-      <c r="H59" s="76">
+      <c r="H59" s="61">
         <v>910</v>
       </c>
       <c r="I59" s="2">
@@ -8698,13 +8699,13 @@
       <c r="E60" s="53">
         <v>106</v>
       </c>
-      <c r="F60" s="76">
+      <c r="F60" s="61">
         <v>131</v>
       </c>
-      <c r="G60" s="76">
+      <c r="G60" s="61">
         <v>151</v>
       </c>
-      <c r="H60" s="76">
+      <c r="H60" s="61">
         <v>135</v>
       </c>
       <c r="I60" s="2">
@@ -8775,13 +8776,13 @@
       <c r="E61" s="53">
         <v>322</v>
       </c>
-      <c r="F61" s="76">
+      <c r="F61" s="61">
         <v>367</v>
       </c>
-      <c r="G61" s="76">
+      <c r="G61" s="61">
         <v>454</v>
       </c>
-      <c r="H61" s="76">
+      <c r="H61" s="61">
         <v>467</v>
       </c>
       <c r="I61" s="2">
@@ -8852,13 +8853,13 @@
       <c r="E62" s="53">
         <v>194</v>
       </c>
-      <c r="F62" s="76">
+      <c r="F62" s="61">
         <v>207</v>
       </c>
-      <c r="G62" s="76">
+      <c r="G62" s="61">
         <v>204</v>
       </c>
-      <c r="H62" s="76">
+      <c r="H62" s="61">
         <v>231</v>
       </c>
       <c r="I62" s="2">
@@ -8929,13 +8930,13 @@
       <c r="E63" s="53">
         <v>240</v>
       </c>
-      <c r="F63" s="76">
+      <c r="F63" s="61">
         <v>155</v>
       </c>
-      <c r="G63" s="76">
+      <c r="G63" s="61">
         <v>170</v>
       </c>
-      <c r="H63" s="76">
+      <c r="H63" s="61">
         <v>158</v>
       </c>
       <c r="I63" s="2">
@@ -9006,13 +9007,13 @@
       <c r="E64" s="53">
         <v>49</v>
       </c>
-      <c r="F64" s="76">
+      <c r="F64" s="61">
         <v>41</v>
       </c>
-      <c r="G64" s="76">
+      <c r="G64" s="61">
         <v>29</v>
       </c>
-      <c r="H64" s="76">
+      <c r="H64" s="61">
         <v>34</v>
       </c>
       <c r="I64" s="2">
@@ -9083,13 +9084,13 @@
       <c r="E65" s="53">
         <v>343</v>
       </c>
-      <c r="F65" s="76">
+      <c r="F65" s="61">
         <v>393</v>
       </c>
-      <c r="G65" s="76">
+      <c r="G65" s="61">
         <v>466</v>
       </c>
-      <c r="H65" s="76">
+      <c r="H65" s="61">
         <v>437</v>
       </c>
       <c r="I65" s="2">
@@ -9160,13 +9161,13 @@
       <c r="E66" s="53">
         <v>579</v>
       </c>
-      <c r="F66" s="76">
+      <c r="F66" s="61">
         <v>540</v>
       </c>
-      <c r="G66" s="76">
+      <c r="G66" s="61">
         <v>595</v>
       </c>
-      <c r="H66" s="76">
+      <c r="H66" s="61">
         <v>498</v>
       </c>
       <c r="I66" s="2">
@@ -9237,13 +9238,13 @@
       <c r="E67" s="53">
         <v>306</v>
       </c>
-      <c r="F67" s="76">
+      <c r="F67" s="61">
         <v>325</v>
       </c>
-      <c r="G67" s="76">
+      <c r="G67" s="61">
         <v>550</v>
       </c>
-      <c r="H67" s="76">
+      <c r="H67" s="61">
         <v>502</v>
       </c>
       <c r="I67" s="2">
@@ -9314,13 +9315,13 @@
       <c r="E68" s="53">
         <v>112</v>
       </c>
-      <c r="F68" s="76">
+      <c r="F68" s="61">
         <v>72</v>
       </c>
-      <c r="G68" s="76">
+      <c r="G68" s="61">
         <v>102</v>
       </c>
-      <c r="H68" s="76">
+      <c r="H68" s="61">
         <v>106</v>
       </c>
       <c r="I68" s="2">
@@ -9391,13 +9392,13 @@
       <c r="E69" s="53">
         <v>540</v>
       </c>
-      <c r="F69" s="76">
+      <c r="F69" s="61">
         <v>503</v>
       </c>
-      <c r="G69" s="76">
+      <c r="G69" s="61">
         <v>657</v>
       </c>
-      <c r="H69" s="76">
+      <c r="H69" s="61">
         <v>499</v>
       </c>
       <c r="I69" s="2">
@@ -9468,13 +9469,13 @@
       <c r="E70" s="53">
         <v>145</v>
       </c>
-      <c r="F70" s="76">
+      <c r="F70" s="61">
         <v>163</v>
       </c>
-      <c r="G70" s="76">
+      <c r="G70" s="61">
         <v>212</v>
       </c>
-      <c r="H70" s="76">
+      <c r="H70" s="61">
         <v>274</v>
       </c>
       <c r="I70" s="2">
@@ -9545,13 +9546,13 @@
       <c r="E71" s="53">
         <v>95</v>
       </c>
-      <c r="F71" s="76">
+      <c r="F71" s="61">
         <v>88</v>
       </c>
-      <c r="G71" s="76">
+      <c r="G71" s="61">
         <v>140</v>
       </c>
-      <c r="H71" s="76">
+      <c r="H71" s="61">
         <v>142</v>
       </c>
       <c r="I71" s="2">
@@ -9622,13 +9623,13 @@
       <c r="E72" s="53">
         <v>96</v>
       </c>
-      <c r="F72" s="76">
+      <c r="F72" s="61">
         <v>114</v>
       </c>
-      <c r="G72" s="76">
+      <c r="G72" s="61">
         <v>134</v>
       </c>
-      <c r="H72" s="76">
+      <c r="H72" s="61">
         <v>145</v>
       </c>
       <c r="I72" s="2">
@@ -9699,13 +9700,13 @@
       <c r="E73" s="53">
         <v>107</v>
       </c>
-      <c r="F73" s="76">
+      <c r="F73" s="61">
         <v>130</v>
       </c>
-      <c r="G73" s="76">
+      <c r="G73" s="61">
         <v>171</v>
       </c>
-      <c r="H73" s="76">
+      <c r="H73" s="61">
         <v>120</v>
       </c>
       <c r="I73" s="2">
@@ -9776,13 +9777,13 @@
       <c r="E74" s="53">
         <v>264</v>
       </c>
-      <c r="F74" s="76">
+      <c r="F74" s="61">
         <v>323</v>
       </c>
-      <c r="G74" s="76">
+      <c r="G74" s="61">
         <v>307</v>
       </c>
-      <c r="H74" s="76">
+      <c r="H74" s="61">
         <v>273</v>
       </c>
       <c r="I74" s="2">
@@ -9853,13 +9854,13 @@
       <c r="E75" s="53">
         <v>248</v>
       </c>
-      <c r="F75" s="76">
+      <c r="F75" s="61">
         <v>256</v>
       </c>
-      <c r="G75" s="76">
+      <c r="G75" s="61">
         <v>316</v>
       </c>
-      <c r="H75" s="76">
+      <c r="H75" s="61">
         <v>272</v>
       </c>
       <c r="I75" s="2">
@@ -9930,13 +9931,13 @@
       <c r="E76" s="53">
         <v>65</v>
       </c>
-      <c r="F76" s="76">
+      <c r="F76" s="61">
         <v>49</v>
       </c>
-      <c r="G76" s="76">
+      <c r="G76" s="61">
         <v>59</v>
       </c>
-      <c r="H76" s="76">
+      <c r="H76" s="61">
         <v>77</v>
       </c>
       <c r="I76" s="2">
@@ -10007,13 +10008,13 @@
       <c r="E77" s="53">
         <v>123</v>
       </c>
-      <c r="F77" s="76">
+      <c r="F77" s="61">
         <v>140</v>
       </c>
-      <c r="G77" s="76">
+      <c r="G77" s="61">
         <v>206</v>
       </c>
-      <c r="H77" s="76">
+      <c r="H77" s="61">
         <v>218</v>
       </c>
       <c r="I77" s="2">
@@ -10084,13 +10085,13 @@
       <c r="E78" s="53">
         <v>149</v>
       </c>
-      <c r="F78" s="76">
+      <c r="F78" s="61">
         <v>580</v>
       </c>
-      <c r="G78" s="76">
+      <c r="G78" s="61">
         <v>717</v>
       </c>
-      <c r="H78" s="76">
+      <c r="H78" s="61">
         <v>747</v>
       </c>
       <c r="I78" s="2">
@@ -10161,13 +10162,13 @@
       <c r="E79" s="53">
         <v>540</v>
       </c>
-      <c r="F79" s="76">
+      <c r="F79" s="61">
         <v>511</v>
       </c>
-      <c r="G79" s="76">
+      <c r="G79" s="61">
         <v>595</v>
       </c>
-      <c r="H79" s="76">
+      <c r="H79" s="61">
         <v>590</v>
       </c>
       <c r="I79" s="2">
@@ -10238,13 +10239,13 @@
       <c r="E80" s="53">
         <v>155</v>
       </c>
-      <c r="F80" s="76">
+      <c r="F80" s="61">
         <v>204</v>
       </c>
-      <c r="G80" s="76">
+      <c r="G80" s="61">
         <v>265</v>
       </c>
-      <c r="H80" s="76">
+      <c r="H80" s="61">
         <v>225</v>
       </c>
       <c r="I80" s="2">
@@ -10315,13 +10316,13 @@
       <c r="E81" s="53">
         <v>138</v>
       </c>
-      <c r="F81" s="76">
+      <c r="F81" s="61">
         <v>140</v>
       </c>
-      <c r="G81" s="76">
+      <c r="G81" s="61">
         <v>140</v>
       </c>
-      <c r="H81" s="76">
+      <c r="H81" s="61">
         <v>156</v>
       </c>
       <c r="I81" s="2">
@@ -10392,13 +10393,13 @@
       <c r="E82" s="53">
         <v>419</v>
       </c>
-      <c r="F82" s="76">
+      <c r="F82" s="61">
         <v>442</v>
       </c>
-      <c r="G82" s="76">
+      <c r="G82" s="61">
         <v>479</v>
       </c>
-      <c r="H82" s="76">
+      <c r="H82" s="61">
         <v>523</v>
       </c>
       <c r="I82" s="2">
@@ -10469,13 +10470,13 @@
       <c r="E83" s="53">
         <v>209</v>
       </c>
-      <c r="F83" s="76">
+      <c r="F83" s="61">
         <v>172</v>
       </c>
-      <c r="G83" s="76">
+      <c r="G83" s="61">
         <v>161</v>
       </c>
-      <c r="H83" s="76">
+      <c r="H83" s="61">
         <v>166</v>
       </c>
       <c r="I83" s="2">
@@ -10546,13 +10547,13 @@
       <c r="E84" s="53">
         <v>78</v>
       </c>
-      <c r="F84" s="76">
+      <c r="F84" s="61">
         <v>67</v>
       </c>
-      <c r="G84" s="76">
+      <c r="G84" s="61">
         <v>149</v>
       </c>
-      <c r="H84" s="76">
+      <c r="H84" s="61">
         <v>133</v>
       </c>
       <c r="I84" s="2">
@@ -10623,13 +10624,13 @@
       <c r="E85" s="53">
         <v>1286</v>
       </c>
-      <c r="F85" s="76">
+      <c r="F85" s="61">
         <v>1204</v>
       </c>
-      <c r="G85" s="76">
+      <c r="G85" s="61">
         <v>1437</v>
       </c>
-      <c r="H85" s="76">
+      <c r="H85" s="61">
         <v>1237</v>
       </c>
       <c r="I85" s="2">
@@ -10700,13 +10701,13 @@
       <c r="E86" s="53">
         <v>561</v>
       </c>
-      <c r="F86" s="76">
+      <c r="F86" s="61">
         <v>492</v>
       </c>
-      <c r="G86" s="76">
+      <c r="G86" s="61">
         <v>691</v>
       </c>
-      <c r="H86" s="76">
+      <c r="H86" s="61">
         <v>821</v>
       </c>
       <c r="I86" s="2">
@@ -10777,13 +10778,13 @@
       <c r="E87" s="53">
         <v>301</v>
       </c>
-      <c r="F87" s="76">
+      <c r="F87" s="61">
         <v>220</v>
       </c>
-      <c r="G87" s="76">
+      <c r="G87" s="61">
         <v>312</v>
       </c>
-      <c r="H87" s="76">
+      <c r="H87" s="61">
         <v>246</v>
       </c>
       <c r="I87" s="2">
@@ -10854,13 +10855,13 @@
       <c r="E88" s="53">
         <v>219</v>
       </c>
-      <c r="F88" s="76">
+      <c r="F88" s="61">
         <v>158</v>
       </c>
-      <c r="G88" s="76">
+      <c r="G88" s="61">
         <v>224</v>
       </c>
-      <c r="H88" s="76">
+      <c r="H88" s="61">
         <v>325</v>
       </c>
       <c r="I88" s="2">
@@ -11036,8 +11037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14673,7 +14674,7 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14709,10 +14710,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B2">
-        <v>55.464778503994189</v>
+        <v>2.8063152369478672</v>
       </c>
       <c r="C2" t="s">
         <v>195</v>
@@ -14721,13 +14722,13 @@
         <v>193</v>
       </c>
       <c r="E2">
-        <v>44.9950981140137</v>
+        <v>45.047580718994098</v>
       </c>
       <c r="F2">
-        <v>-93.222190856933594</v>
+        <v>-93.311218261718807</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -14735,10 +14736,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>35.23905219296752</v>
+        <v>4.9609810479375698</v>
       </c>
       <c r="C3" t="s">
         <v>195</v>
@@ -14747,24 +14748,24 @@
         <v>193</v>
       </c>
       <c r="E3">
-        <v>44.980358123779297</v>
+        <v>45.043918609619098</v>
       </c>
       <c r="F3">
-        <v>-93.265083312988295</v>
+        <v>-93.293006896972699</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B4">
-        <v>18.565023693992792</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>195</v>
@@ -14773,13 +14774,13 @@
         <v>193</v>
       </c>
       <c r="E4">
-        <v>44.976310729980497</v>
+        <v>45.040271759033203</v>
       </c>
       <c r="F4">
-        <v>-93.255119323730497</v>
+        <v>-93.299972534179702</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -14787,10 +14788,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>17.753047164811871</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>195</v>
@@ -14799,13 +14800,13 @@
         <v>193</v>
       </c>
       <c r="E5">
-        <v>45.0059204101563</v>
+        <v>45.037620544433601</v>
       </c>
       <c r="F5">
-        <v>-93.220970153808594</v>
+        <v>-93.285049438476605</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -14813,10 +14814,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>15.855635956560375</v>
+        <v>3.445947115967376</v>
       </c>
       <c r="C6" t="s">
         <v>195</v>
@@ -14825,24 +14826,24 @@
         <v>193</v>
       </c>
       <c r="E6">
-        <v>44.991989135742202</v>
+        <v>45.031330108642599</v>
       </c>
       <c r="F6">
-        <v>-93.295356750488295</v>
+        <v>-93.260002136230497</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B7">
-        <v>15.218921793316259</v>
+        <v>5.9689892851227553</v>
       </c>
       <c r="C7" t="s">
         <v>195</v>
@@ -14851,13 +14852,13 @@
         <v>193</v>
       </c>
       <c r="E7">
-        <v>44.979030609130902</v>
+        <v>45.0295600891113</v>
       </c>
       <c r="F7">
-        <v>-93.264930725097699</v>
+        <v>-93.295112609863295</v>
       </c>
       <c r="G7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -14865,10 +14866,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B8">
-        <v>12.996109664292046</v>
+        <v>6.9291035191369117</v>
       </c>
       <c r="C8" t="s">
         <v>195</v>
@@ -14877,13 +14878,13 @@
         <v>193</v>
       </c>
       <c r="E8">
-        <v>44.953739166259801</v>
+        <v>45.029518127441399</v>
       </c>
       <c r="F8">
-        <v>-93.248008728027301</v>
+        <v>-93.312911987304702</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -14891,10 +14892,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B9">
-        <v>10.375245669363316</v>
+        <v>1.959095438347604</v>
       </c>
       <c r="C9" t="s">
         <v>195</v>
@@ -14903,13 +14904,13 @@
         <v>193</v>
       </c>
       <c r="E9">
-        <v>44.947608947753899</v>
+        <v>45.029468536377003</v>
       </c>
       <c r="F9">
-        <v>-93.225669860839801</v>
+        <v>-93.237449645996094</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -14917,10 +14918,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>9.8275617515349225</v>
+        <v>4.863291024066239</v>
       </c>
       <c r="C10" t="s">
         <v>195</v>
@@ -14929,13 +14930,13 @@
         <v>193</v>
       </c>
       <c r="E10">
-        <v>44.983299255371101</v>
+        <v>45.018638610839801</v>
       </c>
       <c r="F10">
-        <v>-93.282089233398395</v>
+        <v>-93.312713623046903</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -14943,10 +14944,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>9.1985968699406371</v>
+        <v>3.1413230784582384</v>
       </c>
       <c r="C11" t="s">
         <v>195</v>
@@ -14955,13 +14956,13 @@
         <v>193</v>
       </c>
       <c r="E11">
-        <v>45.005901336669901</v>
+        <v>45.018630981445298</v>
       </c>
       <c r="F11">
-        <v>-93.284149169921903</v>
+        <v>-93.237747192382798</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -14969,10 +14970,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B12">
-        <v>7.2402575422318662</v>
+        <v>4.8029494574179283</v>
       </c>
       <c r="C12" t="s">
         <v>195</v>
@@ -14981,24 +14982,24 @@
         <v>193</v>
       </c>
       <c r="E12">
-        <v>45.009601593017599</v>
+        <v>45.018589019775398</v>
       </c>
       <c r="F12">
-        <v>-93.305068969726605</v>
+        <v>-93.270736694335895</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>6.9291035191369117</v>
+        <v>6.3593231725238279</v>
       </c>
       <c r="C13" t="s">
         <v>195</v>
@@ -15007,24 +15008,24 @@
         <v>193</v>
       </c>
       <c r="E13">
-        <v>45.029518127441399</v>
+        <v>45.018581390380902</v>
       </c>
       <c r="F13">
-        <v>-93.312911987304702</v>
+        <v>-93.300003051757798</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>6.8372371573063608</v>
+        <v>6.0094140749083138</v>
       </c>
       <c r="C14" t="s">
         <v>195</v>
@@ -15033,24 +15034,24 @@
         <v>193</v>
       </c>
       <c r="E14">
-        <v>44.953708648681598</v>
+        <v>45.018501281738303</v>
       </c>
       <c r="F14">
-        <v>-93.258186340332003</v>
+        <v>-93.285743713378906</v>
       </c>
       <c r="G14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B15">
-        <v>6.8177163088747355</v>
+        <v>4.6670108187289312</v>
       </c>
       <c r="C15" t="s">
         <v>195</v>
@@ -15059,16 +15060,16 @@
         <v>193</v>
       </c>
       <c r="E15">
-        <v>44.962699890136697</v>
+        <v>45.012168884277301</v>
       </c>
       <c r="F15">
-        <v>-93.289909362792997</v>
+        <v>-93.254898071289105</v>
       </c>
       <c r="G15" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -15099,10 +15100,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B17">
-        <v>6.3854937388436959</v>
+        <v>7.2402575422318662</v>
       </c>
       <c r="C17" t="s">
         <v>195</v>
@@ -15111,24 +15112,24 @@
         <v>193</v>
       </c>
       <c r="E17">
-        <v>44.962711334228501</v>
+        <v>45.009601593017599</v>
       </c>
       <c r="F17">
-        <v>-93.261810302734403</v>
+        <v>-93.305068969726605</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B18">
-        <v>6.3643740386827989</v>
+        <v>2.3765786845093935</v>
       </c>
       <c r="C18" t="s">
         <v>195</v>
@@ -15137,13 +15138,13 @@
         <v>193</v>
       </c>
       <c r="E18">
-        <v>44.984260559082003</v>
+        <v>45.009578704833999</v>
       </c>
       <c r="F18">
-        <v>-93.290428161621094</v>
+        <v>-93.239067077636705</v>
       </c>
       <c r="G18" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -15151,10 +15152,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B19">
-        <v>6.3593231725238279</v>
+        <v>17.753047164811871</v>
       </c>
       <c r="C19" t="s">
         <v>195</v>
@@ -15163,24 +15164,24 @@
         <v>193</v>
       </c>
       <c r="E19">
-        <v>45.018581390380902</v>
+        <v>45.0059204101563</v>
       </c>
       <c r="F19">
-        <v>-93.300003051757798</v>
+        <v>-93.220970153808594</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>6.0094140749083138</v>
+        <v>9.1985968699406371</v>
       </c>
       <c r="C20" t="s">
         <v>195</v>
@@ -15189,24 +15190,24 @@
         <v>193</v>
       </c>
       <c r="E20">
-        <v>45.018501281738303</v>
+        <v>45.005901336669901</v>
       </c>
       <c r="F20">
-        <v>-93.285743713378906</v>
+        <v>-93.284149169921903</v>
       </c>
       <c r="G20" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B21">
-        <v>5.9689892851227553</v>
+        <v>4.6424386614450359</v>
       </c>
       <c r="C21" t="s">
         <v>195</v>
@@ -15215,13 +15216,13 @@
         <v>193</v>
       </c>
       <c r="E21">
-        <v>45.0295600891113</v>
+        <v>45.003078460693402</v>
       </c>
       <c r="F21">
-        <v>-93.295112609863295</v>
+        <v>-93.253082275390597</v>
       </c>
       <c r="G21" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -15229,10 +15230,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B22">
-        <v>5.7730515485154532</v>
+        <v>4.4571256102226107</v>
       </c>
       <c r="C22" t="s">
         <v>195</v>
@@ -15241,24 +15242,24 @@
         <v>193</v>
       </c>
       <c r="E22">
-        <v>44.957309722900398</v>
+        <v>45.001991271972699</v>
       </c>
       <c r="F22">
-        <v>-93.280441284179702</v>
+        <v>-93.265373229980497</v>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="7" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B23">
-        <v>5.5880394868040941</v>
+        <v>3.3072507878686204</v>
       </c>
       <c r="C23" t="s">
         <v>195</v>
@@ -15267,13 +15268,13 @@
         <v>193</v>
       </c>
       <c r="E23">
-        <v>44.955799102783203</v>
+        <v>44.996170043945298</v>
       </c>
       <c r="F23">
-        <v>-93.299057006835895</v>
+        <v>-93.261993408203097</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -15281,10 +15282,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B24">
-        <v>5.540343557880286</v>
+        <v>5.3776877477287872</v>
       </c>
       <c r="C24" t="s">
         <v>195</v>
@@ -15293,24 +15294,24 @@
         <v>193</v>
       </c>
       <c r="E24">
-        <v>44.970409393310497</v>
+        <v>44.995151519775398</v>
       </c>
       <c r="F24">
-        <v>-93.2647705078125</v>
+        <v>-93.311790466308594</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B25">
-        <v>5.39146387253012</v>
+        <v>55.464778503994189</v>
       </c>
       <c r="C25" t="s">
         <v>195</v>
@@ -15319,13 +15320,13 @@
         <v>193</v>
       </c>
       <c r="E25">
-        <v>44.963939666747997</v>
+        <v>44.9950981140137</v>
       </c>
       <c r="F25">
-        <v>-93.272109985351605</v>
+        <v>-93.222190856933594</v>
       </c>
       <c r="G25" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -15333,10 +15334,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="7" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>5.3776877477287872</v>
+        <v>4.4224422442244222</v>
       </c>
       <c r="C26" t="s">
         <v>195</v>
@@ -15345,24 +15346,24 @@
         <v>193</v>
       </c>
       <c r="E26">
-        <v>44.995151519775398</v>
+        <v>44.995090484619098</v>
       </c>
       <c r="F26">
-        <v>-93.311790466308594</v>
+        <v>-93.241607666015597</v>
       </c>
       <c r="G26" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="7" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B27">
-        <v>5.2724008435841352</v>
+        <v>3.7128537149834591</v>
       </c>
       <c r="C27" t="s">
         <v>195</v>
@@ -15371,24 +15372,24 @@
         <v>193</v>
       </c>
       <c r="E27">
-        <v>44.942108154296903</v>
+        <v>44.995079040527301</v>
       </c>
       <c r="F27">
-        <v>-93.300872802734403</v>
+        <v>-93.2530517578125</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B28">
-        <v>5.1608052834064297</v>
+        <v>15.855635956560375</v>
       </c>
       <c r="C28" t="s">
         <v>195</v>
@@ -15397,24 +15398,24 @@
         <v>193</v>
       </c>
       <c r="E28">
-        <v>44.941368103027301</v>
+        <v>44.991989135742202</v>
       </c>
       <c r="F28">
-        <v>-93.269569396972699</v>
+        <v>-93.295356750488295</v>
       </c>
       <c r="G28" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>5.144358845129239</v>
+        <v>3.644449682368982</v>
       </c>
       <c r="C29" t="s">
         <v>195</v>
@@ -15423,16 +15424,16 @@
         <v>193</v>
       </c>
       <c r="E29">
-        <v>44.942928314208999</v>
+        <v>44.987861633300803</v>
       </c>
       <c r="F29">
-        <v>-93.241462707519503</v>
+        <v>-93.222198486328097</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15463,10 +15464,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="7" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B31">
-        <v>5.073060053846338</v>
+        <v>6.3643740386827989</v>
       </c>
       <c r="C31" t="s">
         <v>195</v>
@@ -15475,24 +15476,24 @@
         <v>193</v>
       </c>
       <c r="E31">
-        <v>44.980758666992202</v>
+        <v>44.984260559082003</v>
       </c>
       <c r="F31">
-        <v>-93.305152893066406</v>
+        <v>-93.290428161621094</v>
       </c>
       <c r="G31" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B32">
-        <v>5.0373553647394607</v>
+        <v>9.8275617515349225</v>
       </c>
       <c r="C32" t="s">
         <v>195</v>
@@ -15501,24 +15502,24 @@
         <v>193</v>
       </c>
       <c r="E32">
-        <v>44.957359313964801</v>
+        <v>44.983299255371101</v>
       </c>
       <c r="F32">
-        <v>-93.232261657714801</v>
+        <v>-93.282089233398395</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="7" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>5.0203813075961738</v>
+        <v>5.073060053846338</v>
       </c>
       <c r="C33" t="s">
         <v>195</v>
@@ -15527,13 +15528,13 @@
         <v>193</v>
       </c>
       <c r="E33">
-        <v>44.942920684814503</v>
+        <v>44.980758666992202</v>
       </c>
       <c r="F33">
-        <v>-93.282722473144503</v>
+        <v>-93.305152893066406</v>
       </c>
       <c r="G33" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -15541,10 +15542,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B34">
-        <v>4.9609810479375698</v>
+        <v>35.23905219296752</v>
       </c>
       <c r="C34" t="s">
         <v>195</v>
@@ -15553,24 +15554,24 @@
         <v>193</v>
       </c>
       <c r="E34">
-        <v>45.043918609619098</v>
+        <v>44.980358123779297</v>
       </c>
       <c r="F34">
-        <v>-93.293006896972699</v>
+        <v>-93.265083312988295</v>
       </c>
       <c r="G34" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B35">
-        <v>4.9568025466983983</v>
+        <v>15.218921793316259</v>
       </c>
       <c r="C35" t="s">
         <v>195</v>
@@ -15579,24 +15580,24 @@
         <v>193</v>
       </c>
       <c r="E35">
-        <v>44.970001220703097</v>
+        <v>44.979030609130902</v>
       </c>
       <c r="F35">
-        <v>-93.283889770507798</v>
+        <v>-93.264930725097699</v>
       </c>
       <c r="G35" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="3" t="s">
-        <v>192</v>
+      <c r="A36" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B36">
-        <v>4.9283156877197367</v>
+        <v>3.0421817132413063</v>
       </c>
       <c r="C36" t="s">
         <v>195</v>
@@ -15605,24 +15606,24 @@
         <v>193</v>
       </c>
       <c r="E36">
-        <v>44.973269000000002</v>
+        <v>44.979030609130902</v>
       </c>
       <c r="F36">
-        <v>-93.264313000000001</v>
+        <v>-93.264930725097699</v>
       </c>
       <c r="G36" t="s">
-        <v>685</v>
+        <v>121</v>
       </c>
       <c r="H36">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="7" t="s">
-        <v>12</v>
+        <v>690</v>
       </c>
       <c r="B37">
-        <v>4.863291024066239</v>
+        <v>2.9157192342565907</v>
       </c>
       <c r="C37" t="s">
         <v>195</v>
@@ -15631,24 +15632,24 @@
         <v>193</v>
       </c>
       <c r="E37">
-        <v>45.018638610839801</v>
+        <v>44.979030609130902</v>
       </c>
       <c r="F37">
-        <v>-93.312713623046903</v>
+        <v>-93.264930725097699</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="7" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>4.8029494574179283</v>
+        <v>18.565023693992792</v>
       </c>
       <c r="C38" t="s">
         <v>195</v>
@@ -15657,13 +15658,13 @@
         <v>193</v>
       </c>
       <c r="E38">
-        <v>45.018589019775398</v>
+        <v>44.976310729980497</v>
       </c>
       <c r="F38">
-        <v>-93.270736694335895</v>
+        <v>-93.255119323730497</v>
       </c>
       <c r="G38" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -15671,10 +15672,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B39">
-        <v>4.6670108187289312</v>
+        <v>3.0625991205305652</v>
       </c>
       <c r="C39" t="s">
         <v>195</v>
@@ -15683,13 +15684,13 @@
         <v>193</v>
       </c>
       <c r="E39">
-        <v>45.012168884277301</v>
+        <v>44.976280212402301</v>
       </c>
       <c r="F39">
-        <v>-93.254898071289105</v>
+        <v>-93.233963012695298</v>
       </c>
       <c r="G39" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -15697,10 +15698,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="7" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B40">
-        <v>4.6424386614450359</v>
+        <v>3.6405374047576053</v>
       </c>
       <c r="C40" t="s">
         <v>195</v>
@@ -15709,24 +15710,24 @@
         <v>193</v>
       </c>
       <c r="E40">
-        <v>45.003078460693402</v>
+        <v>44.9734497070313</v>
       </c>
       <c r="F40">
-        <v>-93.253082275390597</v>
+        <v>-93.237899780273395</v>
       </c>
       <c r="G40" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="7" t="s">
-        <v>63</v>
+      <c r="A41" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="B41">
-        <v>4.4950412597471425</v>
+        <v>4.9283156877197367</v>
       </c>
       <c r="C41" t="s">
         <v>195</v>
@@ -15735,24 +15736,24 @@
         <v>193</v>
       </c>
       <c r="E41">
-        <v>44.942920684814503</v>
+        <v>44.973269000000002</v>
       </c>
       <c r="F41">
-        <v>-93.254379272460895</v>
+        <v>-93.264313000000001</v>
       </c>
       <c r="G41" t="s">
-        <v>159</v>
+        <v>685</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="7" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>4.4571256102226107</v>
+        <v>3.0219841041422213</v>
       </c>
       <c r="C42" t="s">
         <v>195</v>
@@ -15761,13 +15762,13 @@
         <v>193</v>
       </c>
       <c r="E42">
-        <v>45.001991271972699</v>
+        <v>44.971729278564503</v>
       </c>
       <c r="F42">
-        <v>-93.265373229980497</v>
+        <v>-93.314071655273395</v>
       </c>
       <c r="G42" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -15775,10 +15776,10 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="7" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B43">
-        <v>4.4224422442244222</v>
+        <v>3.8353584196502366</v>
       </c>
       <c r="C43" t="s">
         <v>195</v>
@@ -15787,13 +15788,13 @@
         <v>193</v>
       </c>
       <c r="E43">
-        <v>44.995090484619098</v>
+        <v>44.970790863037102</v>
       </c>
       <c r="F43">
-        <v>-93.241607666015597</v>
+        <v>-93.214942932128906</v>
       </c>
       <c r="G43" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -15801,10 +15802,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B44">
-        <v>4.267862269915959</v>
+        <v>5.540343557880286</v>
       </c>
       <c r="C44" t="s">
         <v>195</v>
@@ -15813,13 +15814,13 @@
         <v>193</v>
       </c>
       <c r="E44">
-        <v>44.967739105224602</v>
+        <v>44.970409393310497</v>
       </c>
       <c r="F44">
-        <v>-93.246482849121094</v>
+        <v>-93.2647705078125</v>
       </c>
       <c r="G44" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -15827,10 +15828,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>4.1951348654400311</v>
+        <v>4.9568025466983983</v>
       </c>
       <c r="C45" t="s">
         <v>195</v>
@@ -15839,13 +15840,13 @@
         <v>193</v>
       </c>
       <c r="E45">
-        <v>44.942100524902301</v>
+        <v>44.970001220703097</v>
       </c>
       <c r="F45">
-        <v>-93.293258666992202</v>
+        <v>-93.283889770507798</v>
       </c>
       <c r="G45" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -15853,10 +15854,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="7" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>3.883495145631068</v>
+        <v>4.267862269915959</v>
       </c>
       <c r="C46" t="s">
         <v>195</v>
@@ -15865,13 +15866,13 @@
         <v>193</v>
       </c>
       <c r="E46">
-        <v>44.944961547851598</v>
+        <v>44.967739105224602</v>
       </c>
       <c r="F46">
-        <v>-93.323440551757798</v>
+        <v>-93.246482849121094</v>
       </c>
       <c r="G46" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -15879,10 +15880,10 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>3.8814968625629533</v>
+        <v>3.574596483779747</v>
       </c>
       <c r="C47" t="s">
         <v>195</v>
@@ -15891,24 +15892,24 @@
         <v>193</v>
       </c>
       <c r="E47">
-        <v>44.925201416015597</v>
+        <v>44.965419769287102</v>
       </c>
       <c r="F47">
-        <v>-93.212112426757798</v>
+        <v>-93.296241760253906</v>
       </c>
       <c r="G47" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="7" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B48">
-        <v>3.8353584196502366</v>
+        <v>2.7689181369184594</v>
       </c>
       <c r="C48" t="s">
         <v>195</v>
@@ -15917,13 +15918,13 @@
         <v>193</v>
       </c>
       <c r="E48">
-        <v>44.970790863037102</v>
+        <v>44.964099884033203</v>
       </c>
       <c r="F48">
-        <v>-93.214942932128906</v>
+        <v>-93.310470581054702</v>
       </c>
       <c r="G48" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -15931,10 +15932,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B49">
-        <v>3.7128537149834591</v>
+        <v>5.39146387253012</v>
       </c>
       <c r="C49" t="s">
         <v>195</v>
@@ -15943,13 +15944,13 @@
         <v>193</v>
       </c>
       <c r="E49">
-        <v>44.995079040527301</v>
+        <v>44.963939666747997</v>
       </c>
       <c r="F49">
-        <v>-93.2530517578125</v>
+        <v>-93.272109985351605</v>
       </c>
       <c r="G49" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -15957,10 +15958,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="7" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B50">
-        <v>3.644449682368982</v>
+        <v>6.3854937388436959</v>
       </c>
       <c r="C50" t="s">
         <v>195</v>
@@ -15969,24 +15970,24 @@
         <v>193</v>
       </c>
       <c r="E50">
-        <v>44.987861633300803</v>
+        <v>44.962711334228501</v>
       </c>
       <c r="F50">
-        <v>-93.222198486328097</v>
+        <v>-93.261810302734403</v>
       </c>
       <c r="G50" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B51">
-        <v>3.6405374047576053</v>
+        <v>6.8177163088747355</v>
       </c>
       <c r="C51" t="s">
         <v>195</v>
@@ -15995,24 +15996,24 @@
         <v>193</v>
       </c>
       <c r="E51">
-        <v>44.9734497070313</v>
+        <v>44.962699890136697</v>
       </c>
       <c r="F51">
-        <v>-93.237899780273395</v>
+        <v>-93.289909362792997</v>
       </c>
       <c r="G51" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B52">
-        <v>3.574596483779747</v>
+        <v>5.0373553647394607</v>
       </c>
       <c r="C52" t="s">
         <v>195</v>
@@ -16021,24 +16022,24 @@
         <v>193</v>
       </c>
       <c r="E52">
-        <v>44.965419769287102</v>
+        <v>44.957359313964801</v>
       </c>
       <c r="F52">
-        <v>-93.296241760253906</v>
+        <v>-93.232261657714801</v>
       </c>
       <c r="G52" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B53">
-        <v>3.4880471658755838</v>
+        <v>5.7730515485154532</v>
       </c>
       <c r="C53" t="s">
         <v>195</v>
@@ -16047,24 +16048,24 @@
         <v>193</v>
       </c>
       <c r="E53">
-        <v>44.896480560302699</v>
+        <v>44.957309722900398</v>
       </c>
       <c r="F53">
-        <v>-93.282562255859403</v>
+        <v>-93.280441284179702</v>
       </c>
       <c r="G53" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B54">
-        <v>3.4824673376999322</v>
+        <v>5.5880394868040941</v>
       </c>
       <c r="C54" t="s">
         <v>195</v>
@@ -16073,24 +16074,24 @@
         <v>193</v>
       </c>
       <c r="E54">
-        <v>44.930538177490199</v>
+        <v>44.955799102783203</v>
       </c>
       <c r="F54">
-        <v>-93.2681884765625</v>
+        <v>-93.299057006835895</v>
       </c>
       <c r="G54" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B55">
-        <v>3.445947115967376</v>
+        <v>12.996109664292046</v>
       </c>
       <c r="C55" t="s">
         <v>195</v>
@@ -16099,13 +16100,13 @@
         <v>193</v>
       </c>
       <c r="E55">
-        <v>45.031330108642599</v>
+        <v>44.953739166259801</v>
       </c>
       <c r="F55">
-        <v>-93.260002136230497</v>
+        <v>-93.248008728027301</v>
       </c>
       <c r="G55" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -16113,10 +16114,10 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>3.3942066200403191</v>
+        <v>2.7483111294411779</v>
       </c>
       <c r="C56" t="s">
         <v>195</v>
@@ -16125,24 +16126,24 @@
         <v>193</v>
       </c>
       <c r="E56">
-        <v>44.910808563232401</v>
+        <v>44.953731536865199</v>
       </c>
       <c r="F56">
-        <v>-93.215812683105497</v>
+        <v>-93.267059326171903</v>
       </c>
       <c r="G56" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B57">
-        <v>3.3072507878686204</v>
+        <v>6.8372371573063608</v>
       </c>
       <c r="C57" t="s">
         <v>195</v>
@@ -16151,13 +16152,13 @@
         <v>193</v>
       </c>
       <c r="E57">
-        <v>44.996170043945298</v>
+        <v>44.953708648681598</v>
       </c>
       <c r="F57">
-        <v>-93.261993408203097</v>
+        <v>-93.258186340332003</v>
       </c>
       <c r="G57" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -16165,10 +16166,10 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B58">
-        <v>3.2206662226306602</v>
+        <v>3.192420485889536</v>
       </c>
       <c r="C58" t="s">
         <v>195</v>
@@ -16177,24 +16178,24 @@
         <v>193</v>
       </c>
       <c r="E58">
-        <v>44.930530548095703</v>
+        <v>44.951969146728501</v>
       </c>
       <c r="F58">
-        <v>-93.255561828613295</v>
+        <v>-93.317932128906307</v>
       </c>
       <c r="G58" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="7" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B59">
-        <v>3.2088677100143199</v>
+        <v>10.375245669363316</v>
       </c>
       <c r="C59" t="s">
         <v>195</v>
@@ -16203,13 +16204,13 @@
         <v>193</v>
       </c>
       <c r="E59">
-        <v>44.932308197021499</v>
+        <v>44.947608947753899</v>
       </c>
       <c r="F59">
-        <v>-93.237823486328097</v>
+        <v>-93.225669860839801</v>
       </c>
       <c r="G59" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -16217,10 +16218,10 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B60">
-        <v>3.192420485889536</v>
+        <v>3.0662819004741877</v>
       </c>
       <c r="C60" t="s">
         <v>195</v>
@@ -16229,13 +16230,13 @@
         <v>193</v>
       </c>
       <c r="E60">
-        <v>44.951969146728501</v>
+        <v>44.946819305419901</v>
       </c>
       <c r="F60">
-        <v>-93.317932128906307</v>
+        <v>-93.212028503417997</v>
       </c>
       <c r="G60" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -16243,10 +16244,10 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="7" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="B61">
-        <v>3.1413230784582384</v>
+        <v>3.883495145631068</v>
       </c>
       <c r="C61" t="s">
         <v>195</v>
@@ -16255,13 +16256,13 @@
         <v>193</v>
       </c>
       <c r="E61">
-        <v>45.018630981445298</v>
+        <v>44.944961547851598</v>
       </c>
       <c r="F61">
-        <v>-93.237747192382798</v>
+        <v>-93.323440551757798</v>
       </c>
       <c r="G61" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -16269,10 +16270,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="7" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B62">
-        <v>3.0689993561976907</v>
+        <v>5.144358845129239</v>
       </c>
       <c r="C62" t="s">
         <v>195</v>
@@ -16281,24 +16282,24 @@
         <v>193</v>
       </c>
       <c r="E62">
-        <v>44.910770416259801</v>
+        <v>44.942928314208999</v>
       </c>
       <c r="F62">
-        <v>-93.231620788574205</v>
+        <v>-93.241462707519503</v>
       </c>
       <c r="G62" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B63">
-        <v>3.0662819004741877</v>
+        <v>5.0203813075961738</v>
       </c>
       <c r="C63" t="s">
         <v>195</v>
@@ -16307,24 +16308,24 @@
         <v>193</v>
       </c>
       <c r="E63">
-        <v>44.946819305419901</v>
+        <v>44.942920684814503</v>
       </c>
       <c r="F63">
-        <v>-93.212028503417997</v>
+        <v>-93.282722473144503</v>
       </c>
       <c r="G63" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>3.0625991205305652</v>
+        <v>4.4950412597471425</v>
       </c>
       <c r="C64" t="s">
         <v>195</v>
@@ -16333,24 +16334,24 @@
         <v>193</v>
       </c>
       <c r="E64">
-        <v>44.976280212402301</v>
+        <v>44.942920684814503</v>
       </c>
       <c r="F64">
-        <v>-93.233963012695298</v>
+        <v>-93.254379272460895</v>
       </c>
       <c r="G64" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B65">
-        <v>3.0421817132413063</v>
+        <v>5.2724008435841352</v>
       </c>
       <c r="C65" t="s">
         <v>195</v>
@@ -16359,24 +16360,24 @@
         <v>193</v>
       </c>
       <c r="E65">
-        <v>44.979030609130902</v>
+        <v>44.942108154296903</v>
       </c>
       <c r="F65">
-        <v>-93.264930725097699</v>
+        <v>-93.300872802734403</v>
       </c>
       <c r="G65" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B66">
-        <v>3.0219841041422213</v>
+        <v>4.1951348654400311</v>
       </c>
       <c r="C66" t="s">
         <v>195</v>
@@ -16385,13 +16386,13 @@
         <v>193</v>
       </c>
       <c r="E66">
-        <v>44.971729278564503</v>
+        <v>44.942100524902301</v>
       </c>
       <c r="F66">
-        <v>-93.314071655273395</v>
+        <v>-93.293258666992202</v>
       </c>
       <c r="G66" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -16399,10 +16400,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B67">
-        <v>3.0041033918692857</v>
+        <v>5.1608052834064297</v>
       </c>
       <c r="C67" t="s">
         <v>195</v>
@@ -16411,24 +16412,24 @@
         <v>193</v>
       </c>
       <c r="E67">
-        <v>44.921470642089801</v>
+        <v>44.941368103027301</v>
       </c>
       <c r="F67">
-        <v>-93.230232238769503</v>
+        <v>-93.269569396972699</v>
       </c>
       <c r="G67" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B68">
-        <v>2.9918263059250059</v>
+        <v>2.8388190512746698</v>
       </c>
       <c r="C68" t="s">
         <v>195</v>
@@ -16437,13 +16438,13 @@
         <v>193</v>
       </c>
       <c r="E68">
-        <v>44.923328399658203</v>
+        <v>44.9358100891113</v>
       </c>
       <c r="F68">
-        <v>-93.268257141113295</v>
+        <v>-93.217239379882798</v>
       </c>
       <c r="G68" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -16451,10 +16452,10 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B69">
-        <v>2.9157192342565907</v>
+        <v>3.2088677100143199</v>
       </c>
       <c r="C69" t="s">
         <v>195</v>
@@ -16463,24 +16464,24 @@
         <v>193</v>
       </c>
       <c r="E69">
-        <v>44.979030609130902</v>
+        <v>44.932308197021499</v>
       </c>
       <c r="F69">
-        <v>-93.264930725097699</v>
+        <v>-93.237823486328097</v>
       </c>
       <c r="G69" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="7" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B70">
-        <v>2.8388190512746698</v>
+        <v>3.4824673376999322</v>
       </c>
       <c r="C70" t="s">
         <v>195</v>
@@ -16489,24 +16490,24 @@
         <v>193</v>
       </c>
       <c r="E70">
-        <v>44.9358100891113</v>
+        <v>44.930538177490199</v>
       </c>
       <c r="F70">
-        <v>-93.217239379882798</v>
+        <v>-93.2681884765625</v>
       </c>
       <c r="G70" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="7" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B71">
-        <v>2.8146155141880298</v>
+        <v>3.2206662226306602</v>
       </c>
       <c r="C71" t="s">
         <v>195</v>
@@ -16515,24 +16516,24 @@
         <v>193</v>
       </c>
       <c r="E71">
-        <v>44.912338256835902</v>
+        <v>44.930530548095703</v>
       </c>
       <c r="F71">
-        <v>-93.280693054199205</v>
+        <v>-93.255561828613295</v>
       </c>
       <c r="G71" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B72">
-        <v>2.8063152369478672</v>
+        <v>2.5364084868460077</v>
       </c>
       <c r="C72" t="s">
         <v>195</v>
@@ -16541,13 +16542,13 @@
         <v>193</v>
       </c>
       <c r="E72">
-        <v>45.047580718994098</v>
+        <v>44.928928375244098</v>
       </c>
       <c r="F72">
-        <v>-93.311218261718807</v>
+        <v>-93.294448852539105</v>
       </c>
       <c r="G72" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -16555,10 +16556,10 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B73">
-        <v>2.7713646120418423</v>
+        <v>1.5880330972619394</v>
       </c>
       <c r="C73" t="s">
         <v>195</v>
@@ -16567,13 +16568,13 @@
         <v>193</v>
       </c>
       <c r="E73">
-        <v>44.901660919189503</v>
+        <v>44.9268989562988</v>
       </c>
       <c r="F73">
-        <v>-93.236808776855497</v>
+        <v>-93.320770263671903</v>
       </c>
       <c r="G73" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -16581,10 +16582,10 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B74">
-        <v>2.7689181369184594</v>
+        <v>3.8814968625629533</v>
       </c>
       <c r="C74" t="s">
         <v>195</v>
@@ -16593,24 +16594,24 @@
         <v>193</v>
       </c>
       <c r="E74">
-        <v>44.964099884033203</v>
+        <v>44.925201416015597</v>
       </c>
       <c r="F74">
-        <v>-93.310470581054702</v>
+        <v>-93.212112426757798</v>
       </c>
       <c r="G74" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B75">
-        <v>2.7483111294411779</v>
+        <v>2.9918263059250059</v>
       </c>
       <c r="C75" t="s">
         <v>195</v>
@@ -16619,24 +16620,24 @@
         <v>193</v>
       </c>
       <c r="E75">
-        <v>44.953731536865199</v>
+        <v>44.923328399658203</v>
       </c>
       <c r="F75">
-        <v>-93.267059326171903</v>
+        <v>-93.268257141113295</v>
       </c>
       <c r="G75" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B76">
-        <v>2.5364084868460077</v>
+        <v>3.0041033918692857</v>
       </c>
       <c r="C76" t="s">
         <v>195</v>
@@ -16645,13 +16646,13 @@
         <v>193</v>
       </c>
       <c r="E76">
-        <v>44.928928375244098</v>
+        <v>44.921470642089801</v>
       </c>
       <c r="F76">
-        <v>-93.294448852539105</v>
+        <v>-93.230232238769503</v>
       </c>
       <c r="G76" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -16659,10 +16660,10 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="7" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B77">
-        <v>2.3765786845093935</v>
+        <v>1.6122500111544706</v>
       </c>
       <c r="C77" t="s">
         <v>195</v>
@@ -16671,24 +16672,24 @@
         <v>193</v>
       </c>
       <c r="E77">
-        <v>45.009578704833999</v>
+        <v>44.912448883056598</v>
       </c>
       <c r="F77">
-        <v>-93.239067077636705</v>
+        <v>-93.318588256835895</v>
       </c>
       <c r="G77" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B78">
-        <v>1.9883686182562121</v>
+        <v>2.8146155141880298</v>
       </c>
       <c r="C78" t="s">
         <v>195</v>
@@ -16697,13 +16698,13 @@
         <v>193</v>
       </c>
       <c r="E78">
-        <v>44.9074897766113</v>
+        <v>44.912338256835902</v>
       </c>
       <c r="F78">
-        <v>-93.270713806152301</v>
+        <v>-93.280693054199205</v>
       </c>
       <c r="G78" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -16711,10 +16712,10 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="7" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B79">
-        <v>1.959095438347604</v>
+        <v>1.5461381685290605</v>
       </c>
       <c r="C79" t="s">
         <v>195</v>
@@ -16723,13 +16724,13 @@
         <v>193</v>
       </c>
       <c r="E79">
-        <v>45.029468536377003</v>
+        <v>44.9120903015137</v>
       </c>
       <c r="F79">
-        <v>-93.237449645996094</v>
+        <v>-93.2979736328125</v>
       </c>
       <c r="G79" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -16737,10 +16738,10 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B80">
-        <v>1.910353182368838</v>
+        <v>3.3942066200403191</v>
       </c>
       <c r="C80" t="s">
         <v>195</v>
@@ -16749,13 +16750,13 @@
         <v>193</v>
       </c>
       <c r="E80">
-        <v>44.897918701171903</v>
+        <v>44.910808563232401</v>
       </c>
       <c r="F80">
-        <v>-93.259651184082003</v>
+        <v>-93.215812683105497</v>
       </c>
       <c r="G80" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -16763,10 +16764,10 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B81">
-        <v>1.7293797619487217</v>
+        <v>3.0689993561976907</v>
       </c>
       <c r="C81" t="s">
         <v>195</v>
@@ -16775,13 +16776,13 @@
         <v>193</v>
       </c>
       <c r="E81">
-        <v>44.908870697021499</v>
+        <v>44.910770416259801</v>
       </c>
       <c r="F81">
-        <v>-93.255630493164105</v>
+        <v>-93.231620788574205</v>
       </c>
       <c r="G81" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -16789,10 +16790,10 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B82">
-        <v>1.6122500111544706</v>
+        <v>1.7293797619487217</v>
       </c>
       <c r="C82" t="s">
         <v>195</v>
@@ -16801,24 +16802,24 @@
         <v>193</v>
       </c>
       <c r="E82">
-        <v>44.912448883056598</v>
+        <v>44.908870697021499</v>
       </c>
       <c r="F82">
-        <v>-93.318588256835895</v>
+        <v>-93.255630493164105</v>
       </c>
       <c r="G82" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="7" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>1.5880330972619394</v>
+        <v>1.9883686182562121</v>
       </c>
       <c r="C83" t="s">
         <v>195</v>
@@ -16827,13 +16828,13 @@
         <v>193</v>
       </c>
       <c r="E83">
-        <v>44.9268989562988</v>
+        <v>44.9074897766113</v>
       </c>
       <c r="F83">
-        <v>-93.320770263671903</v>
+        <v>-93.270713806152301</v>
       </c>
       <c r="G83" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -16841,10 +16842,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B84">
-        <v>1.5461381685290605</v>
+        <v>1.235052542577606</v>
       </c>
       <c r="C84" t="s">
         <v>195</v>
@@ -16853,13 +16854,13 @@
         <v>193</v>
       </c>
       <c r="E84">
-        <v>44.9120903015137</v>
+        <v>44.901748657226598</v>
       </c>
       <c r="F84">
-        <v>-93.2979736328125</v>
+        <v>-93.214630126953097</v>
       </c>
       <c r="G84" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -16867,10 +16868,10 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="7" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B85">
-        <v>1.4014306779268575</v>
+        <v>2.7713646120418423</v>
       </c>
       <c r="C85" t="s">
         <v>195</v>
@@ -16879,13 +16880,13 @@
         <v>193</v>
       </c>
       <c r="E85">
-        <v>44.897941589355497</v>
+        <v>44.901660919189503</v>
       </c>
       <c r="F85">
-        <v>-93.311828613281307</v>
+        <v>-93.236808776855497</v>
       </c>
       <c r="G85" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -16919,10 +16920,10 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="7" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B87">
-        <v>1.235052542577606</v>
+        <v>1.4014306779268575</v>
       </c>
       <c r="C87" t="s">
         <v>195</v>
@@ -16931,13 +16932,13 @@
         <v>193</v>
       </c>
       <c r="E87">
-        <v>44.901748657226598</v>
+        <v>44.897941589355497</v>
       </c>
       <c r="F87">
-        <v>-93.214630126953097</v>
+        <v>-93.311828613281307</v>
       </c>
       <c r="G87" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -16945,10 +16946,10 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1.910353182368838</v>
       </c>
       <c r="C88" t="s">
         <v>195</v>
@@ -16957,13 +16958,13 @@
         <v>193</v>
       </c>
       <c r="E88">
-        <v>45.037620544433601</v>
+        <v>44.897918701171903</v>
       </c>
       <c r="F88">
-        <v>-93.285049438476605</v>
+        <v>-93.259651184082003</v>
       </c>
       <c r="G88" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -16971,10 +16972,10 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="7" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>3.4880471658755838</v>
       </c>
       <c r="C89" t="s">
         <v>195</v>
@@ -16983,13 +16984,13 @@
         <v>193</v>
       </c>
       <c r="E89">
-        <v>45.040271759033203</v>
+        <v>44.896480560302699</v>
       </c>
       <c r="F89">
-        <v>-93.299972534179702</v>
+        <v>-93.282562255859403</v>
       </c>
       <c r="G89" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -16997,7 +16998,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:H89">
-    <sortCondition descending="1" ref="B1"/>
+    <sortCondition descending="1" ref="E1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -20326,91 +20327,91 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>643</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="62"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="67" t="s">
         <v>644</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="69"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="70" t="s">
         <v>645</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:12" ht="16" thickBot="1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="70" t="s">
         <v>646</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="68"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="72"/>
     </row>
     <row r="5" spans="1:12" ht="22" thickBot="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="73" t="s">
         <v>647</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="75" t="s">
         <v>648</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="74" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78" t="s">
         <v>649</v>
       </c>
-      <c r="K5" s="72"/>
-      <c r="L5" s="73"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
     </row>
     <row r="6" spans="1:12" ht="50" thickBot="1">
-      <c r="A6" s="70"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="34" t="s">
         <v>650</v>
       </c>
@@ -23812,7 +23813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>

--- a/builds/production/data/maindata.xlsx
+++ b/builds/production/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="0" windowWidth="24660" windowHeight="18280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6200" yWindow="0" windowWidth="24660" windowHeight="18280" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="incidents" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="ranking" sheetId="3" r:id="rId3"/>
     <sheet name="pop2000" sheetId="5" r:id="rId4"/>
     <sheet name="pop2010" sheetId="6" r:id="rId5"/>
-    <sheet name="timeline" sheetId="7" r:id="rId6"/>
-    <sheet name="source" sheetId="4" r:id="rId7"/>
+    <sheet name="race" sheetId="8" r:id="rId6"/>
+    <sheet name="timeline" sheetId="7" r:id="rId7"/>
+    <sheet name="source" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="707">
   <si>
     <t>ARMATAGE</t>
   </si>
@@ -2127,6 +2128,27 @@
   </si>
   <si>
     <t>ventura village</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>shootings</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>native</t>
+  </si>
+  <si>
+    <t>hispanic</t>
   </si>
 </sst>
 </file>
@@ -3135,7 +3157,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3263,6 +3285,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="264" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3308,19 +3343,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="541">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -11108,7 +11132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="AJ17" sqref="AJ17:AJ25"/>
     </sheetView>
   </sheetViews>
@@ -14751,7 +14775,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="78"/>
+    <col min="2" max="16384" width="10.83203125" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14784,25 +14808,25 @@
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="78">
+      <c r="B2" s="63">
         <v>35.23905219296752</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="78">
+      <c r="E2" s="63">
         <v>44.980358123779297</v>
       </c>
-      <c r="F2" s="78">
+      <c r="F2" s="63">
         <v>-93.265083312988295</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="78">
+      <c r="H2" s="63">
         <v>2</v>
       </c>
     </row>
@@ -14810,25 +14834,25 @@
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="63">
         <v>18.565023693992792</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="78">
+      <c r="E3" s="63">
         <v>44.976310729980497</v>
       </c>
-      <c r="F3" s="78">
+      <c r="F3" s="63">
         <v>-93.255119323730497</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="78">
+      <c r="H3" s="63">
         <v>0</v>
       </c>
     </row>
@@ -14836,25 +14860,25 @@
       <c r="A4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="63">
         <v>17.753047164811871</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="78">
+      <c r="E4" s="63">
         <v>45.0059204101563</v>
       </c>
-      <c r="F4" s="78">
+      <c r="F4" s="63">
         <v>-93.220970153808594</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="78">
+      <c r="H4" s="63">
         <v>0</v>
       </c>
     </row>
@@ -14862,25 +14886,25 @@
       <c r="A5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="63">
         <v>15.855635956560375</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="63">
         <v>44.991989135742202</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="63">
         <v>-93.295356750488295</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="63">
         <v>2</v>
       </c>
     </row>
@@ -14888,25 +14912,25 @@
       <c r="A6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="63">
         <v>15.218921793316259</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="63">
         <v>44.979030609130902</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="63">
         <v>-93.264930725097699</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="78">
+      <c r="H6" s="63">
         <v>0</v>
       </c>
     </row>
@@ -14914,25 +14938,25 @@
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="78">
+      <c r="B7" s="63">
         <v>12.996109664292046</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="63">
         <v>44.953739166259801</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="63">
         <v>-93.248008728027301</v>
       </c>
-      <c r="G7" s="78" t="s">
+      <c r="G7" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="78">
+      <c r="H7" s="63">
         <v>0</v>
       </c>
     </row>
@@ -14940,25 +14964,25 @@
       <c r="A8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="78">
+      <c r="B8" s="63">
         <v>10.375245669363316</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="63">
         <v>44.947608947753899</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="63">
         <v>-93.225669860839801</v>
       </c>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="63">
         <v>0</v>
       </c>
     </row>
@@ -14966,25 +14990,25 @@
       <c r="A9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="78">
+      <c r="B9" s="63">
         <v>9.8275617515349225</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="63">
         <v>44.983299255371101</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="63">
         <v>-93.282089233398395</v>
       </c>
-      <c r="G9" s="78" t="s">
+      <c r="G9" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="63">
         <v>0</v>
       </c>
     </row>
@@ -14992,25 +15016,25 @@
       <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="78">
+      <c r="B10" s="63">
         <v>9.1985968699406371</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="63">
         <v>45.005901336669901</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="63">
         <v>-93.284149169921903</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="G10" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15018,25 +15042,25 @@
       <c r="A11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="78">
+      <c r="B11" s="63">
         <v>7.2402575422318662</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="63">
         <v>45.009601593017599</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="63">
         <v>-93.305068969726605</v>
       </c>
-      <c r="G11" s="78" t="s">
+      <c r="G11" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="63">
         <v>1</v>
       </c>
     </row>
@@ -15044,25 +15068,25 @@
       <c r="A12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="78">
+      <c r="B12" s="63">
         <v>6.9291035191369117</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="63">
         <v>45.029518127441399</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="63">
         <v>-93.312911987304702</v>
       </c>
-      <c r="G12" s="78" t="s">
+      <c r="G12" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="78">
+      <c r="H12" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15070,25 +15094,25 @@
       <c r="A13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="78">
+      <c r="B13" s="63">
         <v>6.8372371573063608</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="63">
         <v>44.953708648681598</v>
       </c>
-      <c r="F13" s="78">
+      <c r="F13" s="63">
         <v>-93.258186340332003</v>
       </c>
-      <c r="G13" s="78" t="s">
+      <c r="G13" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="78">
+      <c r="H13" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15096,25 +15120,25 @@
       <c r="A14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="78">
+      <c r="B14" s="63">
         <v>6.8177163088747355</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="63">
         <v>44.962699890136697</v>
       </c>
-      <c r="F14" s="78">
+      <c r="F14" s="63">
         <v>-93.289909362792997</v>
       </c>
-      <c r="G14" s="78" t="s">
+      <c r="G14" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="78">
+      <c r="H14" s="63">
         <v>2</v>
       </c>
     </row>
@@ -15122,25 +15146,25 @@
       <c r="A15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="78">
+      <c r="B15" s="63">
         <v>6.6774476113469436</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="63">
         <v>45.010059356689503</v>
       </c>
-      <c r="F15" s="78">
+      <c r="F15" s="63">
         <v>-93.269500732421903</v>
       </c>
-      <c r="G15" s="78" t="s">
+      <c r="G15" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="78">
+      <c r="H15" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15148,25 +15172,25 @@
       <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="78">
+      <c r="B16" s="63">
         <v>6.3854937388436959</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="63">
         <v>44.962711334228501</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="63">
         <v>-93.261810302734403</v>
       </c>
-      <c r="G16" s="78" t="s">
+      <c r="G16" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="H16" s="78">
+      <c r="H16" s="63">
         <v>2</v>
       </c>
     </row>
@@ -15174,25 +15198,25 @@
       <c r="A17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="78">
+      <c r="B17" s="63">
         <v>6.3643740386827989</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="63">
         <v>44.984260559082003</v>
       </c>
-      <c r="F17" s="78">
+      <c r="F17" s="63">
         <v>-93.290428161621094</v>
       </c>
-      <c r="G17" s="78" t="s">
+      <c r="G17" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="H17" s="78">
+      <c r="H17" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15200,25 +15224,25 @@
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="78">
+      <c r="B18" s="63">
         <v>6.3593231725238279</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="63">
         <v>45.018581390380902</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F18" s="63">
         <v>-93.300003051757798</v>
       </c>
-      <c r="G18" s="78" t="s">
+      <c r="G18" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H18" s="63">
         <v>1</v>
       </c>
     </row>
@@ -15226,25 +15250,25 @@
       <c r="A19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="78">
+      <c r="B19" s="63">
         <v>6.0094140749083138</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E19" s="78">
+      <c r="E19" s="63">
         <v>45.018501281738303</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="63">
         <v>-93.285743713378906</v>
       </c>
-      <c r="G19" s="78" t="s">
+      <c r="G19" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="78">
+      <c r="H19" s="63">
         <v>1</v>
       </c>
     </row>
@@ -15252,25 +15276,25 @@
       <c r="A20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="78">
+      <c r="B20" s="63">
         <v>5.9689892851227553</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="63">
         <v>45.0295600891113</v>
       </c>
-      <c r="F20" s="78">
+      <c r="F20" s="63">
         <v>-93.295112609863295</v>
       </c>
-      <c r="G20" s="78" t="s">
+      <c r="G20" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="H20" s="78">
+      <c r="H20" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15278,25 +15302,25 @@
       <c r="A21" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="78">
+      <c r="B21" s="63">
         <v>5.7730515485154532</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E21" s="78">
+      <c r="E21" s="63">
         <v>44.957309722900398</v>
       </c>
-      <c r="F21" s="78">
+      <c r="F21" s="63">
         <v>-93.280441284179702</v>
       </c>
-      <c r="G21" s="78" t="s">
+      <c r="G21" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="H21" s="78">
+      <c r="H21" s="63">
         <v>1</v>
       </c>
     </row>
@@ -15304,25 +15328,25 @@
       <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="78">
+      <c r="B22" s="63">
         <v>5.5880394868040941</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="63">
         <v>44.955799102783203</v>
       </c>
-      <c r="F22" s="78">
+      <c r="F22" s="63">
         <v>-93.299057006835895</v>
       </c>
-      <c r="G22" s="78" t="s">
+      <c r="G22" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="78">
+      <c r="H22" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15330,25 +15354,25 @@
       <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="78">
+      <c r="B23" s="63">
         <v>5.540343557880286</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E23" s="78">
+      <c r="E23" s="63">
         <v>44.970409393310497</v>
       </c>
-      <c r="F23" s="78">
+      <c r="F23" s="63">
         <v>-93.2647705078125</v>
       </c>
-      <c r="G23" s="78" t="s">
+      <c r="G23" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="78">
+      <c r="H23" s="63">
         <v>1</v>
       </c>
     </row>
@@ -15356,25 +15380,25 @@
       <c r="A24" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="78">
+      <c r="B24" s="63">
         <v>5.39146387253012</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D24" s="78" t="s">
+      <c r="D24" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E24" s="78">
+      <c r="E24" s="63">
         <v>44.963939666747997</v>
       </c>
-      <c r="F24" s="78">
+      <c r="F24" s="63">
         <v>-93.272109985351605</v>
       </c>
-      <c r="G24" s="78" t="s">
+      <c r="G24" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="H24" s="78">
+      <c r="H24" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15382,25 +15406,25 @@
       <c r="A25" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="78">
+      <c r="B25" s="63">
         <v>5.3776877477287872</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="78">
+      <c r="E25" s="63">
         <v>44.995151519775398</v>
       </c>
-      <c r="F25" s="78">
+      <c r="F25" s="63">
         <v>-93.311790466308594</v>
       </c>
-      <c r="G25" s="78" t="s">
+      <c r="G25" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="H25" s="78">
+      <c r="H25" s="63">
         <v>3</v>
       </c>
     </row>
@@ -15408,25 +15432,25 @@
       <c r="A26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="78">
+      <c r="B26" s="63">
         <v>5.2724008435841352</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D26" s="78" t="s">
+      <c r="D26" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="63">
         <v>44.942108154296903</v>
       </c>
-      <c r="F26" s="78">
+      <c r="F26" s="63">
         <v>-93.300872802734403</v>
       </c>
-      <c r="G26" s="78" t="s">
+      <c r="G26" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="H26" s="78">
+      <c r="H26" s="63">
         <v>1</v>
       </c>
     </row>
@@ -15434,25 +15458,25 @@
       <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="78">
+      <c r="B27" s="63">
         <v>5.1608052834064297</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D27" s="78" t="s">
+      <c r="D27" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E27" s="78">
+      <c r="E27" s="63">
         <v>44.941368103027301</v>
       </c>
-      <c r="F27" s="78">
+      <c r="F27" s="63">
         <v>-93.269569396972699</v>
       </c>
-      <c r="G27" s="78" t="s">
+      <c r="G27" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="78">
+      <c r="H27" s="63">
         <v>1</v>
       </c>
     </row>
@@ -15460,25 +15484,25 @@
       <c r="A28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="78">
+      <c r="B28" s="63">
         <v>5.144358845129239</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="78" t="s">
+      <c r="D28" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="78">
+      <c r="E28" s="63">
         <v>44.942928314208999</v>
       </c>
-      <c r="F28" s="78">
+      <c r="F28" s="63">
         <v>-93.241462707519503</v>
       </c>
-      <c r="G28" s="78" t="s">
+      <c r="G28" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="78">
+      <c r="H28" s="63">
         <v>1</v>
       </c>
     </row>
@@ -15486,25 +15510,25 @@
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="78">
+      <c r="B29" s="63">
         <v>5.1003685746796616</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D29" s="78" t="s">
+      <c r="D29" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="78">
+      <c r="E29" s="63">
         <v>44.985641479492202</v>
       </c>
-      <c r="F29" s="78">
+      <c r="F29" s="63">
         <v>-93.248687744140597</v>
       </c>
-      <c r="G29" s="78" t="s">
+      <c r="G29" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="H29" s="78">
+      <c r="H29" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15512,25 +15536,25 @@
       <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="78">
+      <c r="B30" s="63">
         <v>5.073060053846338</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E30" s="78">
+      <c r="E30" s="63">
         <v>44.980758666992202</v>
       </c>
-      <c r="F30" s="78">
+      <c r="F30" s="63">
         <v>-93.305152893066406</v>
       </c>
-      <c r="G30" s="78" t="s">
+      <c r="G30" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="78">
+      <c r="H30" s="63">
         <v>1</v>
       </c>
     </row>
@@ -15538,25 +15562,25 @@
       <c r="A31" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="78">
+      <c r="B31" s="63">
         <v>5.0373553647394607</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D31" s="78" t="s">
+      <c r="D31" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E31" s="78">
+      <c r="E31" s="63">
         <v>44.957359313964801</v>
       </c>
-      <c r="F31" s="78">
+      <c r="F31" s="63">
         <v>-93.232261657714801</v>
       </c>
-      <c r="G31" s="78" t="s">
+      <c r="G31" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="H31" s="78">
+      <c r="H31" s="63">
         <v>1</v>
       </c>
     </row>
@@ -15564,25 +15588,25 @@
       <c r="A32" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="78">
+      <c r="B32" s="63">
         <v>5.0203813075961738</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E32" s="78">
+      <c r="E32" s="63">
         <v>44.942920684814503</v>
       </c>
-      <c r="F32" s="78">
+      <c r="F32" s="63">
         <v>-93.282722473144503</v>
       </c>
-      <c r="G32" s="78" t="s">
+      <c r="G32" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="H32" s="78">
+      <c r="H32" s="63">
         <v>1</v>
       </c>
     </row>
@@ -15590,25 +15614,25 @@
       <c r="A33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="78">
+      <c r="B33" s="63">
         <v>4.9609810479375698</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D33" s="78" t="s">
+      <c r="D33" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E33" s="78">
+      <c r="E33" s="63">
         <v>45.043918609619098</v>
       </c>
-      <c r="F33" s="78">
+      <c r="F33" s="63">
         <v>-93.293006896972699</v>
       </c>
-      <c r="G33" s="78" t="s">
+      <c r="G33" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="H33" s="78">
+      <c r="H33" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15616,25 +15640,25 @@
       <c r="A34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="78">
+      <c r="B34" s="63">
         <v>4.9568025466983983</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D34" s="78" t="s">
+      <c r="D34" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E34" s="78">
+      <c r="E34" s="63">
         <v>44.970001220703097</v>
       </c>
-      <c r="F34" s="78">
+      <c r="F34" s="63">
         <v>-93.283889770507798</v>
       </c>
-      <c r="G34" s="78" t="s">
+      <c r="G34" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="H34" s="78">
+      <c r="H34" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15642,25 +15666,25 @@
       <c r="A35" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B35" s="78">
+      <c r="B35" s="63">
         <v>4.9283156877197367</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="C35" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D35" s="78" t="s">
+      <c r="D35" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E35" s="78">
+      <c r="E35" s="63">
         <v>44.973269000000002</v>
       </c>
-      <c r="F35" s="78">
+      <c r="F35" s="63">
         <v>-93.264313000000001</v>
       </c>
-      <c r="G35" s="78" t="s">
+      <c r="G35" s="63" t="s">
         <v>685</v>
       </c>
-      <c r="H35" s="78">
+      <c r="H35" s="63">
         <v>29</v>
       </c>
     </row>
@@ -15668,25 +15692,25 @@
       <c r="A36" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="78">
+      <c r="B36" s="63">
         <v>4.863291024066239</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D36" s="78" t="s">
+      <c r="D36" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E36" s="78">
+      <c r="E36" s="63">
         <v>45.018638610839801</v>
       </c>
-      <c r="F36" s="78">
+      <c r="F36" s="63">
         <v>-93.312713623046903</v>
       </c>
-      <c r="G36" s="78" t="s">
+      <c r="G36" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="78">
+      <c r="H36" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15694,25 +15718,25 @@
       <c r="A37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="78">
+      <c r="B37" s="63">
         <v>4.8029494574179283</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D37" s="78" t="s">
+      <c r="D37" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="78">
+      <c r="E37" s="63">
         <v>45.018589019775398</v>
       </c>
-      <c r="F37" s="78">
+      <c r="F37" s="63">
         <v>-93.270736694335895</v>
       </c>
-      <c r="G37" s="78" t="s">
+      <c r="G37" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="H37" s="78">
+      <c r="H37" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15720,25 +15744,25 @@
       <c r="A38" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="78">
+      <c r="B38" s="63">
         <v>4.6670108187289312</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D38" s="78" t="s">
+      <c r="D38" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E38" s="78">
+      <c r="E38" s="63">
         <v>45.012168884277301</v>
       </c>
-      <c r="F38" s="78">
+      <c r="F38" s="63">
         <v>-93.254898071289105</v>
       </c>
-      <c r="G38" s="78" t="s">
+      <c r="G38" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="H38" s="78">
+      <c r="H38" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15746,25 +15770,25 @@
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="78">
+      <c r="B39" s="63">
         <v>4.6424386614450359</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D39" s="78" t="s">
+      <c r="D39" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E39" s="78">
+      <c r="E39" s="63">
         <v>45.003078460693402</v>
       </c>
-      <c r="F39" s="78">
+      <c r="F39" s="63">
         <v>-93.253082275390597</v>
       </c>
-      <c r="G39" s="78" t="s">
+      <c r="G39" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="H39" s="78">
+      <c r="H39" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15772,25 +15796,25 @@
       <c r="A40" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="78">
+      <c r="B40" s="63">
         <v>4.4950412597471425</v>
       </c>
-      <c r="C40" s="78" t="s">
+      <c r="C40" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D40" s="78" t="s">
+      <c r="D40" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E40" s="78">
+      <c r="E40" s="63">
         <v>44.942920684814503</v>
       </c>
-      <c r="F40" s="78">
+      <c r="F40" s="63">
         <v>-93.254379272460895</v>
       </c>
-      <c r="G40" s="78" t="s">
+      <c r="G40" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="H40" s="78">
+      <c r="H40" s="63">
         <v>1</v>
       </c>
     </row>
@@ -15798,25 +15822,25 @@
       <c r="A41" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="78">
+      <c r="B41" s="63">
         <v>4.4571256102226107</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D41" s="78" t="s">
+      <c r="D41" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E41" s="78">
+      <c r="E41" s="63">
         <v>45.001991271972699</v>
       </c>
-      <c r="F41" s="78">
+      <c r="F41" s="63">
         <v>-93.265373229980497</v>
       </c>
-      <c r="G41" s="78" t="s">
+      <c r="G41" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="H41" s="78">
+      <c r="H41" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15824,25 +15848,25 @@
       <c r="A42" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="78">
+      <c r="B42" s="63">
         <v>4.4224422442244222</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D42" s="78" t="s">
+      <c r="D42" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E42" s="78">
+      <c r="E42" s="63">
         <v>44.995090484619098</v>
       </c>
-      <c r="F42" s="78">
+      <c r="F42" s="63">
         <v>-93.241607666015597</v>
       </c>
-      <c r="G42" s="78" t="s">
+      <c r="G42" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="H42" s="78">
+      <c r="H42" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15850,25 +15874,25 @@
       <c r="A43" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="78">
+      <c r="B43" s="63">
         <v>4.267862269915959</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C43" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D43" s="78" t="s">
+      <c r="D43" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="78">
+      <c r="E43" s="63">
         <v>44.967739105224602</v>
       </c>
-      <c r="F43" s="78">
+      <c r="F43" s="63">
         <v>-93.246482849121094</v>
       </c>
-      <c r="G43" s="78" t="s">
+      <c r="G43" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="H43" s="78">
+      <c r="H43" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15876,25 +15900,25 @@
       <c r="A44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="78">
+      <c r="B44" s="63">
         <v>4.1951348654400311</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="C44" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D44" s="78" t="s">
+      <c r="D44" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E44" s="78">
+      <c r="E44" s="63">
         <v>44.942100524902301</v>
       </c>
-      <c r="F44" s="78">
+      <c r="F44" s="63">
         <v>-93.293258666992202</v>
       </c>
-      <c r="G44" s="78" t="s">
+      <c r="G44" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="78">
+      <c r="H44" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15902,25 +15926,25 @@
       <c r="A45" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="78">
+      <c r="B45" s="63">
         <v>3.883495145631068</v>
       </c>
-      <c r="C45" s="78" t="s">
+      <c r="C45" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D45" s="78" t="s">
+      <c r="D45" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E45" s="78">
+      <c r="E45" s="63">
         <v>44.944961547851598</v>
       </c>
-      <c r="F45" s="78">
+      <c r="F45" s="63">
         <v>-93.323440551757798</v>
       </c>
-      <c r="G45" s="78" t="s">
+      <c r="G45" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="H45" s="78">
+      <c r="H45" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15928,25 +15952,25 @@
       <c r="A46" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="78">
+      <c r="B46" s="63">
         <v>3.8814968625629533</v>
       </c>
-      <c r="C46" s="78" t="s">
+      <c r="C46" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D46" s="78" t="s">
+      <c r="D46" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E46" s="78">
+      <c r="E46" s="63">
         <v>44.925201416015597</v>
       </c>
-      <c r="F46" s="78">
+      <c r="F46" s="63">
         <v>-93.212112426757798</v>
       </c>
-      <c r="G46" s="78" t="s">
+      <c r="G46" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="H46" s="78">
+      <c r="H46" s="63">
         <v>1</v>
       </c>
     </row>
@@ -15954,25 +15978,25 @@
       <c r="A47" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="78">
+      <c r="B47" s="63">
         <v>3.8353584196502366</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C47" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D47" s="78" t="s">
+      <c r="D47" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E47" s="78">
+      <c r="E47" s="63">
         <v>44.970790863037102</v>
       </c>
-      <c r="F47" s="78">
+      <c r="F47" s="63">
         <v>-93.214942932128906</v>
       </c>
-      <c r="G47" s="78" t="s">
+      <c r="G47" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="H47" s="78">
+      <c r="H47" s="63">
         <v>0</v>
       </c>
     </row>
@@ -15980,25 +16004,25 @@
       <c r="A48" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="78">
+      <c r="B48" s="63">
         <v>3.7128537149834591</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="C48" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D48" s="78" t="s">
+      <c r="D48" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E48" s="78">
+      <c r="E48" s="63">
         <v>44.995079040527301</v>
       </c>
-      <c r="F48" s="78">
+      <c r="F48" s="63">
         <v>-93.2530517578125</v>
       </c>
-      <c r="G48" s="78" t="s">
+      <c r="G48" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="H48" s="78">
+      <c r="H48" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16006,25 +16030,25 @@
       <c r="A49" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="78">
+      <c r="B49" s="63">
         <v>3.644449682368982</v>
       </c>
-      <c r="C49" s="78" t="s">
+      <c r="C49" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D49" s="78" t="s">
+      <c r="D49" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E49" s="78">
+      <c r="E49" s="63">
         <v>44.987861633300803</v>
       </c>
-      <c r="F49" s="78">
+      <c r="F49" s="63">
         <v>-93.222198486328097</v>
       </c>
-      <c r="G49" s="78" t="s">
+      <c r="G49" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="H49" s="78">
+      <c r="H49" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16032,25 +16056,25 @@
       <c r="A50" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="78">
+      <c r="B50" s="63">
         <v>3.6405374047576053</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C50" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D50" s="78" t="s">
+      <c r="D50" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E50" s="78">
+      <c r="E50" s="63">
         <v>44.9734497070313</v>
       </c>
-      <c r="F50" s="78">
+      <c r="F50" s="63">
         <v>-93.237899780273395</v>
       </c>
-      <c r="G50" s="78" t="s">
+      <c r="G50" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="H50" s="78">
+      <c r="H50" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16058,25 +16082,25 @@
       <c r="A51" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="78">
+      <c r="B51" s="63">
         <v>3.574596483779747</v>
       </c>
-      <c r="C51" s="78" t="s">
+      <c r="C51" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D51" s="78" t="s">
+      <c r="D51" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E51" s="78">
+      <c r="E51" s="63">
         <v>44.965419769287102</v>
       </c>
-      <c r="F51" s="78">
+      <c r="F51" s="63">
         <v>-93.296241760253906</v>
       </c>
-      <c r="G51" s="78" t="s">
+      <c r="G51" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="H51" s="78">
+      <c r="H51" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16084,25 +16108,25 @@
       <c r="A52" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="78">
+      <c r="B52" s="63">
         <v>3.4880471658755838</v>
       </c>
-      <c r="C52" s="78" t="s">
+      <c r="C52" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="78" t="s">
+      <c r="D52" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E52" s="78">
+      <c r="E52" s="63">
         <v>44.896480560302699</v>
       </c>
-      <c r="F52" s="78">
+      <c r="F52" s="63">
         <v>-93.282562255859403</v>
       </c>
-      <c r="G52" s="78" t="s">
+      <c r="G52" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="H52" s="78">
+      <c r="H52" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16110,25 +16134,25 @@
       <c r="A53" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="78">
+      <c r="B53" s="63">
         <v>3.4824673376999322</v>
       </c>
-      <c r="C53" s="78" t="s">
+      <c r="C53" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D53" s="78" t="s">
+      <c r="D53" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E53" s="78">
+      <c r="E53" s="63">
         <v>44.930538177490199</v>
       </c>
-      <c r="F53" s="78">
+      <c r="F53" s="63">
         <v>-93.2681884765625</v>
       </c>
-      <c r="G53" s="78" t="s">
+      <c r="G53" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="H53" s="78">
+      <c r="H53" s="63">
         <v>1</v>
       </c>
     </row>
@@ -16136,25 +16160,25 @@
       <c r="A54" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="78">
+      <c r="B54" s="63">
         <v>3.445947115967376</v>
       </c>
-      <c r="C54" s="78" t="s">
+      <c r="C54" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D54" s="78" t="s">
+      <c r="D54" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E54" s="78">
+      <c r="E54" s="63">
         <v>45.031330108642599</v>
       </c>
-      <c r="F54" s="78">
+      <c r="F54" s="63">
         <v>-93.260002136230497</v>
       </c>
-      <c r="G54" s="78" t="s">
+      <c r="G54" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="H54" s="78">
+      <c r="H54" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16162,25 +16186,25 @@
       <c r="A55" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="78">
+      <c r="B55" s="63">
         <v>3.3942066200403191</v>
       </c>
-      <c r="C55" s="78" t="s">
+      <c r="C55" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D55" s="78" t="s">
+      <c r="D55" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E55" s="78">
+      <c r="E55" s="63">
         <v>44.910808563232401</v>
       </c>
-      <c r="F55" s="78">
+      <c r="F55" s="63">
         <v>-93.215812683105497</v>
       </c>
-      <c r="G55" s="78" t="s">
+      <c r="G55" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="H55" s="78">
+      <c r="H55" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16188,25 +16212,25 @@
       <c r="A56" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="78">
+      <c r="B56" s="63">
         <v>3.3072507878686204</v>
       </c>
-      <c r="C56" s="78" t="s">
+      <c r="C56" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D56" s="78" t="s">
+      <c r="D56" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E56" s="78">
+      <c r="E56" s="63">
         <v>44.996170043945298</v>
       </c>
-      <c r="F56" s="78">
+      <c r="F56" s="63">
         <v>-93.261993408203097</v>
       </c>
-      <c r="G56" s="78" t="s">
+      <c r="G56" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="H56" s="78">
+      <c r="H56" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16214,25 +16238,25 @@
       <c r="A57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="78">
+      <c r="B57" s="63">
         <v>3.2206662226306602</v>
       </c>
-      <c r="C57" s="78" t="s">
+      <c r="C57" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D57" s="78" t="s">
+      <c r="D57" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E57" s="78">
+      <c r="E57" s="63">
         <v>44.930530548095703</v>
       </c>
-      <c r="F57" s="78">
+      <c r="F57" s="63">
         <v>-93.255561828613295</v>
       </c>
-      <c r="G57" s="78" t="s">
+      <c r="G57" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="H57" s="78">
+      <c r="H57" s="63">
         <v>1</v>
       </c>
     </row>
@@ -16240,25 +16264,25 @@
       <c r="A58" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="78">
+      <c r="B58" s="63">
         <v>3.2088677100143199</v>
       </c>
-      <c r="C58" s="78" t="s">
+      <c r="C58" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D58" s="78" t="s">
+      <c r="D58" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E58" s="78">
+      <c r="E58" s="63">
         <v>44.932308197021499</v>
       </c>
-      <c r="F58" s="78">
+      <c r="F58" s="63">
         <v>-93.237823486328097</v>
       </c>
-      <c r="G58" s="78" t="s">
+      <c r="G58" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="H58" s="78">
+      <c r="H58" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16266,25 +16290,25 @@
       <c r="A59" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="78">
+      <c r="B59" s="63">
         <v>3.192420485889536</v>
       </c>
-      <c r="C59" s="78" t="s">
+      <c r="C59" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D59" s="78" t="s">
+      <c r="D59" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E59" s="78">
+      <c r="E59" s="63">
         <v>44.951969146728501</v>
       </c>
-      <c r="F59" s="78">
+      <c r="F59" s="63">
         <v>-93.317932128906307</v>
       </c>
-      <c r="G59" s="78" t="s">
+      <c r="G59" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="H59" s="78">
+      <c r="H59" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16292,25 +16316,25 @@
       <c r="A60" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="78">
+      <c r="B60" s="63">
         <v>3.1413230784582384</v>
       </c>
-      <c r="C60" s="78" t="s">
+      <c r="C60" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D60" s="78" t="s">
+      <c r="D60" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E60" s="78">
+      <c r="E60" s="63">
         <v>45.018630981445298</v>
       </c>
-      <c r="F60" s="78">
+      <c r="F60" s="63">
         <v>-93.237747192382798</v>
       </c>
-      <c r="G60" s="78" t="s">
+      <c r="G60" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="H60" s="78">
+      <c r="H60" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16318,25 +16342,25 @@
       <c r="A61" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B61" s="78">
+      <c r="B61" s="63">
         <v>3.0689993561976907</v>
       </c>
-      <c r="C61" s="78" t="s">
+      <c r="C61" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D61" s="78" t="s">
+      <c r="D61" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E61" s="78">
+      <c r="E61" s="63">
         <v>44.910770416259801</v>
       </c>
-      <c r="F61" s="78">
+      <c r="F61" s="63">
         <v>-93.231620788574205</v>
       </c>
-      <c r="G61" s="78" t="s">
+      <c r="G61" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="H61" s="78">
+      <c r="H61" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16344,25 +16368,25 @@
       <c r="A62" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="78">
+      <c r="B62" s="63">
         <v>3.0662819004741877</v>
       </c>
-      <c r="C62" s="78" t="s">
+      <c r="C62" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D62" s="78" t="s">
+      <c r="D62" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E62" s="78">
+      <c r="E62" s="63">
         <v>44.946819305419901</v>
       </c>
-      <c r="F62" s="78">
+      <c r="F62" s="63">
         <v>-93.212028503417997</v>
       </c>
-      <c r="G62" s="78" t="s">
+      <c r="G62" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="H62" s="78">
+      <c r="H62" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16370,25 +16394,25 @@
       <c r="A63" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="78">
+      <c r="B63" s="63">
         <v>3.0625991205305652</v>
       </c>
-      <c r="C63" s="78" t="s">
+      <c r="C63" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="78" t="s">
+      <c r="D63" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E63" s="78">
+      <c r="E63" s="63">
         <v>44.976280212402301</v>
       </c>
-      <c r="F63" s="78">
+      <c r="F63" s="63">
         <v>-93.233963012695298</v>
       </c>
-      <c r="G63" s="78" t="s">
+      <c r="G63" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="H63" s="78">
+      <c r="H63" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16396,25 +16420,25 @@
       <c r="A64" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="78">
+      <c r="B64" s="63">
         <v>3.0421817132413063</v>
       </c>
-      <c r="C64" s="78" t="s">
+      <c r="C64" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D64" s="78" t="s">
+      <c r="D64" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E64" s="78">
+      <c r="E64" s="63">
         <v>44.979030609130902</v>
       </c>
-      <c r="F64" s="78">
+      <c r="F64" s="63">
         <v>-93.264930725097699</v>
       </c>
-      <c r="G64" s="78" t="s">
+      <c r="G64" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="H64" s="78">
+      <c r="H64" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16422,25 +16446,25 @@
       <c r="A65" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="78">
+      <c r="B65" s="63">
         <v>3.0219841041422213</v>
       </c>
-      <c r="C65" s="78" t="s">
+      <c r="C65" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D65" s="78" t="s">
+      <c r="D65" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E65" s="78">
+      <c r="E65" s="63">
         <v>44.971729278564503</v>
       </c>
-      <c r="F65" s="78">
+      <c r="F65" s="63">
         <v>-93.314071655273395</v>
       </c>
-      <c r="G65" s="78" t="s">
+      <c r="G65" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="H65" s="78">
+      <c r="H65" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16448,25 +16472,25 @@
       <c r="A66" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="78">
+      <c r="B66" s="63">
         <v>3.0041033918692857</v>
       </c>
-      <c r="C66" s="78" t="s">
+      <c r="C66" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="78" t="s">
+      <c r="D66" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E66" s="78">
+      <c r="E66" s="63">
         <v>44.921470642089801</v>
       </c>
-      <c r="F66" s="78">
+      <c r="F66" s="63">
         <v>-93.230232238769503</v>
       </c>
-      <c r="G66" s="78" t="s">
+      <c r="G66" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="H66" s="78">
+      <c r="H66" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16474,25 +16498,25 @@
       <c r="A67" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="78">
+      <c r="B67" s="63">
         <v>2.9918263059250059</v>
       </c>
-      <c r="C67" s="78" t="s">
+      <c r="C67" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D67" s="78" t="s">
+      <c r="D67" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E67" s="78">
+      <c r="E67" s="63">
         <v>44.923328399658203</v>
       </c>
-      <c r="F67" s="78">
+      <c r="F67" s="63">
         <v>-93.268257141113295</v>
       </c>
-      <c r="G67" s="78" t="s">
+      <c r="G67" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="H67" s="78">
+      <c r="H67" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16500,25 +16524,25 @@
       <c r="A68" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="B68" s="78">
+      <c r="B68" s="63">
         <v>2.9157192342565907</v>
       </c>
-      <c r="C68" s="78" t="s">
+      <c r="C68" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D68" s="78" t="s">
+      <c r="D68" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E68" s="78">
+      <c r="E68" s="63">
         <v>44.979030609130902</v>
       </c>
-      <c r="F68" s="78">
+      <c r="F68" s="63">
         <v>-93.264930725097699</v>
       </c>
-      <c r="G68" s="78" t="s">
+      <c r="G68" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="H68" s="78">
+      <c r="H68" s="63">
         <v>1</v>
       </c>
     </row>
@@ -16526,25 +16550,25 @@
       <c r="A69" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="78">
+      <c r="B69" s="63">
         <v>2.8388190512746698</v>
       </c>
-      <c r="C69" s="78" t="s">
+      <c r="C69" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D69" s="78" t="s">
+      <c r="D69" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E69" s="78">
+      <c r="E69" s="63">
         <v>44.9358100891113</v>
       </c>
-      <c r="F69" s="78">
+      <c r="F69" s="63">
         <v>-93.217239379882798</v>
       </c>
-      <c r="G69" s="78" t="s">
+      <c r="G69" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="H69" s="78">
+      <c r="H69" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16552,25 +16576,25 @@
       <c r="A70" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="78">
+      <c r="B70" s="63">
         <v>2.8146155141880298</v>
       </c>
-      <c r="C70" s="78" t="s">
+      <c r="C70" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D70" s="78" t="s">
+      <c r="D70" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E70" s="78">
+      <c r="E70" s="63">
         <v>44.912338256835902</v>
       </c>
-      <c r="F70" s="78">
+      <c r="F70" s="63">
         <v>-93.280693054199205</v>
       </c>
-      <c r="G70" s="78" t="s">
+      <c r="G70" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="H70" s="78">
+      <c r="H70" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16578,25 +16602,25 @@
       <c r="A71" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="78">
+      <c r="B71" s="63">
         <v>2.8063152369478672</v>
       </c>
-      <c r="C71" s="78" t="s">
+      <c r="C71" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D71" s="78" t="s">
+      <c r="D71" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E71" s="78">
+      <c r="E71" s="63">
         <v>45.047580718994098</v>
       </c>
-      <c r="F71" s="78">
+      <c r="F71" s="63">
         <v>-93.311218261718807</v>
       </c>
-      <c r="G71" s="78" t="s">
+      <c r="G71" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="H71" s="78">
+      <c r="H71" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16604,25 +16628,25 @@
       <c r="A72" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="78">
+      <c r="B72" s="63">
         <v>2.7713646120418423</v>
       </c>
-      <c r="C72" s="78" t="s">
+      <c r="C72" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D72" s="78" t="s">
+      <c r="D72" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E72" s="78">
+      <c r="E72" s="63">
         <v>44.901660919189503</v>
       </c>
-      <c r="F72" s="78">
+      <c r="F72" s="63">
         <v>-93.236808776855497</v>
       </c>
-      <c r="G72" s="78" t="s">
+      <c r="G72" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="H72" s="78">
+      <c r="H72" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16630,25 +16654,25 @@
       <c r="A73" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B73" s="78">
+      <c r="B73" s="63">
         <v>2.7689181369184594</v>
       </c>
-      <c r="C73" s="78" t="s">
+      <c r="C73" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D73" s="78" t="s">
+      <c r="D73" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E73" s="78">
+      <c r="E73" s="63">
         <v>44.964099884033203</v>
       </c>
-      <c r="F73" s="78">
+      <c r="F73" s="63">
         <v>-93.310470581054702</v>
       </c>
-      <c r="G73" s="78" t="s">
+      <c r="G73" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="H73" s="78">
+      <c r="H73" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16656,25 +16680,25 @@
       <c r="A74" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="78">
+      <c r="B74" s="63">
         <v>2.7483111294411779</v>
       </c>
-      <c r="C74" s="78" t="s">
+      <c r="C74" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D74" s="78" t="s">
+      <c r="D74" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E74" s="78">
+      <c r="E74" s="63">
         <v>44.953731536865199</v>
       </c>
-      <c r="F74" s="78">
+      <c r="F74" s="63">
         <v>-93.267059326171903</v>
       </c>
-      <c r="G74" s="78" t="s">
+      <c r="G74" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="H74" s="78">
+      <c r="H74" s="63">
         <v>1</v>
       </c>
     </row>
@@ -16682,25 +16706,25 @@
       <c r="A75" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="78">
+      <c r="B75" s="63">
         <v>2.5364084868460077</v>
       </c>
-      <c r="C75" s="78" t="s">
+      <c r="C75" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D75" s="78" t="s">
+      <c r="D75" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E75" s="78">
+      <c r="E75" s="63">
         <v>44.928928375244098</v>
       </c>
-      <c r="F75" s="78">
+      <c r="F75" s="63">
         <v>-93.294448852539105</v>
       </c>
-      <c r="G75" s="78" t="s">
+      <c r="G75" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="H75" s="78">
+      <c r="H75" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16708,25 +16732,25 @@
       <c r="A76" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B76" s="78">
+      <c r="B76" s="63">
         <v>2.3765786845093935</v>
       </c>
-      <c r="C76" s="78" t="s">
+      <c r="C76" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D76" s="78" t="s">
+      <c r="D76" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E76" s="78">
+      <c r="E76" s="63">
         <v>45.009578704833999</v>
       </c>
-      <c r="F76" s="78">
+      <c r="F76" s="63">
         <v>-93.239067077636705</v>
       </c>
-      <c r="G76" s="78" t="s">
+      <c r="G76" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="H76" s="78">
+      <c r="H76" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16734,25 +16758,25 @@
       <c r="A77" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B77" s="78">
+      <c r="B77" s="63">
         <v>1.9883686182562121</v>
       </c>
-      <c r="C77" s="78" t="s">
+      <c r="C77" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D77" s="78" t="s">
+      <c r="D77" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E77" s="78">
+      <c r="E77" s="63">
         <v>44.9074897766113</v>
       </c>
-      <c r="F77" s="78">
+      <c r="F77" s="63">
         <v>-93.270713806152301</v>
       </c>
-      <c r="G77" s="78" t="s">
+      <c r="G77" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="H77" s="78">
+      <c r="H77" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16760,25 +16784,25 @@
       <c r="A78" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="78">
+      <c r="B78" s="63">
         <v>1.959095438347604</v>
       </c>
-      <c r="C78" s="78" t="s">
+      <c r="C78" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D78" s="78" t="s">
+      <c r="D78" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E78" s="78">
+      <c r="E78" s="63">
         <v>45.029468536377003</v>
       </c>
-      <c r="F78" s="78">
+      <c r="F78" s="63">
         <v>-93.237449645996094</v>
       </c>
-      <c r="G78" s="78" t="s">
+      <c r="G78" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="H78" s="78">
+      <c r="H78" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16786,25 +16810,25 @@
       <c r="A79" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B79" s="78">
+      <c r="B79" s="63">
         <v>1.910353182368838</v>
       </c>
-      <c r="C79" s="78" t="s">
+      <c r="C79" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D79" s="78" t="s">
+      <c r="D79" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E79" s="78">
+      <c r="E79" s="63">
         <v>44.897918701171903</v>
       </c>
-      <c r="F79" s="78">
+      <c r="F79" s="63">
         <v>-93.259651184082003</v>
       </c>
-      <c r="G79" s="78" t="s">
+      <c r="G79" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="H79" s="78">
+      <c r="H79" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16812,25 +16836,25 @@
       <c r="A80" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B80" s="78">
+      <c r="B80" s="63">
         <v>1.7293797619487217</v>
       </c>
-      <c r="C80" s="78" t="s">
+      <c r="C80" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D80" s="78" t="s">
+      <c r="D80" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E80" s="78">
+      <c r="E80" s="63">
         <v>44.908870697021499</v>
       </c>
-      <c r="F80" s="78">
+      <c r="F80" s="63">
         <v>-93.255630493164105</v>
       </c>
-      <c r="G80" s="78" t="s">
+      <c r="G80" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="H80" s="78">
+      <c r="H80" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16838,25 +16862,25 @@
       <c r="A81" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="78">
+      <c r="B81" s="63">
         <v>1.6122500111544706</v>
       </c>
-      <c r="C81" s="78" t="s">
+      <c r="C81" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D81" s="78" t="s">
+      <c r="D81" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E81" s="78">
+      <c r="E81" s="63">
         <v>44.912448883056598</v>
       </c>
-      <c r="F81" s="78">
+      <c r="F81" s="63">
         <v>-93.318588256835895</v>
       </c>
-      <c r="G81" s="78" t="s">
+      <c r="G81" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="H81" s="78">
+      <c r="H81" s="63">
         <v>1</v>
       </c>
     </row>
@@ -16864,25 +16888,25 @@
       <c r="A82" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B82" s="78">
+      <c r="B82" s="63">
         <v>1.5880330972619394</v>
       </c>
-      <c r="C82" s="78" t="s">
+      <c r="C82" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D82" s="78" t="s">
+      <c r="D82" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E82" s="78">
+      <c r="E82" s="63">
         <v>44.9268989562988</v>
       </c>
-      <c r="F82" s="78">
+      <c r="F82" s="63">
         <v>-93.320770263671903</v>
       </c>
-      <c r="G82" s="78" t="s">
+      <c r="G82" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="H82" s="78">
+      <c r="H82" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16890,25 +16914,25 @@
       <c r="A83" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B83" s="78">
+      <c r="B83" s="63">
         <v>1.5461381685290605</v>
       </c>
-      <c r="C83" s="78" t="s">
+      <c r="C83" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D83" s="78" t="s">
+      <c r="D83" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E83" s="78">
+      <c r="E83" s="63">
         <v>44.9120903015137</v>
       </c>
-      <c r="F83" s="78">
+      <c r="F83" s="63">
         <v>-93.2979736328125</v>
       </c>
-      <c r="G83" s="78" t="s">
+      <c r="G83" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="H83" s="78">
+      <c r="H83" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16916,25 +16940,25 @@
       <c r="A84" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="78">
+      <c r="B84" s="63">
         <v>1.4014306779268575</v>
       </c>
-      <c r="C84" s="78" t="s">
+      <c r="C84" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D84" s="78" t="s">
+      <c r="D84" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E84" s="78">
+      <c r="E84" s="63">
         <v>44.897941589355497</v>
       </c>
-      <c r="F84" s="78">
+      <c r="F84" s="63">
         <v>-93.311828613281307</v>
       </c>
-      <c r="G84" s="78" t="s">
+      <c r="G84" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="H84" s="78">
+      <c r="H84" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16942,25 +16966,25 @@
       <c r="A85" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="78">
+      <c r="B85" s="63">
         <v>1.3274979318979587</v>
       </c>
-      <c r="C85" s="78" t="s">
+      <c r="C85" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D85" s="78" t="s">
+      <c r="D85" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E85" s="78">
+      <c r="E85" s="63">
         <v>44.899669647216797</v>
       </c>
-      <c r="F85" s="78">
+      <c r="F85" s="63">
         <v>-93.296043395996094</v>
       </c>
-      <c r="G85" s="78" t="s">
+      <c r="G85" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="H85" s="78">
+      <c r="H85" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16968,25 +16992,25 @@
       <c r="A86" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B86" s="78">
+      <c r="B86" s="63">
         <v>1.235052542577606</v>
       </c>
-      <c r="C86" s="78" t="s">
+      <c r="C86" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D86" s="78" t="s">
+      <c r="D86" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E86" s="78">
+      <c r="E86" s="63">
         <v>44.901748657226598</v>
       </c>
-      <c r="F86" s="78">
+      <c r="F86" s="63">
         <v>-93.214630126953097</v>
       </c>
-      <c r="G86" s="78" t="s">
+      <c r="G86" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="H86" s="78">
+      <c r="H86" s="63">
         <v>0</v>
       </c>
     </row>
@@ -16994,25 +17018,25 @@
       <c r="A87" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B87" s="78">
+      <c r="B87" s="63">
         <v>0</v>
       </c>
-      <c r="C87" s="78" t="s">
+      <c r="C87" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D87" s="78" t="s">
+      <c r="D87" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E87" s="78">
+      <c r="E87" s="63">
         <v>44.9950981140137</v>
       </c>
-      <c r="F87" s="78">
+      <c r="F87" s="63">
         <v>-93.222190856933594</v>
       </c>
-      <c r="G87" s="78" t="s">
+      <c r="G87" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="H87" s="78">
+      <c r="H87" s="63">
         <v>0</v>
       </c>
     </row>
@@ -17020,25 +17044,25 @@
       <c r="A88" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B88" s="78">
+      <c r="B88" s="63">
         <v>0</v>
       </c>
-      <c r="C88" s="78" t="s">
+      <c r="C88" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D88" s="78" t="s">
+      <c r="D88" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E88" s="78">
+      <c r="E88" s="63">
         <v>45.040271759033203</v>
       </c>
-      <c r="F88" s="78">
+      <c r="F88" s="63">
         <v>-93.299972534179702</v>
       </c>
-      <c r="G88" s="78" t="s">
+      <c r="G88" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="H88" s="78">
+      <c r="H88" s="63">
         <v>0</v>
       </c>
     </row>
@@ -17046,25 +17070,25 @@
       <c r="A89" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="78">
+      <c r="B89" s="63">
         <v>0</v>
       </c>
-      <c r="C89" s="78" t="s">
+      <c r="C89" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D89" s="78" t="s">
+      <c r="D89" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E89" s="78">
+      <c r="E89" s="63">
         <v>45.037620544433601</v>
       </c>
-      <c r="F89" s="78">
+      <c r="F89" s="63">
         <v>-93.285049438476605</v>
       </c>
-      <c r="G89" s="78" t="s">
+      <c r="G89" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="H89" s="78">
+      <c r="H89" s="63">
         <v>0</v>
       </c>
     </row>
@@ -20399,91 +20423,91 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>643</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="67" t="s">
         <v>644</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="69"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="70" t="s">
         <v>645</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:12" ht="16" thickBot="1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="70" t="s">
         <v>646</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="67"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="72"/>
     </row>
     <row r="5" spans="1:12" ht="22" thickBot="1">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="73" t="s">
         <v>647</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="75" t="s">
         <v>648</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78" t="s">
         <v>649</v>
       </c>
-      <c r="K5" s="71"/>
-      <c r="L5" s="72"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
     </row>
     <row r="6" spans="1:12" ht="50" thickBot="1">
-      <c r="A6" s="69"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="34" t="s">
         <v>650</v>
       </c>
@@ -23883,6 +23907,134 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="79" t="s">
+        <v>700</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>685</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>701</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="B2" s="80">
+        <v>0.6</v>
+      </c>
+      <c r="C2" s="80">
+        <v>0.17</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="B3" s="80">
+        <v>0.19</v>
+      </c>
+      <c r="C3" s="80">
+        <v>0.62</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="B4" s="80">
+        <v>0.06</v>
+      </c>
+      <c r="C4" s="80">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="B5" s="80">
+        <v>0.02</v>
+      </c>
+      <c r="C5" s="80">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="B6" s="80">
+        <v>0.11</v>
+      </c>
+      <c r="C6" s="80">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23892,57 +24044,57 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="59" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="59" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="59" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="59" t="s">
         <v>504</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="60" t="s">
         <v>687</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="59" t="s">
         <v>505</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="59" t="s">
         <v>506</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="59" t="s">
         <v>688</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="59" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="61" t="s">
         <v>485</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="61" t="s">
         <v>486</v>
       </c>
-      <c r="C2" s="77">
+      <c r="C2" s="62">
         <v>36660</v>
       </c>
-      <c r="D2" s="76">
+      <c r="D2" s="61">
         <v>2000</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="F2" s="76">
+      <c r="F2" s="61">
         <v>34</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="H2" s="75">
+      <c r="H2" s="60">
         <v>30</v>
       </c>
       <c r="I2" t="s">
@@ -23950,28 +24102,28 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="61" t="s">
         <v>475</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="61" t="s">
         <v>476</v>
       </c>
-      <c r="C3" s="77">
+      <c r="C3" s="62">
         <v>36689</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="61">
         <v>2000</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="76">
+      <c r="F3" s="61">
         <v>49</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="H3" s="75">
+      <c r="H3" s="60">
         <v>30</v>
       </c>
       <c r="I3" t="s">
@@ -23979,28 +24131,28 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="61" t="s">
         <v>466</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="62">
         <v>36831</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="61">
         <v>2000</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="F4" s="76">
+      <c r="F4" s="61">
         <v>29</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H4" s="75">
+      <c r="H4" s="60">
         <v>30</v>
       </c>
       <c r="I4" t="s">
@@ -24008,28 +24160,28 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="61" t="s">
         <v>459</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="61" t="s">
         <v>460</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="62">
         <v>36983</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="61">
         <v>2001</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="61">
         <v>27</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="60">
         <v>30</v>
       </c>
       <c r="I5" t="s">
@@ -24037,28 +24189,28 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="61" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="62">
         <v>37012</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="61">
         <v>2001</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="61">
         <v>21</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="60">
         <v>10</v>
       </c>
       <c r="I6" t="s">
@@ -24066,28 +24218,28 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="61" t="s">
         <v>442</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="61" t="s">
         <v>443</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="62">
         <v>37101</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="61">
         <v>2001</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="61">
         <v>15</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H7" s="75">
+      <c r="H7" s="60">
         <v>30</v>
       </c>
       <c r="I7" t="s">
@@ -24095,28 +24247,28 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="61" t="s">
         <v>432</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="61" t="s">
         <v>433</v>
       </c>
-      <c r="C8" s="77">
+      <c r="C8" s="62">
         <v>37325</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="61">
         <v>2002</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="61">
         <v>28</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H8" s="75">
+      <c r="H8" s="60">
         <v>30</v>
       </c>
       <c r="I8" t="s">
@@ -24124,28 +24276,28 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="61" t="s">
         <v>422</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="61" t="s">
         <v>423</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="62">
         <v>37469</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="61">
         <v>2002</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="61">
         <v>60</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="60">
         <v>30</v>
       </c>
       <c r="I9" t="s">
@@ -24153,28 +24305,28 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="61" t="s">
         <v>409</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="61" t="s">
         <v>410</v>
       </c>
-      <c r="C10" s="77">
+      <c r="C10" s="62">
         <v>37561</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="61">
         <v>2002</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="61">
         <v>44</v>
       </c>
-      <c r="G10" s="76" t="s">
+      <c r="G10" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="60">
         <v>10</v>
       </c>
       <c r="I10" t="s">
@@ -24182,28 +24334,28 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="61" t="s">
         <v>397</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="61" t="s">
         <v>398</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="62">
         <v>37748</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="61">
         <v>2003</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="61">
         <v>31</v>
       </c>
-      <c r="G11" s="76" t="s">
+      <c r="G11" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="60">
         <v>30</v>
       </c>
       <c r="I11" t="s">
@@ -24211,28 +24363,28 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="61" t="s">
         <v>353</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="61" t="s">
         <v>389</v>
       </c>
-      <c r="C12" s="77">
+      <c r="C12" s="62">
         <v>37861</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="61">
         <v>2003</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="61">
         <v>28</v>
       </c>
-      <c r="G12" s="76" t="s">
+      <c r="G12" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="60">
         <v>10</v>
       </c>
       <c r="I12" t="s">
@@ -24240,28 +24392,28 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="61" t="s">
         <v>380</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="61" t="s">
         <v>381</v>
       </c>
-      <c r="C13" s="77">
+      <c r="C13" s="62">
         <v>37904</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="61">
         <v>2003</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="61">
         <v>21</v>
       </c>
-      <c r="G13" s="76" t="s">
+      <c r="G13" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="60">
         <v>30</v>
       </c>
       <c r="I13" t="s">
@@ -24269,28 +24421,28 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="C14" s="77">
+      <c r="C14" s="62">
         <v>38028</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="61">
         <v>2004</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="61">
         <v>40</v>
       </c>
-      <c r="G14" s="76" t="s">
+      <c r="G14" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="75">
+      <c r="H14" s="60">
         <v>10</v>
       </c>
       <c r="I14" t="s">
@@ -24298,28 +24450,28 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="61" t="s">
         <v>364</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="61" t="s">
         <v>365</v>
       </c>
-      <c r="C15" s="77">
+      <c r="C15" s="62">
         <v>38133</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="61">
         <v>2004</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="F15" s="76">
+      <c r="F15" s="61">
         <v>28</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H15" s="75">
+      <c r="H15" s="60">
         <v>10</v>
       </c>
       <c r="I15" t="s">
@@ -24327,28 +24479,28 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="61" t="s">
         <v>353</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="61" t="s">
         <v>354</v>
       </c>
-      <c r="C16" s="77">
+      <c r="C16" s="62">
         <v>38284</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="61">
         <v>2004</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="61">
         <v>15</v>
       </c>
-      <c r="G16" s="76" t="s">
+      <c r="G16" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H16" s="75">
+      <c r="H16" s="60">
         <v>30</v>
       </c>
       <c r="I16" t="s">
@@ -24356,28 +24508,28 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="61" t="s">
         <v>344</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="61" t="s">
         <v>345</v>
       </c>
-      <c r="C17" s="77">
+      <c r="C17" s="62">
         <v>38374</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="61">
         <v>2005</v>
       </c>
-      <c r="E17" s="76" t="s">
+      <c r="E17" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="61">
         <v>21</v>
       </c>
-      <c r="G17" s="76" t="s">
+      <c r="G17" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="H17" s="75">
+      <c r="H17" s="60">
         <v>30</v>
       </c>
       <c r="I17" t="s">
@@ -24385,28 +24537,28 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="61" t="s">
         <v>336</v>
       </c>
-      <c r="C18" s="77">
+      <c r="C18" s="62">
         <v>38565</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="61">
         <v>2005</v>
       </c>
-      <c r="E18" s="76" t="s">
+      <c r="E18" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="F18" s="76">
+      <c r="F18" s="61">
         <v>47</v>
       </c>
-      <c r="G18" s="76" t="s">
+      <c r="G18" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="H18" s="75">
+      <c r="H18" s="60">
         <v>30</v>
       </c>
       <c r="I18" t="s">
@@ -24414,28 +24566,28 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="61" t="s">
         <v>328</v>
       </c>
-      <c r="C19" s="77">
+      <c r="C19" s="62">
         <v>38920</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="61">
         <v>2006</v>
       </c>
-      <c r="E19" s="76" t="s">
+      <c r="E19" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="F19" s="76">
+      <c r="F19" s="61">
         <v>19</v>
       </c>
-      <c r="G19" s="76" t="s">
+      <c r="G19" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="60">
         <v>30</v>
       </c>
       <c r="I19" t="s">
@@ -24443,28 +24595,28 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="61" t="s">
         <v>317</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="C20" s="77">
+      <c r="C20" s="62">
         <v>38980</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="61">
         <v>2006</v>
       </c>
-      <c r="E20" s="76" t="s">
+      <c r="E20" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="61">
         <v>27</v>
       </c>
-      <c r="G20" s="76" t="s">
+      <c r="G20" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H20" s="75">
+      <c r="H20" s="60">
         <v>10</v>
       </c>
       <c r="I20" t="s">
@@ -24472,28 +24624,28 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="C21" s="77">
+      <c r="C21" s="62">
         <v>39019</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="61">
         <v>2006</v>
       </c>
-      <c r="E21" s="76" t="s">
+      <c r="E21" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="61">
         <v>42</v>
       </c>
-      <c r="G21" s="76" t="s">
+      <c r="G21" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="H21" s="75">
+      <c r="H21" s="60">
         <v>30</v>
       </c>
       <c r="I21" t="s">
@@ -24501,28 +24653,28 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="C22" s="77">
+      <c r="C22" s="62">
         <v>39539</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="61">
         <v>2008</v>
       </c>
-      <c r="E22" s="76" t="s">
+      <c r="E22" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="F22" s="76">
+      <c r="F22" s="61">
         <v>39</v>
       </c>
-      <c r="G22" s="76" t="s">
+      <c r="G22" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="75">
+      <c r="H22" s="60">
         <v>10</v>
       </c>
       <c r="I22" t="s">
@@ -24530,28 +24682,28 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="C23" s="77">
+      <c r="C23" s="62">
         <v>39791</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="61">
         <v>2008</v>
       </c>
-      <c r="E23" s="76" t="s">
+      <c r="E23" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="61">
         <v>24</v>
       </c>
-      <c r="G23" s="76" t="s">
+      <c r="G23" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H23" s="75">
+      <c r="H23" s="60">
         <v>30</v>
       </c>
       <c r="I23" t="s">
@@ -24559,28 +24711,28 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="C24" s="77">
+      <c r="C24" s="62">
         <v>39849</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="61">
         <v>2009</v>
       </c>
-      <c r="E24" s="76" t="s">
+      <c r="E24" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="F24" s="76">
+      <c r="F24" s="61">
         <v>23</v>
       </c>
-      <c r="G24" s="76" t="s">
+      <c r="G24" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="H24" s="75">
+      <c r="H24" s="60">
         <v>30</v>
       </c>
       <c r="I24" t="s">
@@ -24588,28 +24740,28 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="C25" s="77">
+      <c r="C25" s="62">
         <v>40438</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="61">
         <v>2010</v>
       </c>
-      <c r="E25" s="76" t="s">
+      <c r="E25" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="F25" s="76">
+      <c r="F25" s="61">
         <v>28</v>
       </c>
-      <c r="G25" s="76" t="s">
+      <c r="G25" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H25" s="75">
+      <c r="H25" s="60">
         <v>10</v>
       </c>
       <c r="I25" t="s">
@@ -24617,28 +24769,28 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="C26" s="77">
+      <c r="C26" s="62">
         <v>41041</v>
       </c>
-      <c r="D26" s="76">
+      <c r="D26" s="61">
         <v>2012</v>
       </c>
-      <c r="E26" s="76" t="s">
+      <c r="E26" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="F26" s="76">
+      <c r="F26" s="61">
         <v>40</v>
       </c>
-      <c r="G26" s="76" t="s">
+      <c r="G26" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H26" s="75">
+      <c r="H26" s="60">
         <v>30</v>
       </c>
       <c r="I26" t="s">
@@ -24646,28 +24798,28 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="C27" s="77">
+      <c r="C27" s="62">
         <v>41404</v>
       </c>
-      <c r="D27" s="76">
+      <c r="D27" s="61">
         <v>2013</v>
       </c>
-      <c r="E27" s="76" t="s">
+      <c r="E27" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="F27" s="76">
+      <c r="F27" s="61">
         <v>22</v>
       </c>
-      <c r="G27" s="76" t="s">
+      <c r="G27" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H27" s="75">
+      <c r="H27" s="60">
         <v>30</v>
       </c>
       <c r="I27" t="s">
@@ -24675,28 +24827,28 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="77">
+      <c r="C28" s="62">
         <v>42324</v>
       </c>
-      <c r="D28" s="76">
+      <c r="D28" s="61">
         <v>2015</v>
       </c>
-      <c r="E28" s="76" t="s">
+      <c r="E28" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="76">
+      <c r="F28" s="61">
         <v>24</v>
       </c>
-      <c r="G28" s="76" t="s">
+      <c r="G28" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="75">
+      <c r="H28" s="60">
         <v>10</v>
       </c>
       <c r="I28" t="s">
@@ -24704,28 +24856,28 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="77">
+      <c r="C29" s="62">
         <v>42464</v>
       </c>
-      <c r="D29" s="76">
+      <c r="D29" s="61">
         <v>2016</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E29" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="61">
         <v>50</v>
       </c>
-      <c r="G29" s="76" t="s">
+      <c r="G29" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="H29" s="75">
+      <c r="H29" s="60">
         <v>30</v>
       </c>
       <c r="I29" t="s">
@@ -24733,28 +24885,28 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="C30" s="77">
+      <c r="C30" s="62">
         <v>42931</v>
       </c>
-      <c r="D30" s="76">
+      <c r="D30" s="61">
         <v>2017</v>
       </c>
-      <c r="E30" s="76" t="s">
+      <c r="E30" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="76">
+      <c r="F30" s="61">
         <v>40</v>
       </c>
-      <c r="G30" s="76" t="s">
+      <c r="G30" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="75">
+      <c r="H30" s="60">
         <v>10</v>
       </c>
       <c r="I30" t="s">
@@ -24775,7 +24927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>

--- a/builds/production/data/maindata.xlsx
+++ b/builds/production/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6200" yWindow="0" windowWidth="24660" windowHeight="18280" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="6200" yWindow="0" windowWidth="24660" windowHeight="18280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="incidents" sheetId="1" r:id="rId1"/>
@@ -2614,7 +2614,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="541">
+  <cellStyleXfs count="543">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -2880,6 +2880,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3298,6 +3300,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3343,10 +3347,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="541">
+  <cellStyles count="543">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -3616,6 +3618,7 @@
     <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -3884,6 +3887,7 @@
     <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 3" xfId="2"/>
@@ -11132,8 +11136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO30"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AJ17" sqref="AJ17:AJ25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11265,40 +11269,40 @@
     </row>
     <row r="2" spans="1:41" s="19" customFormat="1">
       <c r="A2" s="13">
-        <v>44.991782999999998</v>
+        <v>44.937156000000002</v>
       </c>
       <c r="B2" s="13">
-        <v>-93.300972000000002</v>
+        <v>-93.273123999999996</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>221</v>
+        <v>485</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>222</v>
+        <v>486</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="F2" s="15">
-        <v>33361</v>
+        <v>487</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>488</v>
       </c>
       <c r="G2" s="15">
-        <v>42324</v>
+        <v>36660</v>
       </c>
       <c r="H2" s="13">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="J2" s="13">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>220</v>
+        <v>484</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>183</v>
@@ -11306,39 +11310,37 @@
       <c r="N2" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>184</v>
-      </c>
+      <c r="O2" s="11"/>
       <c r="P2" s="11" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="Q2" s="20"/>
-      <c r="R2" s="15">
-        <v>33361</v>
+      <c r="R2" s="15" t="s">
+        <v>488</v>
       </c>
       <c r="S2" s="15">
-        <v>42324</v>
+        <v>36660</v>
       </c>
       <c r="T2" s="13">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="U2" s="13">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>209</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>225</v>
+        <v>489</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="AA2" s="11" t="s">
         <v>193</v>
@@ -11347,16 +11349,16 @@
         <v>211</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="AD2" s="15">
-        <v>42323</v>
+        <v>36660</v>
       </c>
       <c r="AE2" s="11" t="s">
-        <v>227</v>
+        <v>490</v>
       </c>
       <c r="AF2" s="11" t="s">
-        <v>228</v>
+        <v>491</v>
       </c>
       <c r="AG2" s="11" t="s">
         <v>192</v>
@@ -11365,22 +11367,22 @@
         <v>195</v>
       </c>
       <c r="AI2" s="11" t="s">
-        <v>196</v>
+        <v>276</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="AK2" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL2" s="11" t="s">
-        <v>229</v>
+        <v>492</v>
       </c>
       <c r="AM2" s="18" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="AN2" s="11" t="s">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="AO2" s="18" t="s">
         <v>219</v>
@@ -11388,75 +11390,75 @@
     </row>
     <row r="3" spans="1:41" s="19" customFormat="1">
       <c r="A3" s="13">
-        <v>44.975864000000001</v>
+        <v>44.946407000000001</v>
       </c>
       <c r="B3" s="13">
-        <v>-93.275512699999993</v>
+        <v>-93.298675500000002</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>256</v>
+        <v>475</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>257</v>
+        <v>476</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="F3" s="15">
-        <v>30012</v>
+        <v>477</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>478</v>
       </c>
       <c r="G3" s="15">
-        <v>40438</v>
+        <v>36689</v>
       </c>
       <c r="H3" s="13">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J3" s="13">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>254</v>
+        <v>474</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>202</v>
       </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="Q3" s="20"/>
-      <c r="R3" s="15">
-        <v>30012</v>
+      <c r="R3" s="15" t="s">
+        <v>478</v>
       </c>
       <c r="S3" s="15">
-        <v>40438</v>
+        <v>36689</v>
       </c>
       <c r="T3" s="13">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="U3" s="13">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="W3" s="11" t="s">
         <v>237</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>259</v>
+        <v>479</v>
       </c>
       <c r="Z3" s="11" t="s">
         <v>192</v>
@@ -11468,16 +11470,16 @@
         <v>211</v>
       </c>
       <c r="AC3" s="11" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="AD3" s="15">
-        <v>40430</v>
+        <v>36689</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>261</v>
+        <v>480</v>
       </c>
       <c r="AF3" s="11" t="s">
-        <v>262</v>
+        <v>481</v>
       </c>
       <c r="AG3" s="11" t="s">
         <v>192</v>
@@ -11486,22 +11488,22 @@
         <v>195</v>
       </c>
       <c r="AI3" s="11" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AK3" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL3" s="11" t="s">
-        <v>263</v>
+        <v>482</v>
       </c>
       <c r="AM3" s="21" t="s">
-        <v>264</v>
+        <v>483</v>
       </c>
       <c r="AN3" s="11" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="AO3" s="18" t="s">
         <v>266</v>
@@ -11509,61 +11511,63 @@
     </row>
     <row r="4" spans="1:41" s="19" customFormat="1">
       <c r="A4" s="13">
-        <v>44.975262000000001</v>
+        <v>44.947066999999997</v>
       </c>
       <c r="B4" s="13">
-        <v>-93.279055499999998</v>
+        <v>-93.255409200000003</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>294</v>
+        <v>466</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>295</v>
+        <v>467</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>297</v>
+        <v>468</v>
+      </c>
+      <c r="F4" s="15">
+        <v>25916</v>
       </c>
       <c r="G4" s="15">
-        <v>39539</v>
+        <v>36831</v>
       </c>
       <c r="H4" s="13">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="J4" s="13">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>224</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>292</v>
+        <v>465</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>293</v>
+        <v>183</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="15" t="s">
-        <v>297</v>
+      <c r="O4" s="12"/>
+      <c r="P4" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="15">
+        <v>25916</v>
       </c>
       <c r="S4" s="15">
-        <v>39539</v>
+        <v>36831</v>
       </c>
       <c r="T4" s="13">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="U4" s="13">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="V4" s="11" t="s">
         <v>224</v>
@@ -11575,7 +11579,7 @@
         <v>209</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>298</v>
+        <v>469</v>
       </c>
       <c r="Z4" s="11" t="s">
         <v>192</v>
@@ -11584,19 +11588,19 @@
         <v>193</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="AC4" s="11" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="AD4" s="15">
-        <v>39536</v>
+        <v>36831</v>
       </c>
       <c r="AE4" s="11" t="s">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="AF4" s="11" t="s">
-        <v>302</v>
+        <v>471</v>
       </c>
       <c r="AG4" s="11" t="s">
         <v>192</v>
@@ -11605,54 +11609,54 @@
         <v>195</v>
       </c>
       <c r="AI4" s="11" t="s">
-        <v>196</v>
+        <v>276</v>
       </c>
       <c r="AJ4" s="11" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="AK4" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL4" s="11" t="s">
-        <v>303</v>
+        <v>472</v>
       </c>
       <c r="AM4" s="21" t="s">
-        <v>252</v>
+        <v>473</v>
       </c>
       <c r="AN4" s="11" t="s">
         <v>304</v>
       </c>
       <c r="AO4" s="18" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:41" s="19" customFormat="1">
       <c r="A5" s="13">
-        <v>44.930529999999997</v>
+        <v>44.919842000000003</v>
       </c>
       <c r="B5" s="13">
-        <v>-93.252370200000001</v>
+        <v>-93.278343199999995</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>317</v>
+        <v>459</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>318</v>
+        <v>460</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>319</v>
+        <v>461</v>
       </c>
       <c r="F5" s="15">
-        <v>28991</v>
+        <v>27056</v>
       </c>
       <c r="G5" s="15">
-        <v>38980</v>
+        <v>36983</v>
       </c>
       <c r="H5" s="13">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="J5" s="13">
         <v>27</v>
@@ -11661,27 +11665,27 @@
         <v>224</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>316</v>
+        <v>458</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12" t="s">
-        <v>246</v>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11" t="s">
+        <v>233</v>
       </c>
       <c r="Q5" s="20"/>
       <c r="R5" s="15">
-        <v>28991</v>
+        <v>27056</v>
       </c>
       <c r="S5" s="15">
-        <v>38980</v>
+        <v>36983</v>
       </c>
       <c r="T5" s="13">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="U5" s="13">
         <v>27</v>
@@ -11690,13 +11694,13 @@
         <v>224</v>
       </c>
       <c r="W5" s="11" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>209</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="Z5" s="11" t="s">
         <v>192</v>
@@ -11710,14 +11714,14 @@
       <c r="AC5" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="AD5" s="22">
-        <v>38980</v>
+      <c r="AD5" s="15">
+        <v>36983</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>321</v>
+        <v>462</v>
       </c>
       <c r="AF5" s="11" t="s">
-        <v>322</v>
+        <v>463</v>
       </c>
       <c r="AG5" s="11" t="s">
         <v>192</v>
@@ -11726,98 +11730,96 @@
         <v>195</v>
       </c>
       <c r="AI5" s="11" t="s">
-        <v>196</v>
+        <v>313</v>
       </c>
       <c r="AJ5" s="11" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="AK5" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL5" s="11" t="s">
-        <v>323</v>
+        <v>464</v>
       </c>
       <c r="AM5" s="18" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="AN5" s="11" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="AO5" s="18" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:41" s="19" customFormat="1">
       <c r="A6" s="13">
-        <v>44.958854000000002</v>
+        <v>44.934142000000001</v>
       </c>
       <c r="B6" s="13">
-        <v>-93.285842000000002</v>
+        <v>-93.272708399999999</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>364</v>
+        <v>452</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>366</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="E6" s="15"/>
       <c r="F6" s="15">
-        <v>27806</v>
+        <v>29125</v>
       </c>
       <c r="G6" s="15">
-        <v>38133</v>
+        <v>37012</v>
       </c>
       <c r="H6" s="13">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>196</v>
       </c>
       <c r="J6" s="13">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>363</v>
+        <v>451</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>293</v>
+        <v>183</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>202</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="Q6" s="20"/>
       <c r="R6" s="15">
-        <v>27806</v>
+        <v>29125</v>
       </c>
       <c r="S6" s="15">
-        <v>38133</v>
+        <v>37012</v>
       </c>
       <c r="T6" s="13">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="U6" s="13">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>209</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>298</v>
+        <v>454</v>
       </c>
       <c r="Z6" s="11" t="s">
         <v>192</v>
@@ -11826,19 +11828,19 @@
         <v>193</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="AC6" s="11" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="AD6" s="15">
-        <v>38133</v>
+        <v>37009</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>286</v>
+        <v>455</v>
       </c>
       <c r="AF6" s="11" t="s">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="AG6" s="11" t="s">
         <v>192</v>
@@ -11856,9 +11858,9 @@
         <v>197</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="AM6" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="AM6" s="21" t="s">
         <v>252</v>
       </c>
       <c r="AN6" s="11" t="s">
@@ -11870,43 +11872,43 @@
     </row>
     <row r="7" spans="1:41" s="19" customFormat="1">
       <c r="A7" s="13">
-        <v>44.979942000000001</v>
+        <v>45.022320000000001</v>
       </c>
       <c r="B7" s="13">
-        <v>-93.307952900000004</v>
+        <v>-93.296493499999997</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>353</v>
+        <v>442</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="F7" s="15">
-        <v>27359</v>
+        <v>31286</v>
       </c>
       <c r="G7" s="15">
-        <v>37861</v>
+        <v>37101</v>
       </c>
       <c r="H7" s="13">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="J7" s="13">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>224</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>293</v>
+        <v>183</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>202</v>
@@ -11915,18 +11917,18 @@
       <c r="P7" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="Q7" s="11"/>
+      <c r="Q7" s="20"/>
       <c r="R7" s="15">
-        <v>27359</v>
+        <v>31286</v>
       </c>
       <c r="S7" s="15">
-        <v>37861</v>
+        <v>37101</v>
       </c>
       <c r="T7" s="13">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="U7" s="13">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="V7" s="11" t="s">
         <v>224</v>
@@ -11938,26 +11940,28 @@
         <v>209</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>391</v>
+        <v>238</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA7" s="11"/>
+        <v>192</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>193</v>
+      </c>
       <c r="AB7" s="11" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="AC7" s="11" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="AD7" s="15">
-        <v>37861</v>
+        <v>37101</v>
       </c>
       <c r="AE7" s="11" t="s">
         <v>286</v>
       </c>
       <c r="AF7" s="11" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="AG7" s="11" t="s">
         <v>192</v>
@@ -11966,22 +11970,22 @@
         <v>195</v>
       </c>
       <c r="AI7" s="11" t="s">
-        <v>196</v>
+        <v>447</v>
       </c>
       <c r="AJ7" s="11" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="AK7" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL7" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="AM7" s="17" t="s">
-        <v>395</v>
+        <v>448</v>
+      </c>
+      <c r="AM7" s="21" t="s">
+        <v>449</v>
       </c>
       <c r="AN7" s="11" t="s">
-        <v>304</v>
+        <v>450</v>
       </c>
       <c r="AO7" s="18" t="s">
         <v>219</v>
@@ -11989,63 +11993,63 @@
     </row>
     <row r="8" spans="1:41" s="19" customFormat="1">
       <c r="A8" s="13">
-        <v>44.959873000000002</v>
+        <v>44.963639000000001</v>
       </c>
       <c r="B8" s="13">
-        <v>-93.262123099999997</v>
+        <v>-93.262613599999995</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>412</v>
+        <v>434</v>
+      </c>
+      <c r="F8" s="15">
+        <v>27030</v>
       </c>
       <c r="G8" s="15">
-        <v>37561</v>
+        <v>37325</v>
       </c>
       <c r="H8" s="13">
         <v>2002</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J8" s="13">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>224</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>293</v>
+        <v>183</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="O8" s="11"/>
+      <c r="O8" s="12"/>
       <c r="P8" s="11" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="20"/>
-      <c r="R8" s="15" t="s">
-        <v>412</v>
+      <c r="R8" s="15">
+        <v>27030</v>
       </c>
       <c r="S8" s="15">
-        <v>37561</v>
+        <v>37325</v>
       </c>
       <c r="T8" s="13">
         <v>2002</v>
       </c>
       <c r="U8" s="13">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="V8" s="11" t="s">
         <v>224</v>
@@ -12057,28 +12061,28 @@
         <v>209</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>414</v>
+        <v>192</v>
       </c>
       <c r="AA8" s="11" t="s">
-        <v>415</v>
+        <v>193</v>
       </c>
       <c r="AB8" s="11" t="s">
         <v>211</v>
       </c>
       <c r="AC8" s="11" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="AD8" s="15">
-        <v>37561</v>
+        <v>37325</v>
       </c>
       <c r="AE8" s="11" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="AF8" s="11" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="AG8" s="11" t="s">
         <v>192</v>
@@ -12087,61 +12091,63 @@
         <v>195</v>
       </c>
       <c r="AI8" s="11" t="s">
-        <v>196</v>
+        <v>438</v>
       </c>
       <c r="AJ8" s="11" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AK8" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL8" s="11" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="AM8" s="18" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="AN8" s="11" t="s">
         <v>304</v>
       </c>
       <c r="AO8" s="18" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:41" s="19" customFormat="1">
       <c r="A9" s="13">
-        <v>44.934142000000001</v>
+        <v>44.946536999999999</v>
       </c>
       <c r="B9" s="13">
-        <v>-93.272708399999999</v>
+        <v>-93.280077399999996</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15">
-        <v>29125</v>
+        <v>423</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>425</v>
       </c>
       <c r="G9" s="15">
-        <v>37012</v>
+        <v>37469</v>
       </c>
       <c r="H9" s="13">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="J9" s="13">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>183</v>
@@ -12149,37 +12155,39 @@
       <c r="N9" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="O9" s="11"/>
+      <c r="O9" s="11" t="s">
+        <v>421</v>
+      </c>
       <c r="P9" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="15">
-        <v>29125</v>
+        <v>421</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="15" t="s">
+        <v>425</v>
       </c>
       <c r="S9" s="15">
-        <v>37012</v>
+        <v>37469</v>
       </c>
       <c r="T9" s="13">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="U9" s="13">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>454</v>
+        <v>339</v>
       </c>
       <c r="Z9" s="11" t="s">
-        <v>192</v>
+        <v>426</v>
       </c>
       <c r="AA9" s="11" t="s">
         <v>193</v>
@@ -12188,16 +12196,16 @@
         <v>211</v>
       </c>
       <c r="AC9" s="11" t="s">
-        <v>348</v>
+        <v>427</v>
       </c>
       <c r="AD9" s="15">
-        <v>37009</v>
+        <v>37469</v>
       </c>
       <c r="AE9" s="11" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="AF9" s="11" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="AG9" s="11" t="s">
         <v>192</v>
@@ -12206,110 +12214,120 @@
         <v>195</v>
       </c>
       <c r="AI9" s="11" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="AJ9" s="11" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="AK9" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL9" s="11" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="AM9" s="21" t="s">
-        <v>252</v>
+        <v>430</v>
       </c>
       <c r="AN9" s="11" t="s">
         <v>304</v>
       </c>
       <c r="AO9" s="18" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:41" s="19" customFormat="1">
       <c r="A10" s="13">
-        <v>44.910629999999998</v>
+        <v>44.959873000000002</v>
       </c>
       <c r="B10" s="13">
-        <v>-93.318219999999997</v>
+        <v>-93.262123099999997</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>185</v>
+        <v>409</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="15"/>
+        <v>410</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>412</v>
+      </c>
       <c r="G10" s="15">
-        <v>42931</v>
+        <v>37561</v>
       </c>
       <c r="H10" s="13">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>196</v>
       </c>
       <c r="J10" s="13">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>182</v>
+        <v>408</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="15"/>
+        <v>293</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="15" t="s">
+        <v>412</v>
+      </c>
       <c r="S10" s="15">
-        <v>42931</v>
+        <v>37561</v>
       </c>
       <c r="T10" s="13">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="U10" s="13">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="W10" s="11" t="s">
         <v>189</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>191</v>
+        <v>413</v>
       </c>
       <c r="Z10" s="11" t="s">
-        <v>192</v>
+        <v>414</v>
       </c>
       <c r="AA10" s="11" t="s">
-        <v>193</v>
+        <v>415</v>
       </c>
       <c r="AB10" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC10" s="11"/>
+        <v>211</v>
+      </c>
+      <c r="AC10" s="11" t="s">
+        <v>416</v>
+      </c>
       <c r="AD10" s="15">
-        <v>42931</v>
-      </c>
-      <c r="AE10" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="AF10" s="16"/>
+        <v>37561</v>
+      </c>
+      <c r="AE10" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="AF10" s="11" t="s">
+        <v>417</v>
+      </c>
       <c r="AG10" s="11" t="s">
         <v>192</v>
       </c>
@@ -12325,14 +12343,14 @@
       <c r="AK10" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="AL10" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM10" s="17" t="s">
-        <v>199</v>
+      <c r="AL10" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="AM10" s="18" t="s">
+        <v>419</v>
       </c>
       <c r="AN10" s="11" t="s">
-        <v>200</v>
+        <v>304</v>
       </c>
       <c r="AO10" s="18" t="s">
         <v>219</v>
@@ -12340,66 +12358,66 @@
     </row>
     <row r="11" spans="1:41" s="19" customFormat="1">
       <c r="A11" s="13">
-        <v>44.967874999999999</v>
+        <v>45.003878</v>
       </c>
       <c r="B11" s="13">
-        <v>-93.257012399999994</v>
+        <v>-93.308229999999995</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>374</v>
+        <v>399</v>
+      </c>
+      <c r="F11" s="15">
+        <v>26412</v>
       </c>
       <c r="G11" s="15">
-        <v>38028</v>
+        <v>37748</v>
       </c>
       <c r="H11" s="13">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="J11" s="13">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>202</v>
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="11" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="20"/>
-      <c r="R11" s="15" t="s">
-        <v>374</v>
+      <c r="R11" s="15">
+        <v>26412</v>
       </c>
       <c r="S11" s="15">
-        <v>38028</v>
+        <v>37748</v>
       </c>
       <c r="T11" s="13">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="U11" s="13">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="W11" s="11" t="s">
         <v>189</v>
@@ -12408,22 +12426,28 @@
         <v>209</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>259</v>
+        <v>400</v>
       </c>
       <c r="Z11" s="11" t="s">
-        <v>192</v>
+        <v>401</v>
       </c>
       <c r="AA11" s="11" t="s">
-        <v>193</v>
+        <v>402</v>
       </c>
       <c r="AB11" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="11"/>
+        <v>211</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD11" s="15">
+        <v>37748</v>
+      </c>
+      <c r="AE11" s="11" t="s">
+        <v>404</v>
+      </c>
       <c r="AF11" s="11" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="AG11" s="11" t="s">
         <v>192</v>
@@ -12432,86 +12456,86 @@
         <v>195</v>
       </c>
       <c r="AI11" s="11" t="s">
-        <v>196</v>
+        <v>276</v>
       </c>
       <c r="AJ11" s="11" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="AK11" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL11" s="11" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="AM11" s="21" t="s">
-        <v>252</v>
+        <v>407</v>
       </c>
       <c r="AN11" s="11" t="s">
-        <v>378</v>
+        <v>304</v>
       </c>
       <c r="AO11" s="18" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:41" s="19" customFormat="1">
       <c r="A12" s="13">
-        <v>45.011615999999997</v>
+        <v>44.979942000000001</v>
       </c>
       <c r="B12" s="13">
-        <v>-93.301855599999996</v>
+        <v>-93.307952900000004</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>353</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="F12" s="15">
-        <v>32717</v>
+        <v>27359</v>
       </c>
       <c r="G12" s="15">
-        <v>38284</v>
+        <v>37861</v>
       </c>
       <c r="H12" s="13">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="J12" s="13">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>224</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="N12" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12" t="s">
+      <c r="O12" s="11"/>
+      <c r="P12" s="11" t="s">
         <v>233</v>
       </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="15">
-        <v>32717</v>
+        <v>27359</v>
       </c>
       <c r="S12" s="15">
-        <v>38284</v>
+        <v>37861</v>
       </c>
       <c r="T12" s="13">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="U12" s="13">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="V12" s="11" t="s">
         <v>224</v>
@@ -12523,28 +12547,26 @@
         <v>209</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA12" s="11" t="s">
-        <v>193</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="AA12" s="11"/>
       <c r="AB12" s="11" t="s">
-        <v>211</v>
+        <v>299</v>
       </c>
       <c r="AC12" s="11" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="AD12" s="15">
-        <v>38284</v>
+        <v>37861</v>
       </c>
       <c r="AE12" s="11" t="s">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="AF12" s="11" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="AG12" s="11" t="s">
         <v>192</v>
@@ -12553,22 +12575,22 @@
         <v>195</v>
       </c>
       <c r="AI12" s="11" t="s">
-        <v>359</v>
+        <v>196</v>
       </c>
       <c r="AJ12" s="11" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="AK12" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL12" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="AM12" s="21" t="s">
-        <v>361</v>
+        <v>394</v>
+      </c>
+      <c r="AM12" s="17" t="s">
+        <v>395</v>
       </c>
       <c r="AN12" s="11" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="AO12" s="18" t="s">
         <v>219</v>
@@ -12576,40 +12598,40 @@
     </row>
     <row r="13" spans="1:41" s="19" customFormat="1">
       <c r="A13" s="13">
-        <v>44.998750000000001</v>
+        <v>44.960296</v>
       </c>
       <c r="B13" s="13">
-        <v>-93.304429900000002</v>
+        <v>-93.265049000000005</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>268</v>
+        <v>380</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>269</v>
+        <v>381</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>270</v>
+        <v>382</v>
       </c>
       <c r="F13" s="15">
-        <v>31233</v>
+        <v>29988</v>
       </c>
       <c r="G13" s="15">
-        <v>39849</v>
+        <v>37904</v>
       </c>
       <c r="H13" s="13">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="J13" s="13">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>267</v>
+        <v>379</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>183</v>
@@ -12617,37 +12639,37 @@
       <c r="N13" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="O13" s="12"/>
+      <c r="O13" s="11"/>
       <c r="P13" s="11" t="s">
         <v>233</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="15">
-        <v>31233</v>
+        <v>29988</v>
       </c>
       <c r="S13" s="15">
-        <v>39849</v>
+        <v>37904</v>
       </c>
       <c r="T13" s="13">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="U13" s="13">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="X13" s="11" t="s">
         <v>209</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>272</v>
+        <v>383</v>
       </c>
       <c r="Z13" s="11" t="s">
-        <v>273</v>
+        <v>192</v>
       </c>
       <c r="AA13" s="11" t="s">
         <v>193</v>
@@ -12656,16 +12678,16 @@
         <v>211</v>
       </c>
       <c r="AC13" s="11" t="s">
-        <v>239</v>
+        <v>348</v>
       </c>
       <c r="AD13" s="15">
-        <v>39849</v>
+        <v>37904</v>
       </c>
       <c r="AE13" s="11" t="s">
-        <v>274</v>
+        <v>384</v>
       </c>
       <c r="AF13" s="11" t="s">
-        <v>275</v>
+        <v>385</v>
       </c>
       <c r="AG13" s="11" t="s">
         <v>192</v>
@@ -12674,22 +12696,22 @@
         <v>195</v>
       </c>
       <c r="AI13" s="11" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="AJ13" s="11" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="AK13" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL13" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="AM13" s="18" t="s">
-        <v>279</v>
+        <v>386</v>
+      </c>
+      <c r="AM13" s="21" t="s">
+        <v>387</v>
       </c>
       <c r="AN13" s="11" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="AO13" s="18" t="s">
         <v>219</v>
@@ -12697,63 +12719,63 @@
     </row>
     <row r="14" spans="1:41" s="19" customFormat="1">
       <c r="A14" s="13">
-        <v>45.003878</v>
+        <v>44.958854000000002</v>
       </c>
       <c r="B14" s="13">
-        <v>-93.308229999999995</v>
+        <v>-93.285842000000002</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="F14" s="15">
-        <v>26412</v>
+        <v>27806</v>
       </c>
       <c r="G14" s="15">
-        <v>37748</v>
+        <v>38133</v>
       </c>
       <c r="H14" s="13">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="J14" s="13">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>224</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="O14" s="12"/>
+      <c r="O14" s="11"/>
       <c r="P14" s="11" t="s">
         <v>246</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="15">
-        <v>26412</v>
+        <v>27806</v>
       </c>
       <c r="S14" s="15">
-        <v>37748</v>
+        <v>38133</v>
       </c>
       <c r="T14" s="13">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="U14" s="13">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="V14" s="11" t="s">
         <v>224</v>
@@ -12765,28 +12787,28 @@
         <v>209</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>400</v>
+        <v>298</v>
       </c>
       <c r="Z14" s="11" t="s">
-        <v>401</v>
+        <v>192</v>
       </c>
       <c r="AA14" s="11" t="s">
-        <v>402</v>
+        <v>193</v>
       </c>
       <c r="AB14" s="11" t="s">
-        <v>211</v>
+        <v>299</v>
       </c>
       <c r="AC14" s="11" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="AD14" s="15">
-        <v>37748</v>
+        <v>38133</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>404</v>
+        <v>286</v>
       </c>
       <c r="AF14" s="11" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="AG14" s="11" t="s">
         <v>192</v>
@@ -12795,19 +12817,19 @@
         <v>195</v>
       </c>
       <c r="AI14" s="11" t="s">
-        <v>276</v>
+        <v>196</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="AK14" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL14" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="AM14" s="21" t="s">
-        <v>407</v>
+        <v>369</v>
+      </c>
+      <c r="AM14" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="AN14" s="11" t="s">
         <v>304</v>
@@ -12818,75 +12840,75 @@
     </row>
     <row r="15" spans="1:41" s="19" customFormat="1">
       <c r="A15" s="13">
-        <v>44.947066999999997</v>
+        <v>45.011615999999997</v>
       </c>
       <c r="B15" s="13">
-        <v>-93.255409200000003</v>
+        <v>-93.301855599999996</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>466</v>
+        <v>353</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>467</v>
+        <v>354</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>468</v>
+        <v>355</v>
       </c>
       <c r="F15" s="15">
-        <v>25916</v>
+        <v>32717</v>
       </c>
       <c r="G15" s="15">
-        <v>36831</v>
+        <v>38284</v>
       </c>
       <c r="H15" s="13">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>277</v>
       </c>
       <c r="J15" s="13">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>224</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>465</v>
+        <v>352</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="12" t="s">
         <v>202</v>
       </c>
       <c r="O15" s="12"/>
-      <c r="P15" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q15" s="20"/>
+      <c r="P15" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q15" s="11"/>
       <c r="R15" s="15">
-        <v>25916</v>
+        <v>32717</v>
       </c>
       <c r="S15" s="15">
-        <v>36831</v>
+        <v>38284</v>
       </c>
       <c r="T15" s="13">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="U15" s="13">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="V15" s="11" t="s">
         <v>224</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="X15" s="11" t="s">
         <v>209</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>469</v>
+        <v>356</v>
       </c>
       <c r="Z15" s="11" t="s">
         <v>192</v>
@@ -12898,16 +12920,16 @@
         <v>211</v>
       </c>
       <c r="AC15" s="11" t="s">
-        <v>239</v>
+        <v>348</v>
       </c>
       <c r="AD15" s="15">
-        <v>36831</v>
+        <v>38284</v>
       </c>
       <c r="AE15" s="11" t="s">
-        <v>470</v>
+        <v>357</v>
       </c>
       <c r="AF15" s="11" t="s">
-        <v>471</v>
+        <v>358</v>
       </c>
       <c r="AG15" s="11" t="s">
         <v>192</v>
@@ -12916,7 +12938,7 @@
         <v>195</v>
       </c>
       <c r="AI15" s="11" t="s">
-        <v>276</v>
+        <v>359</v>
       </c>
       <c r="AJ15" s="11" t="s">
         <v>277</v>
@@ -12925,54 +12947,54 @@
         <v>197</v>
       </c>
       <c r="AL15" s="11" t="s">
-        <v>472</v>
+        <v>360</v>
       </c>
       <c r="AM15" s="21" t="s">
-        <v>473</v>
+        <v>361</v>
       </c>
       <c r="AN15" s="11" t="s">
-        <v>304</v>
+        <v>362</v>
       </c>
       <c r="AO15" s="18" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:41" s="19" customFormat="1">
       <c r="A16" s="13">
-        <v>44.937156000000002</v>
+        <v>45.005898000000002</v>
       </c>
       <c r="B16" s="13">
-        <v>-93.273123999999996</v>
+        <v>-93.315033</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>485</v>
+        <v>344</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>486</v>
+        <v>345</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>488</v>
+        <v>346</v>
+      </c>
+      <c r="F16" s="15">
+        <v>30398</v>
       </c>
       <c r="G16" s="15">
-        <v>36660</v>
+        <v>38374</v>
       </c>
       <c r="H16" s="13">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="J16" s="13">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>188</v>
+        <v>309</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>484</v>
+        <v>343</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>183</v>
@@ -12980,37 +13002,39 @@
       <c r="N16" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="O16" s="11"/>
+      <c r="O16" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="P16" s="11" t="s">
         <v>233</v>
       </c>
       <c r="Q16" s="20"/>
-      <c r="R16" s="15" t="s">
-        <v>488</v>
+      <c r="R16" s="15">
+        <v>30398</v>
       </c>
       <c r="S16" s="15">
-        <v>36660</v>
+        <v>38374</v>
       </c>
       <c r="T16" s="13">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="U16" s="13">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>188</v>
+        <v>309</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="X16" s="11" t="s">
         <v>209</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>489</v>
+        <v>347</v>
       </c>
       <c r="Z16" s="11" t="s">
-        <v>273</v>
+        <v>192</v>
       </c>
       <c r="AA16" s="11" t="s">
         <v>193</v>
@@ -13019,16 +13043,16 @@
         <v>211</v>
       </c>
       <c r="AC16" s="11" t="s">
-        <v>212</v>
+        <v>348</v>
       </c>
       <c r="AD16" s="15">
-        <v>36660</v>
+        <v>38374</v>
       </c>
       <c r="AE16" s="11" t="s">
-        <v>490</v>
+        <v>349</v>
       </c>
       <c r="AF16" s="11" t="s">
-        <v>491</v>
+        <v>350</v>
       </c>
       <c r="AG16" s="11" t="s">
         <v>192</v>
@@ -13037,18 +13061,18 @@
         <v>195</v>
       </c>
       <c r="AI16" s="11" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="AJ16" s="11" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="AK16" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL16" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="AM16" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="AM16" s="21" t="s">
         <v>252</v>
       </c>
       <c r="AN16" s="11" t="s">
@@ -13060,40 +13084,40 @@
     </row>
     <row r="17" spans="1:41" s="19" customFormat="1">
       <c r="A17" s="13">
-        <v>45.022320000000001</v>
+        <v>44.962893999999999</v>
       </c>
       <c r="B17" s="13">
-        <v>-93.296493499999997</v>
+        <v>-93.288978599999993</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>442</v>
+        <v>335</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>443</v>
+        <v>336</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="F17" s="15">
-        <v>31286</v>
+        <v>337</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>338</v>
       </c>
       <c r="G17" s="15">
-        <v>37101</v>
+        <v>38565</v>
       </c>
       <c r="H17" s="13">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="J17" s="13">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>441</v>
+        <v>334</v>
       </c>
       <c r="M17" s="11" t="s">
         <v>183</v>
@@ -13106,20 +13130,20 @@
         <v>233</v>
       </c>
       <c r="Q17" s="20"/>
-      <c r="R17" s="15">
-        <v>31286</v>
+      <c r="R17" s="15" t="s">
+        <v>338</v>
       </c>
       <c r="S17" s="15">
-        <v>37101</v>
+        <v>38565</v>
       </c>
       <c r="T17" s="13">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="U17" s="13">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="W17" s="11" t="s">
         <v>189</v>
@@ -13128,28 +13152,26 @@
         <v>209</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>238</v>
+        <v>339</v>
       </c>
       <c r="Z17" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA17" s="11" t="s">
-        <v>193</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="AA17" s="11"/>
       <c r="AB17" s="11" t="s">
         <v>211</v>
       </c>
       <c r="AC17" s="11" t="s">
-        <v>445</v>
+        <v>239</v>
       </c>
       <c r="AD17" s="15">
-        <v>37101</v>
+        <v>38565</v>
       </c>
       <c r="AE17" s="11" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="AF17" s="11" t="s">
-        <v>446</v>
+        <v>341</v>
       </c>
       <c r="AG17" s="11" t="s">
         <v>192</v>
@@ -13158,22 +13180,22 @@
         <v>195</v>
       </c>
       <c r="AI17" s="11" t="s">
-        <v>447</v>
+        <v>214</v>
       </c>
       <c r="AJ17" s="11" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="AK17" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL17" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="AM17" s="21" t="s">
-        <v>449</v>
+        <v>342</v>
+      </c>
+      <c r="AM17" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="AN17" s="11" t="s">
-        <v>450</v>
+        <v>304</v>
       </c>
       <c r="AO17" s="18" t="s">
         <v>219</v>
@@ -13181,40 +13203,38 @@
     </row>
     <row r="18" spans="1:41" s="19" customFormat="1">
       <c r="A18" s="13">
-        <v>45.005898000000002</v>
+        <v>45.015357999999999</v>
       </c>
       <c r="B18" s="13">
-        <v>-93.315033</v>
+        <v>-93.284095800000003</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>346</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="E18" s="15"/>
       <c r="F18" s="15">
-        <v>30398</v>
+        <v>31841</v>
       </c>
       <c r="G18" s="15">
-        <v>38374</v>
+        <v>38920</v>
       </c>
       <c r="H18" s="13">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>241</v>
       </c>
       <c r="J18" s="13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>183</v>
@@ -13222,36 +13242,34 @@
       <c r="N18" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="O18" s="12" t="s">
-        <v>197</v>
-      </c>
+      <c r="O18" s="12"/>
       <c r="P18" s="11" t="s">
         <v>233</v>
       </c>
       <c r="Q18" s="20"/>
       <c r="R18" s="15">
-        <v>30398</v>
+        <v>31841</v>
       </c>
       <c r="S18" s="15">
-        <v>38374</v>
+        <v>38920</v>
       </c>
       <c r="T18" s="13">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="U18" s="13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="X18" s="11" t="s">
         <v>209</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>347</v>
+        <v>238</v>
       </c>
       <c r="Z18" s="11" t="s">
         <v>192</v>
@@ -13263,16 +13281,16 @@
         <v>211</v>
       </c>
       <c r="AC18" s="11" t="s">
-        <v>348</v>
+        <v>239</v>
       </c>
       <c r="AD18" s="15">
-        <v>38374</v>
+        <v>38920</v>
       </c>
       <c r="AE18" s="11" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="AF18" s="11" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AG18" s="11" t="s">
         <v>192</v>
@@ -13290,13 +13308,13 @@
         <v>197</v>
       </c>
       <c r="AL18" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="AM18" s="21" t="s">
-        <v>252</v>
+        <v>331</v>
+      </c>
+      <c r="AM18" s="18" t="s">
+        <v>332</v>
       </c>
       <c r="AN18" s="11" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="AO18" s="18" t="s">
         <v>219</v>
@@ -13304,64 +13322,66 @@
     </row>
     <row r="19" spans="1:41" s="19" customFormat="1">
       <c r="A19" s="13">
-        <v>45.015357999999999</v>
+        <v>44.930529999999997</v>
       </c>
       <c r="B19" s="13">
-        <v>-93.284095800000003</v>
+        <v>-93.252370200000001</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="E19" s="15"/>
+        <v>318</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>319</v>
+      </c>
       <c r="F19" s="15">
-        <v>31841</v>
+        <v>28991</v>
       </c>
       <c r="G19" s="15">
-        <v>38920</v>
+        <v>38980</v>
       </c>
       <c r="H19" s="13">
         <v>2006</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="J19" s="13">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="12" t="s">
         <v>202</v>
       </c>
       <c r="O19" s="12"/>
-      <c r="P19" s="11" t="s">
-        <v>233</v>
+      <c r="P19" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="Q19" s="20"/>
       <c r="R19" s="15">
-        <v>31841</v>
+        <v>28991</v>
       </c>
       <c r="S19" s="15">
-        <v>38920</v>
+        <v>38980</v>
       </c>
       <c r="T19" s="13">
         <v>2006</v>
       </c>
       <c r="U19" s="13">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="W19" s="11" t="s">
         <v>237</v>
@@ -13370,7 +13390,7 @@
         <v>209</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>238</v>
+        <v>320</v>
       </c>
       <c r="Z19" s="11" t="s">
         <v>192</v>
@@ -13384,14 +13404,14 @@
       <c r="AC19" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="AD19" s="15">
-        <v>38920</v>
+      <c r="AD19" s="22">
+        <v>38980</v>
       </c>
       <c r="AE19" s="11" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="AF19" s="11" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="AG19" s="11" t="s">
         <v>192</v>
@@ -13400,63 +13420,61 @@
         <v>195</v>
       </c>
       <c r="AI19" s="11" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="AJ19" s="11" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="AK19" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL19" s="11" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="AM19" s="18" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AN19" s="11" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="AO19" s="18" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:41" s="19" customFormat="1">
       <c r="A20" s="13">
-        <v>44.953163000000004</v>
+        <v>44.926909999999999</v>
       </c>
       <c r="B20" s="13">
-        <v>-93.2902603</v>
+        <v>-93.223610199999996</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="F20" s="15">
-        <v>33023</v>
+        <v>307</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>308</v>
       </c>
       <c r="G20" s="15">
-        <v>41404</v>
+        <v>39019</v>
       </c>
       <c r="H20" s="13">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>241</v>
       </c>
       <c r="J20" s="13">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="M20" s="11" t="s">
         <v>183</v>
@@ -13469,20 +13487,20 @@
         <v>233</v>
       </c>
       <c r="Q20" s="20"/>
-      <c r="R20" s="15">
-        <v>33023</v>
+      <c r="R20" s="15" t="s">
+        <v>308</v>
       </c>
       <c r="S20" s="15">
-        <v>41404</v>
+        <v>39019</v>
       </c>
       <c r="T20" s="13">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="U20" s="13">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="W20" s="11" t="s">
         <v>237</v>
@@ -13491,7 +13509,7 @@
         <v>209</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
       <c r="Z20" s="11" t="s">
         <v>192</v>
@@ -13506,13 +13524,13 @@
         <v>239</v>
       </c>
       <c r="AD20" s="15">
-        <v>41404</v>
+        <v>39019</v>
       </c>
       <c r="AE20" s="11" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="AF20" s="11" t="s">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="AG20" s="11" t="s">
         <v>192</v>
@@ -13521,7 +13539,7 @@
         <v>195</v>
       </c>
       <c r="AI20" s="11" t="s">
-        <v>241</v>
+        <v>313</v>
       </c>
       <c r="AJ20" s="11" t="s">
         <v>241</v>
@@ -13530,89 +13548,87 @@
         <v>197</v>
       </c>
       <c r="AL20" s="11" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="AM20" s="18" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AN20" s="11" t="s">
-        <v>244</v>
+        <v>315</v>
       </c>
       <c r="AO20" s="18" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:41" s="19" customFormat="1">
       <c r="A21" s="13">
-        <v>44.960296</v>
+        <v>44.975262000000001</v>
       </c>
       <c r="B21" s="13">
-        <v>-93.265049000000005</v>
+        <v>-93.279055499999998</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>380</v>
+        <v>294</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>381</v>
+        <v>295</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="F21" s="15">
-        <v>29988</v>
+        <v>296</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>297</v>
       </c>
       <c r="G21" s="15">
-        <v>37904</v>
+        <v>39539</v>
       </c>
       <c r="H21" s="13">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="J21" s="13">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>224</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>379</v>
+        <v>292</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>202</v>
       </c>
       <c r="O21" s="11"/>
-      <c r="P21" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="15">
-        <v>29988</v>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="15" t="s">
+        <v>297</v>
       </c>
       <c r="S21" s="15">
-        <v>37904</v>
+        <v>39539</v>
       </c>
       <c r="T21" s="13">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="U21" s="13">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="V21" s="11" t="s">
         <v>224</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="X21" s="11" t="s">
         <v>209</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="Z21" s="11" t="s">
         <v>192</v>
@@ -13621,19 +13637,19 @@
         <v>193</v>
       </c>
       <c r="AB21" s="11" t="s">
-        <v>211</v>
+        <v>299</v>
       </c>
       <c r="AC21" s="11" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="AD21" s="15">
-        <v>37904</v>
+        <v>39536</v>
       </c>
       <c r="AE21" s="11" t="s">
-        <v>384</v>
+        <v>301</v>
       </c>
       <c r="AF21" s="11" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="AG21" s="11" t="s">
         <v>192</v>
@@ -13642,19 +13658,19 @@
         <v>195</v>
       </c>
       <c r="AI21" s="11" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="AJ21" s="11" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="AK21" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL21" s="11" t="s">
-        <v>386</v>
+        <v>303</v>
       </c>
       <c r="AM21" s="21" t="s">
-        <v>387</v>
+        <v>252</v>
       </c>
       <c r="AN21" s="11" t="s">
         <v>304</v>
@@ -13665,80 +13681,78 @@
     </row>
     <row r="22" spans="1:41" s="19" customFormat="1">
       <c r="A22" s="13">
-        <v>44.946536999999999</v>
+        <v>44.987757000000002</v>
       </c>
       <c r="B22" s="13">
-        <v>-93.280077399999996</v>
+        <v>-93.301905899999994</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>422</v>
+        <v>256</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>423</v>
+        <v>282</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>425</v>
+        <v>283</v>
+      </c>
+      <c r="F22" s="15">
+        <v>30774</v>
       </c>
       <c r="G22" s="15">
-        <v>37469</v>
+        <v>39791</v>
       </c>
       <c r="H22" s="13">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>241</v>
       </c>
       <c r="J22" s="13">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="K22" s="11" t="s">
         <v>224</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>420</v>
+        <v>281</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="N22" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="O22" s="11" t="s">
-        <v>421</v>
-      </c>
+      <c r="O22" s="12"/>
       <c r="P22" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="15" t="s">
-        <v>425</v>
+        <v>233</v>
+      </c>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="15">
+        <v>30774</v>
       </c>
       <c r="S22" s="15">
-        <v>37469</v>
+        <v>39791</v>
       </c>
       <c r="T22" s="13">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="U22" s="13">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="V22" s="11" t="s">
         <v>224</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="X22" s="11" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>426</v>
+        <v>192</v>
       </c>
       <c r="AA22" s="11" t="s">
         <v>193</v>
@@ -13747,16 +13761,16 @@
         <v>211</v>
       </c>
       <c r="AC22" s="11" t="s">
-        <v>427</v>
+        <v>285</v>
       </c>
       <c r="AD22" s="15">
-        <v>37469</v>
+        <v>39791</v>
       </c>
       <c r="AE22" s="11" t="s">
-        <v>428</v>
+        <v>286</v>
       </c>
       <c r="AF22" s="11" t="s">
-        <v>428</v>
+        <v>287</v>
       </c>
       <c r="AG22" s="11" t="s">
         <v>192</v>
@@ -13765,7 +13779,7 @@
         <v>195</v>
       </c>
       <c r="AI22" s="11" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="AJ22" s="11" t="s">
         <v>241</v>
@@ -13774,13 +13788,13 @@
         <v>197</v>
       </c>
       <c r="AL22" s="11" t="s">
-        <v>429</v>
+        <v>289</v>
       </c>
       <c r="AM22" s="21" t="s">
-        <v>430</v>
+        <v>290</v>
       </c>
       <c r="AN22" s="11" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="AO22" s="18" t="s">
         <v>266</v>
@@ -13788,43 +13802,43 @@
     </row>
     <row r="23" spans="1:41" s="19" customFormat="1">
       <c r="A23" s="13">
-        <v>44.987757000000002</v>
+        <v>44.998750000000001</v>
       </c>
       <c r="B23" s="13">
-        <v>-93.301905899999994</v>
+        <v>-93.304429900000002</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="F23" s="15">
-        <v>30774</v>
+        <v>31233</v>
       </c>
       <c r="G23" s="15">
-        <v>39791</v>
+        <v>39849</v>
       </c>
       <c r="H23" s="13">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="J23" s="13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>202</v>
@@ -13835,19 +13849,19 @@
       </c>
       <c r="Q23" s="20"/>
       <c r="R23" s="15">
-        <v>30774</v>
+        <v>31233</v>
       </c>
       <c r="S23" s="15">
-        <v>39791</v>
+        <v>39849</v>
       </c>
       <c r="T23" s="13">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="U23" s="13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="W23" s="11" t="s">
         <v>237</v>
@@ -13856,10 +13870,10 @@
         <v>209</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="AA23" s="11" t="s">
         <v>193</v>
@@ -13868,16 +13882,16 @@
         <v>211</v>
       </c>
       <c r="AC23" s="11" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="AD23" s="15">
-        <v>39791</v>
+        <v>39849</v>
       </c>
       <c r="AE23" s="11" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="AF23" s="11" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AG23" s="11" t="s">
         <v>192</v>
@@ -13886,64 +13900,66 @@
         <v>195</v>
       </c>
       <c r="AI23" s="11" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AJ23" s="11" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="AK23" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL23" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="AM23" s="21" t="s">
-        <v>290</v>
+        <v>278</v>
+      </c>
+      <c r="AM23" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="AN23" s="11" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="AO23" s="18" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:41" s="19" customFormat="1">
       <c r="A24" s="13">
-        <v>44.926909999999999</v>
+        <v>44.975864000000001</v>
       </c>
       <c r="B24" s="13">
-        <v>-93.223610199999996</v>
+        <v>-93.275512699999993</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15" t="s">
-        <v>308</v>
+        <v>257</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="F24" s="15">
+        <v>30012</v>
       </c>
       <c r="G24" s="15">
-        <v>39019</v>
+        <v>40438</v>
       </c>
       <c r="H24" s="13">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="J24" s="13">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>202</v>
@@ -13953,20 +13969,20 @@
         <v>233</v>
       </c>
       <c r="Q24" s="20"/>
-      <c r="R24" s="15" t="s">
-        <v>308</v>
+      <c r="R24" s="15">
+        <v>30012</v>
       </c>
       <c r="S24" s="15">
-        <v>39019</v>
+        <v>40438</v>
       </c>
       <c r="T24" s="13">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="U24" s="13">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
       <c r="W24" s="11" t="s">
         <v>237</v>
@@ -13975,7 +13991,7 @@
         <v>209</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="Z24" s="11" t="s">
         <v>192</v>
@@ -13987,16 +14003,16 @@
         <v>211</v>
       </c>
       <c r="AC24" s="11" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="AD24" s="15">
-        <v>39019</v>
+        <v>40430</v>
       </c>
       <c r="AE24" s="11" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="AF24" s="11" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="AG24" s="11" t="s">
         <v>192</v>
@@ -14005,22 +14021,22 @@
         <v>195</v>
       </c>
       <c r="AI24" s="11" t="s">
-        <v>313</v>
+        <v>196</v>
       </c>
       <c r="AJ24" s="11" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="AK24" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL24" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="AM24" s="18" t="s">
-        <v>252</v>
+        <v>263</v>
+      </c>
+      <c r="AM24" s="21" t="s">
+        <v>264</v>
       </c>
       <c r="AN24" s="11" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="AO24" s="18" t="s">
         <v>266</v>
@@ -14028,40 +14044,38 @@
     </row>
     <row r="25" spans="1:41" s="19" customFormat="1">
       <c r="A25" s="13">
-        <v>44.919842000000003</v>
+        <v>44.947639000000002</v>
       </c>
       <c r="B25" s="13">
-        <v>-93.278343199999995</v>
+        <v>-93.244522099999998</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>459</v>
+        <v>247</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>461</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="E25" s="15"/>
       <c r="F25" s="15">
-        <v>27056</v>
+        <v>26354</v>
       </c>
       <c r="G25" s="15">
-        <v>36983</v>
+        <v>41041</v>
       </c>
       <c r="H25" s="13">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="J25" s="13">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K25" s="11" t="s">
         <v>224</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>458</v>
+        <v>245</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>183</v>
@@ -14071,32 +14085,32 @@
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="Q25" s="20"/>
       <c r="R25" s="15">
-        <v>27056</v>
+        <v>26354</v>
       </c>
       <c r="S25" s="15">
-        <v>36983</v>
+        <v>41041</v>
       </c>
       <c r="T25" s="13">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="U25" s="13">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="V25" s="11" t="s">
         <v>224</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="X25" s="11" t="s">
         <v>209</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>339</v>
+        <v>249</v>
       </c>
       <c r="Z25" s="11" t="s">
         <v>192</v>
@@ -14111,13 +14125,13 @@
         <v>239</v>
       </c>
       <c r="AD25" s="15">
-        <v>36983</v>
+        <v>41041</v>
       </c>
       <c r="AE25" s="11" t="s">
-        <v>462</v>
+        <v>250</v>
       </c>
       <c r="AF25" s="11" t="s">
-        <v>463</v>
+        <v>250</v>
       </c>
       <c r="AG25" s="11" t="s">
         <v>192</v>
@@ -14126,22 +14140,22 @@
         <v>195</v>
       </c>
       <c r="AI25" s="11" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="AJ25" s="11" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="AK25" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL25" s="11" t="s">
-        <v>464</v>
+        <v>251</v>
       </c>
       <c r="AM25" s="18" t="s">
         <v>252</v>
       </c>
       <c r="AN25" s="11" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="AO25" s="18" t="s">
         <v>219</v>
@@ -14149,38 +14163,40 @@
     </row>
     <row r="26" spans="1:41" s="19" customFormat="1">
       <c r="A26" s="13">
-        <v>44.947639000000002</v>
+        <v>44.953163000000004</v>
       </c>
       <c r="B26" s="13">
-        <v>-93.244522099999998</v>
+        <v>-93.2902603</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E26" s="15"/>
+        <v>235</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>236</v>
+      </c>
       <c r="F26" s="15">
-        <v>26354</v>
+        <v>33023</v>
       </c>
       <c r="G26" s="15">
-        <v>41041</v>
+        <v>41404</v>
       </c>
       <c r="H26" s="13">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="J26" s="13">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>224</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>183</v>
@@ -14190,20 +14206,20 @@
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="Q26" s="20"/>
       <c r="R26" s="15">
-        <v>26354</v>
+        <v>33023</v>
       </c>
       <c r="S26" s="15">
-        <v>41041</v>
+        <v>41404</v>
       </c>
       <c r="T26" s="13">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="U26" s="13">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="V26" s="11" t="s">
         <v>224</v>
@@ -14215,7 +14231,7 @@
         <v>209</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="Z26" s="11" t="s">
         <v>192</v>
@@ -14230,13 +14246,13 @@
         <v>239</v>
       </c>
       <c r="AD26" s="15">
-        <v>41041</v>
+        <v>41404</v>
       </c>
       <c r="AE26" s="11" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF26" s="11" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AG26" s="11" t="s">
         <v>192</v>
@@ -14245,22 +14261,22 @@
         <v>195</v>
       </c>
       <c r="AI26" s="11" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="AJ26" s="11" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="AK26" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL26" s="11" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="AM26" s="18" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AN26" s="11" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AO26" s="18" t="s">
         <v>219</v>
@@ -14268,40 +14284,40 @@
     </row>
     <row r="27" spans="1:41" s="19" customFormat="1">
       <c r="A27" s="13">
-        <v>44.962600000000002</v>
+        <v>44.991782999999998</v>
       </c>
       <c r="B27" s="13">
-        <v>-93.244100000000003</v>
+        <v>-93.300972000000002</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>207</v>
+        <v>223</v>
+      </c>
+      <c r="F27" s="15">
+        <v>33361</v>
       </c>
       <c r="G27" s="15">
-        <v>42464</v>
+        <v>42324</v>
       </c>
       <c r="H27" s="13">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="J27" s="13">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="M27" s="11" t="s">
         <v>183</v>
@@ -14309,36 +14325,36 @@
       <c r="N27" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="O27" s="11" t="s">
+      <c r="O27" s="12" t="s">
         <v>184</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>203</v>
       </c>
       <c r="Q27" s="20"/>
-      <c r="R27" s="15" t="s">
-        <v>207</v>
+      <c r="R27" s="15">
+        <v>33361</v>
       </c>
       <c r="S27" s="15">
-        <v>42464</v>
+        <v>42324</v>
       </c>
       <c r="T27" s="13">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="U27" s="13">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="W27" s="11" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="X27" s="11" t="s">
         <v>209</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="Z27" s="11" t="s">
         <v>192</v>
@@ -14350,16 +14366,16 @@
         <v>211</v>
       </c>
       <c r="AC27" s="11" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="AD27" s="15">
-        <v>42464</v>
+        <v>42323</v>
       </c>
       <c r="AE27" s="11" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="AF27" s="11" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="AG27" s="11" t="s">
         <v>192</v>
@@ -14368,22 +14384,22 @@
         <v>195</v>
       </c>
       <c r="AI27" s="11" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="AJ27" s="11" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="AK27" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL27" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="AM27" s="21" t="s">
-        <v>217</v>
+        <v>229</v>
+      </c>
+      <c r="AM27" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="AN27" s="11" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="AO27" s="18" t="s">
         <v>219</v>
@@ -14391,40 +14407,40 @@
     </row>
     <row r="28" spans="1:41" s="19" customFormat="1">
       <c r="A28" s="13">
-        <v>44.962893999999999</v>
+        <v>44.962600000000002</v>
       </c>
       <c r="B28" s="13">
-        <v>-93.288978599999993</v>
+        <v>-93.244100000000003</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>335</v>
+        <v>204</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>337</v>
+        <v>206</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c r="G28" s="15">
-        <v>38565</v>
+        <v>42464</v>
       </c>
       <c r="H28" s="13">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>215</v>
       </c>
       <c r="J28" s="13">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>334</v>
+        <v>201</v>
       </c>
       <c r="M28" s="11" t="s">
         <v>183</v>
@@ -14432,53 +14448,57 @@
       <c r="N28" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="O28" s="11"/>
+      <c r="O28" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="P28" s="11" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="20"/>
       <c r="R28" s="15" t="s">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c r="S28" s="15">
-        <v>38565</v>
+        <v>42464</v>
       </c>
       <c r="T28" s="13">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="U28" s="13">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="V28" s="11" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="W28" s="11" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="X28" s="11" t="s">
         <v>209</v>
       </c>
       <c r="Y28" s="11" t="s">
-        <v>339</v>
+        <v>210</v>
       </c>
       <c r="Z28" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA28" s="11"/>
+        <v>192</v>
+      </c>
+      <c r="AA28" s="11" t="s">
+        <v>193</v>
+      </c>
       <c r="AB28" s="11" t="s">
         <v>211</v>
       </c>
       <c r="AC28" s="11" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="AD28" s="15">
-        <v>38565</v>
+        <v>42464</v>
       </c>
       <c r="AE28" s="11" t="s">
-        <v>340</v>
+        <v>213</v>
       </c>
       <c r="AF28" s="11" t="s">
-        <v>341</v>
+        <v>213</v>
       </c>
       <c r="AG28" s="11" t="s">
         <v>192</v>
@@ -14496,13 +14516,13 @@
         <v>197</v>
       </c>
       <c r="AL28" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="AM28" s="18" t="s">
-        <v>252</v>
+        <v>216</v>
+      </c>
+      <c r="AM28" s="21" t="s">
+        <v>217</v>
       </c>
       <c r="AN28" s="11" t="s">
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="AO28" s="18" t="s">
         <v>219</v>
@@ -14510,75 +14530,69 @@
     </row>
     <row r="29" spans="1:41" s="19" customFormat="1">
       <c r="A29" s="13">
-        <v>44.946407000000001</v>
+        <v>44.910629999999998</v>
       </c>
       <c r="B29" s="13">
-        <v>-93.298675500000002</v>
+        <v>-93.318219999999997</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>475</v>
+        <v>185</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>478</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="15"/>
       <c r="G29" s="15">
-        <v>36689</v>
+        <v>42931</v>
       </c>
       <c r="H29" s="13">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="J29" s="13">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K29" s="11" t="s">
         <v>188</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>474</v>
+        <v>182</v>
       </c>
       <c r="M29" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="N29" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="15" t="s">
-        <v>478</v>
-      </c>
+      <c r="N29" s="11"/>
+      <c r="O29" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="15"/>
       <c r="S29" s="15">
-        <v>36689</v>
+        <v>42931</v>
       </c>
       <c r="T29" s="13">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="U29" s="13">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="V29" s="11" t="s">
         <v>188</v>
       </c>
       <c r="W29" s="11" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="X29" s="11" t="s">
         <v>190</v>
       </c>
       <c r="Y29" s="11" t="s">
-        <v>479</v>
+        <v>191</v>
       </c>
       <c r="Z29" s="11" t="s">
         <v>192</v>
@@ -14587,20 +14601,16 @@
         <v>193</v>
       </c>
       <c r="AB29" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC29" s="11" t="s">
-        <v>239</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="AC29" s="11"/>
       <c r="AD29" s="15">
-        <v>36689</v>
-      </c>
-      <c r="AE29" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="AF29" s="11" t="s">
-        <v>481</v>
-      </c>
+        <v>42931</v>
+      </c>
+      <c r="AE29" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="AF29" s="16"/>
       <c r="AG29" s="11" t="s">
         <v>192</v>
       </c>
@@ -14608,89 +14618,89 @@
         <v>195</v>
       </c>
       <c r="AI29" s="11" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="AJ29" s="11" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="AK29" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="AL29" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="AM29" s="21" t="s">
-        <v>483</v>
+      <c r="AL29" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM29" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="AN29" s="11" t="s">
-        <v>304</v>
+        <v>200</v>
       </c>
       <c r="AO29" s="18" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:41" s="19" customFormat="1">
       <c r="A30" s="13">
-        <v>44.963639000000001</v>
+        <v>44.967874999999999</v>
       </c>
       <c r="B30" s="13">
-        <v>-93.262613599999995</v>
+        <v>-93.257012399999994</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>432</v>
+        <v>371</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>433</v>
+        <v>372</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="F30" s="15">
-        <v>27030</v>
+        <v>373</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>374</v>
       </c>
       <c r="G30" s="15">
-        <v>37325</v>
+        <v>38028</v>
       </c>
       <c r="H30" s="13">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="J30" s="13">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>431</v>
+        <v>370</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="N30" s="11" t="s">
         <v>202</v>
       </c>
       <c r="O30" s="12"/>
       <c r="P30" s="11" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="Q30" s="20"/>
-      <c r="R30" s="15">
-        <v>27030</v>
+      <c r="R30" s="15" t="s">
+        <v>374</v>
       </c>
       <c r="S30" s="15">
-        <v>37325</v>
+        <v>38028</v>
       </c>
       <c r="T30" s="13">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="U30" s="13">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="W30" s="11" t="s">
         <v>189</v>
@@ -14699,7 +14709,7 @@
         <v>209</v>
       </c>
       <c r="Y30" s="11" t="s">
-        <v>435</v>
+        <v>259</v>
       </c>
       <c r="Z30" s="11" t="s">
         <v>192</v>
@@ -14708,19 +14718,13 @@
         <v>193</v>
       </c>
       <c r="AB30" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC30" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="AD30" s="15">
-        <v>37325</v>
-      </c>
-      <c r="AE30" s="11" t="s">
-        <v>437</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="11"/>
       <c r="AF30" s="11" t="s">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="AG30" s="11" t="s">
         <v>192</v>
@@ -14729,22 +14733,22 @@
         <v>195</v>
       </c>
       <c r="AI30" s="11" t="s">
-        <v>438</v>
+        <v>196</v>
       </c>
       <c r="AJ30" s="11" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="AK30" s="11" t="s">
         <v>197</v>
       </c>
       <c r="AL30" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="AM30" s="18" t="s">
-        <v>440</v>
+        <v>377</v>
+      </c>
+      <c r="AM30" s="21" t="s">
+        <v>252</v>
       </c>
       <c r="AN30" s="11" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="AO30" s="18" t="s">
         <v>266</v>
@@ -14752,7 +14756,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:AO30">
-    <sortCondition descending="1" ref="AJ1"/>
+    <sortCondition ref="AD1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -20423,91 +20427,91 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>643</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>644</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:12" ht="16" thickBot="1">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="74"/>
     </row>
     <row r="5" spans="1:12" ht="22" thickBot="1">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>647</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="77" t="s">
         <v>648</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80" t="s">
         <v>649</v>
       </c>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="79"/>
     </row>
     <row r="6" spans="1:12" ht="50" thickBot="1">
-      <c r="A6" s="74"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="34" t="s">
         <v>650</v>
       </c>
@@ -23909,20 +23913,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="64" t="s">
         <v>700</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="64" t="s">
         <v>685</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="64" t="s">
         <v>701</v>
       </c>
       <c r="D1" s="10"/>
@@ -23931,10 +23935,10 @@
       <c r="A2" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="B2" s="80">
+      <c r="B2" s="65">
         <v>0.6</v>
       </c>
-      <c r="C2" s="80">
+      <c r="C2" s="65">
         <v>0.17</v>
       </c>
       <c r="D2" s="10"/>
@@ -23943,10 +23947,10 @@
       <c r="A3" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="B3" s="80">
+      <c r="B3" s="65">
         <v>0.19</v>
       </c>
-      <c r="C3" s="80">
+      <c r="C3" s="65">
         <v>0.62</v>
       </c>
       <c r="D3" s="10"/>
@@ -23955,10 +23959,10 @@
       <c r="A4" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="B4" s="80">
+      <c r="B4" s="65">
         <v>0.06</v>
       </c>
-      <c r="C4" s="80">
+      <c r="C4" s="65">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D4" s="10"/>
@@ -23967,10 +23971,10 @@
       <c r="A5" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="B5" s="80">
+      <c r="B5" s="65">
         <v>0.02</v>
       </c>
-      <c r="C5" s="80">
+      <c r="C5" s="65">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D5" s="10"/>
@@ -23979,10 +23983,10 @@
       <c r="A6" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="65">
         <v>0.11</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="65">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D6" s="10"/>
